--- a/src/main/resources/mold_output.xlsx
+++ b/src/main/resources/mold_output.xlsx
@@ -86,7 +86,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-72.60540258802313</v>
+        <v>-47.32192444898172</v>
       </c>
       <c r="B3" t="n">
         <v>0.0</v>
@@ -94,7 +94,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-72.64994188759074</v>
+        <v>-47.22369651683323</v>
       </c>
       <c r="B4" t="n">
         <v>0.8</v>
@@ -102,7 +102,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-72.69392031836584</v>
+        <v>-47.11276110567783</v>
       </c>
       <c r="B5" t="n">
         <v>1.6</v>
@@ -110,7 +110,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-72.73733805340594</v>
+        <v>-46.989025461828305</v>
       </c>
       <c r="B6" t="n">
         <v>2.4000000000000004</v>
@@ -118,7 +118,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-72.78019525146792</v>
+        <v>-46.852395036738756</v>
       </c>
       <c r="B7" t="n">
         <v>3.2</v>
@@ -126,7 +126,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-72.82249205715615</v>
+        <v>-46.702773866328414</v>
       </c>
       <c r="B8" t="n">
         <v>4.0</v>
@@ -134,7 +134,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-72.86422860106741</v>
+        <v>-46.54006495944407</v>
       </c>
       <c r="B9" t="n">
         <v>4.800000000000001</v>
@@ -142,7 +142,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-72.90540499993578</v>
+        <v>-46.36417069617937</v>
       </c>
       <c r="B10" t="n">
         <v>5.6000000000000005</v>
@@ -150,7 +150,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-72.94602135677412</v>
+        <v>-46.17499323664623</v>
       </c>
       <c r="B11" t="n">
         <v>6.4</v>
@@ -158,7 +158,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-72.98607776101451</v>
+        <v>-45.972434940666744</v>
       </c>
       <c r="B12" t="n">
         <v>7.2</v>
@@ -166,7 +166,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-73.02557428864745</v>
+        <v>-45.75639879872267</v>
       </c>
       <c r="B13" t="n">
         <v>8.0</v>
@@ -174,7 +174,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-73.06451100235904</v>
+        <v>-45.52678887435667</v>
       </c>
       <c r="B14" t="n">
         <v>8.8</v>
@@ -182,7 +182,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-73.1028879516662</v>
+        <v>-45.28351075807592</v>
       </c>
       <c r="B15" t="n">
         <v>9.600000000000001</v>
@@ -190,7 +190,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-73.14070517305099</v>
+        <v>-45.026472032649224</v>
       </c>
       <c r="B16" t="n">
         <v>10.4</v>
@@ -198,7 +198,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-73.17796269009295</v>
+        <v>-44.755582749530845</v>
       </c>
       <c r="B17" t="n">
         <v>11.200000000000001</v>
@@ -206,7 +206,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-73.2146605136006</v>
+        <v>-44.470755915968596</v>
       </c>
       <c r="B18" t="n">
         <v>12.0</v>
@@ -214,7 +214,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-73.25079864174027</v>
+        <v>-44.1719079921786</v>
       </c>
       <c r="B19" t="n">
         <v>12.8</v>
@@ -222,7 +222,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-73.286377060165</v>
+        <v>-43.85895939778072</v>
       </c>
       <c r="B20" t="n">
         <v>13.600000000000001</v>
@@ -230,7 +230,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-73.32139574214112</v>
+        <v>-43.531835026497504</v>
       </c>
       <c r="B21" t="n">
         <v>14.4</v>
@@ -238,7 +238,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>-73.35585464867346</v>
+        <v>-43.19046476792019</v>
       </c>
       <c r="B22" t="n">
         <v>15.200000000000001</v>
@@ -246,7 +246,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>-73.38975372863008</v>
+        <v>-42.83478403494229</v>
       </c>
       <c r="B23" t="n">
         <v>16.0</v>
@@ -254,7 +254,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>-73.4230929188648</v>
+        <v>-42.46473429525582</v>
       </c>
       <c r="B24" t="n">
         <v>16.8</v>
@@ -262,7 +262,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>-73.45587214433857</v>
+        <v>-42.08026360509763</v>
       </c>
       <c r="B25" t="n">
         <v>17.6</v>
@@ -270,7 +270,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>-73.48809131824144</v>
+        <v>-41.681327143224735</v>
       </c>
       <c r="B26" t="n">
         <v>18.400000000000002</v>
@@ -278,7 +278,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>-73.51975034210984</v>
+        <v>-41.26788774289699</v>
       </c>
       <c r="B27" t="n">
         <v>19.200000000000003</v>
@@ -286,7 +286,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>-73.55084910594587</v>
+        <v>-40.839916419444165</v>
       </c>
       <c r="B28" t="n">
         <v>20.0</v>
@@ -294,7 +294,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-73.58138748833463</v>
+        <v>-40.39739289080484</v>
       </c>
       <c r="B29" t="n">
         <v>20.8</v>
@@ -302,7 +302,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>-73.61136535655919</v>
+        <v>-39.94030608824738</v>
       </c>
       <c r="B30" t="n">
         <v>21.6</v>
@@ -310,7 +310,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>-73.64078256671641</v>
+        <v>-39.46865465431733</v>
       </c>
       <c r="B31" t="n">
         <v>22.400000000000002</v>
@@ -318,7 +318,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>-73.66963896383044</v>
+        <v>-38.982447424908855</v>
       </c>
       <c r="B32" t="n">
         <v>23.200000000000003</v>
@@ -326,7 +326,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>-73.69793438196535</v>
+        <v>-38.48170389223506</v>
       </c>
       <c r="B33" t="n">
         <v>24.0</v>
@@ -334,7 +334,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>-73.72566864433773</v>
+        <v>-37.96645464536749</v>
       </c>
       <c r="B34" t="n">
         <v>24.8</v>
@@ -342,7 +342,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>-73.75284156342695</v>
+        <v>-37.43674178494757</v>
       </c>
       <c r="B35" t="n">
         <v>25.6</v>
@@ -350,7 +350,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>-73.77945294108565</v>
+        <v>-36.892619308626934</v>
       </c>
       <c r="B36" t="n">
         <v>26.400000000000002</v>
@@ -358,7 +358,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>-73.8055025686489</v>
+        <v>-36.3341534637905</v>
       </c>
       <c r="B37" t="n">
         <v>27.200000000000003</v>
@@ -366,7 +366,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>-73.83099022704238</v>
+        <v>-35.761423064145106</v>
       </c>
       <c r="B38" t="n">
         <v>28.0</v>
@@ -374,7 +374,7 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>-73.85591568688957</v>
+        <v>-35.174519766826904</v>
       </c>
       <c r="B39" t="n">
         <v>28.8</v>
@@ -382,7 +382,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>-73.88027870861902</v>
+        <v>-34.57354830679316</v>
       </c>
       <c r="B40" t="n">
         <v>29.6</v>
@@ -390,7 +390,7 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>-73.90407904256998</v>
+        <v>-33.9586266854173</v>
       </c>
       <c r="B41" t="n">
         <v>30.400000000000002</v>
@@ -398,7 +398,7 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>-73.92731642909726</v>
+        <v>-33.32988631040661</v>
       </c>
       <c r="B42" t="n">
         <v>31.200000000000003</v>
@@ -406,7 +406,7 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>-73.9499905986755</v>
+        <v>-32.68747208440192</v>
       </c>
       <c r="B43" t="n">
         <v>32.0</v>
@@ -414,7 +414,7 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>-73.97210127200307</v>
+        <v>-32.03154243990471</v>
       </c>
       <c r="B44" t="n">
         <v>32.800000000000004</v>
@@ -422,7 +422,7 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>-73.99364816010547</v>
+        <v>-31.36226931850274</v>
       </c>
       <c r="B45" t="n">
         <v>33.6</v>
@@ -430,7 +430,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>-74.01463096443646</v>
+        <v>-30.679838092731416</v>
       </c>
       <c r="B46" t="n">
         <v>34.4</v>
@@ -438,7 +438,7 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>-74.03504937698074</v>
+        <v>-29.984447429309398</v>
       </c>
       <c r="B47" t="n">
         <v>35.2</v>
@@ -446,7 +446,7 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>-74.05490308035432</v>
+        <v>-29.276309092918012</v>
       </c>
       <c r="B48" t="n">
         <v>36.0</v>
@@ -454,7 +454,7 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>-74.07419174790493</v>
+        <v>-28.55564769015723</v>
       </c>
       <c r="B49" t="n">
         <v>36.800000000000004</v>
@@ -462,7 +462,7 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>-74.09291504381207</v>
+        <v>-27.8227003537892</v>
       </c>
       <c r="B50" t="n">
         <v>37.6</v>
@@ -470,7 +470,7 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>-74.11107262318617</v>
+        <v>-27.077716367878253</v>
       </c>
       <c r="B51" t="n">
         <v>38.400000000000006</v>
@@ -478,7 +478,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>-74.12866413216733</v>
+        <v>-26.320956734942285</v>
       </c>
       <c r="B52" t="n">
         <v>39.2</v>
@@ -486,7 +486,7 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>-74.14568920802276</v>
+        <v>-25.552693686734017</v>
       </c>
       <c r="B53" t="n">
         <v>40.0</v>
@@ -494,7 +494,7 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>-74.16214747924539</v>
+        <v>-24.773210140773756</v>
       </c>
       <c r="B54" t="n">
         <v>40.800000000000004</v>
@@ -502,7 +502,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-74.17803856565064</v>
+        <v>-23.982799105240645</v>
       </c>
       <c r="B55" t="n">
         <v>41.6</v>
@@ -510,7 +510,7 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>-74.19336207847283</v>
+        <v>-23.181763035295205</v>
       </c>
       <c r="B56" t="n">
         <v>42.400000000000006</v>
@@ -518,7 +518,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-74.20811762046199</v>
+        <v>-22.370413144344838</v>
       </c>
       <c r="B57" t="n">
         <v>43.2</v>
@@ -526,7 +526,7 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>-74.22230478597908</v>
+        <v>-21.54906867416466</v>
       </c>
       <c r="B58" t="n">
         <v>44.0</v>
@@ -534,7 +534,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>-74.23592316109173</v>
+        <v>-20.718056128149783</v>
       </c>
       <c r="B59" t="n">
         <v>44.800000000000004</v>
@@ -542,7 +542,7 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>-74.24897232366902</v>
+        <v>-19.87770847228785</v>
       </c>
       <c r="B60" t="n">
         <v>45.6</v>
@@ -550,7 +550,7 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>-74.26145184347632</v>
+        <v>-19.02836430870491</v>
       </c>
       <c r="B61" t="n">
         <v>46.400000000000006</v>
@@ -558,7 +558,7 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>-74.2733612822698</v>
+        <v>-18.170367026844417</v>
       </c>
       <c r="B62" t="n">
         <v>47.2</v>
@@ -566,7 +566,7 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>-74.28470019388902</v>
+        <v>-17.30406393748956</v>
       </c>
       <c r="B63" t="n">
         <v>48.0</v>
@@ -574,7 +574,7 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>-74.29546812435277</v>
+        <v>-16.429805394927826</v>
       </c>
       <c r="B64" t="n">
         <v>48.800000000000004</v>
@@ -582,7 +582,7 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>-74.30566461194985</v>
+        <v>-15.547943912585794</v>
       </c>
       <c r="B65" t="n">
         <v>49.6</v>
@@ -590,7 +590,7 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>-74.31528918733446</v>
+        <v>-14.658833277431427</v>
       </c>
       <c r="B66" t="n">
         <v>50.400000000000006</v>
@@ -598,7 +598,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>-74.32434137361672</v>
+        <v>-13.762827668350667</v>
       </c>
       <c r="B67" t="n">
         <v>51.2</v>
@@ -606,7 +606,7 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>-74.61343023439048</v>
+        <v>-14.384352325304121</v>
       </c>
       <c r="B68" t="n">
         <v>52.0</v>
@@ -614,7 +614,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-74.9026386737392</v>
+        <v>-15.006342958609082</v>
       </c>
       <c r="B69" t="n">
         <v>52.800000000000004</v>
@@ -622,7 +622,7 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>-75.1919691140657</v>
+        <v>-15.62901602961702</v>
       </c>
       <c r="B70" t="n">
         <v>53.6</v>
@@ -630,7 +630,7 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>-75.48142396730583</v>
+        <v>-16.252594376001213</v>
       </c>
       <c r="B71" t="n">
         <v>54.400000000000006</v>
@@ -638,7 +638,7 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>-75.7710056350355</v>
+        <v>-16.87730805378746</v>
       </c>
       <c r="B72" t="n">
         <v>55.2</v>
@@ -646,7 +646,7 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>-76.06071650857302</v>
+        <v>-17.503395242947477</v>
       </c>
       <c r="B73" t="n">
         <v>56.0</v>
@@ -654,7 +654,7 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>-76.35055896907997</v>
+        <v>-18.1311032256842</v>
       </c>
       <c r="B74" t="n">
         <v>56.800000000000004</v>
@@ -662,7 +662,7 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>-76.640535387658</v>
+        <v>-18.760689447689742</v>
       </c>
       <c r="B75" t="n">
         <v>57.6</v>
@@ -670,7 +670,7 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>-76.93064812544455</v>
+        <v>-19.392422674013176</v>
       </c>
       <c r="B76" t="n">
         <v>58.400000000000006</v>
@@ -678,7 +678,7 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>-77.2208995337034</v>
+        <v>-20.026584252767407</v>
       </c>
       <c r="B77" t="n">
         <v>59.2</v>
@@ -686,7 +686,7 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>-77.51129195391445</v>
+        <v>-20.663469501780128</v>
       </c>
       <c r="B78" t="n">
         <v>60.0</v>
@@ -694,7 +694,7 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>-77.80182771785974</v>
+        <v>-21.30338923550488</v>
       </c>
       <c r="B79" t="n">
         <v>60.800000000000004</v>
@@ -702,7 +702,7 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>-78.09250914770672</v>
+        <v>-21.946671452119773</v>
       </c>
       <c r="B80" t="n">
         <v>61.6</v>
@@ -710,7 +710,7 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>-78.38333855609005</v>
+        <v>-22.593663203837195</v>
       </c>
       <c r="B81" t="n">
         <v>62.400000000000006</v>
@@ -718,7 +718,7 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>-78.67431824618882</v>
+        <v>-23.244732677125</v>
       </c>
       <c r="B82" t="n">
         <v>63.2</v>
@@ -726,7 +726,7 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-78.96545051180269</v>
+        <v>-23.90027151392053</v>
       </c>
       <c r="B83" t="n">
         <v>64.0</v>
@@ -734,7 +734,7 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>-79.25673763742446</v>
+        <v>-24.560697410162618</v>
       </c>
       <c r="B84" t="n">
         <v>64.8</v>
@@ -742,7 +742,7 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>-79.54818189831113</v>
+        <v>-25.226457034255134</v>
       </c>
       <c r="B85" t="n">
         <v>65.60000000000001</v>
@@ -750,7 +750,7 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>-79.67827860571337</v>
+        <v>-73.34187224430431</v>
       </c>
       <c r="B86" t="n">
         <v>66.4</v>
@@ -758,7 +758,7 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>-79.72555692150826</v>
+        <v>-73.36139199253608</v>
       </c>
       <c r="B87" t="n">
         <v>67.2</v>
@@ -766,7 +766,7 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>-79.77229014793447</v>
+        <v>-73.36692661097428</v>
       </c>
       <c r="B88" t="n">
         <v>68.0</v>
@@ -774,7 +774,7 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>-79.81847817667315</v>
+        <v>-73.35812864142747</v>
       </c>
       <c r="B89" t="n">
         <v>68.8</v>
@@ -782,7 +782,7 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>-79.86412088591024</v>
+        <v>-73.33463643321133</v>
       </c>
       <c r="B90" t="n">
         <v>69.60000000000001</v>
@@ -790,7 +790,7 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>-79.90921814044849</v>
+        <v>-73.29607403677852</v>
       </c>
       <c r="B91" t="n">
         <v>70.4</v>
@@ -798,7 +798,7 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>-79.95376979181825</v>
+        <v>-73.24205113281783</v>
       </c>
       <c r="B92" t="n">
         <v>71.2</v>
@@ -806,7 +806,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-79.997775678388</v>
+        <v>-73.17216300358629</v>
       </c>
       <c r="B93" t="n">
         <v>72.0</v>
@@ -814,7 +814,7 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>-80.04123562547166</v>
+        <v>-73.08599055390638</v>
       </c>
       <c r="B94" t="n">
         <v>72.8</v>
@@ -822,7 +822,7 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>-80.08414944543722</v>
+        <v>-72.98310038996803</v>
       </c>
       <c r="B95" t="n">
         <v>73.60000000000001</v>
@@ -830,7 +830,7 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>-80.12651693781149</v>
+        <v>-72.86304496480923</v>
       </c>
       <c r="B96" t="n">
         <v>74.4</v>
@@ -838,7 +838,7 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>-80.16833788938658</v>
+        <v>-72.72536280011465</v>
       </c>
       <c r="B97" t="n">
         <v>75.2</v>
@@ -846,7 +846,7 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>-80.20961207432262</v>
+        <v>-72.56957879474771</v>
       </c>
       <c r="B98" t="n">
         <v>76.0</v>
@@ -854,7 +854,7 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>-80.25033925425093</v>
+        <v>-72.39520463121235</v>
       </c>
       <c r="B99" t="n">
         <v>76.80000000000001</v>
@@ -862,7 +862,7 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>-80.29051917837663</v>
+        <v>-72.20173929200948</v>
       </c>
       <c r="B100" t="n">
         <v>77.60000000000001</v>
@@ -870,7 +870,7 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>-80.33015158357792</v>
+        <v>-71.98866969858608</v>
       </c>
       <c r="B101" t="n">
         <v>78.4</v>
@@ -878,7 +878,7 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>-80.36923619450816</v>
+        <v>-71.75547148625489</v>
       </c>
       <c r="B102" t="n">
         <v>79.2</v>
@@ -886,7 +886,7 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>-80.40777272369189</v>
+        <v>-71.50160992905677</v>
       </c>
       <c r="B103" t="n">
         <v>80.0</v>
@@ -894,7 +894,7 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>-80.44576087162532</v>
+        <v>-71.22654102901129</v>
       </c>
       <c r="B104" t="n">
         <v>80.80000000000001</v>
@@ -902,7 +902,7 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>-80.4832003268717</v>
+        <v>-70.92971278452222</v>
       </c>
       <c r="B105" t="n">
         <v>81.60000000000001</v>
@@ -910,7 +910,7 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>-80.52009076615855</v>
+        <v>-70.61056665282194</v>
       </c>
       <c r="B106" t="n">
         <v>82.4</v>
@@ -918,7 +918,7 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>-80.55643185447241</v>
+        <v>-70.26853922120642</v>
       </c>
       <c r="B107" t="n">
         <v>83.2</v>
@@ -926,7 +926,7 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>-80.59222324515306</v>
+        <v>-69.90306410137572</v>
       </c>
       <c r="B108" t="n">
         <v>84.0</v>
@@ -934,7 +934,7 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>-80.6274645799885</v>
+        <v>-69.51357406039534</v>
       </c>
       <c r="B109" t="n">
         <v>84.80000000000001</v>
@@ -942,7 +942,7 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>-80.66215548930629</v>
+        <v>-69.09950340056963</v>
       </c>
       <c r="B110" t="n">
         <v>85.60000000000001</v>
@@ -950,7 +950,7 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>-80.69629559206663</v>
+        <v>-68.6602905988039</v>
       </c>
       <c r="B111" t="n">
         <v>86.4</v>
@@ -958,7 +958,7 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>-80.72988449595368</v>
+        <v>-68.1953812137657</v>
       </c>
       <c r="B112" t="n">
         <v>87.2</v>
@@ -966,7 +966,7 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>-80.76292179746655</v>
+        <v>-67.70423106628246</v>
       </c>
       <c r="B113" t="n">
         <v>88.0</v>
@@ -974,7 +974,7 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>-80.79540708200848</v>
+        <v>-67.1863096948683</v>
       </c>
       <c r="B114" t="n">
         <v>88.80000000000001</v>
@@ -982,7 +982,7 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>-80.82733992397796</v>
+        <v>-66.64110408402672</v>
       </c>
       <c r="B115" t="n">
         <v>89.60000000000001</v>
@@ -990,7 +990,7 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>-80.8587198868553</v>
+        <v>-66.06812265799653</v>
       </c>
       <c r="B116" t="n">
         <v>90.4</v>
@@ -998,7 +998,7 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>-80.88954652329261</v>
+        <v>-65.46689952688894</v>
       </c>
       <c r="B117" t="n">
         <v>91.2</v>
@@ -1006,7 +1006,7 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>-80.91981937520107</v>
+        <v>-64.83699896573162</v>
       </c>
       <c r="B118" t="n">
         <v>92.0</v>
@@ -1014,7 +1014,7 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>-80.94953797383731</v>
+        <v>-64.17802009983819</v>
       </c>
       <c r="B119" t="n">
         <v>92.80000000000001</v>
@@ -1022,7 +1022,7 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>-80.97870183989005</v>
+        <v>-63.48960176225518</v>
       </c>
       <c r="B120" t="n">
         <v>93.60000000000001</v>
@@ -1030,7 +1030,7 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>-81.00731048356741</v>
+        <v>-62.771427480938854</v>
       </c>
       <c r="B121" t="n">
         <v>94.4</v>
@@ -1038,7 +1038,7 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>-81.03536340468027</v>
+        <v>-62.02323054495781</v>
       </c>
       <c r="B122" t="n">
         <v>95.2</v>
@@ -1046,7 +1046,7 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>-81.0628600927287</v>
+        <v>-61.244799090638594</v>
       </c>
       <c r="B123" t="n">
         <v>96.0</v>
@@ -1054,7 +1054,7 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>-81.08980002698641</v>
+        <v>-60.435981140438884</v>
       </c>
       <c r="B124" t="n">
         <v>96.80000000000001</v>
@@ -1062,7 +1062,7 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>-81.11618267658461</v>
+        <v>-59.59668951977136</v>
       </c>
       <c r="B125" t="n">
         <v>97.60000000000001</v>
@@ -1070,7 +1070,7 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>-81.14200750059511</v>
+        <v>-58.726906570356675</v>
       </c>
       <c r="B126" t="n">
         <v>98.4</v>
@@ -1078,7 +1078,7 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>-81.1672739481154</v>
+        <v>-57.826688573330756</v>
       </c>
       <c r="B127" t="n">
         <v>99.2</v>
@@ -1086,7 +1086,7 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>-81.19198145834916</v>
+        <v>-56.896169791654756</v>
       </c>
       <c r="B128" t="n">
         <v>100.0</v>
@@ -1094,7 +1094,7 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>-81.21612946069101</v>
+        <v>-55.9355660397365</v>
       </c>
       <c r="B129" t="n">
         <v>100.80000000000001</v>
@@ -1102,7 +1102,7 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>-81.23971737480707</v>
+        <v>-54.9451776889058</v>
       </c>
       <c r="B130" t="n">
         <v>101.60000000000001</v>
@@ -1110,7 +1110,7 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>-81.26274461071843</v>
+        <v>-53.92539202076165</v>
       </c>
       <c r="B131" t="n">
         <v>102.4</v>
@@ -1118,7 +1118,7 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>-81.28521056888115</v>
+        <v>-52.87668484661785</v>
       </c>
       <c r="B132" t="n">
         <v>103.2</v>
@@ -1126,7 +1126,7 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>-81.30711464026899</v>
+        <v>-51.79962132038895</v>
       </c>
       <c r="B133" t="n">
         <v>104.0</v>
@@ -1134,7 +1134,7 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>-81.32845620645332</v>
+        <v>-50.69485588424493</v>
       </c>
       <c r="B134" t="n">
         <v>104.80000000000001</v>
@@ -1142,7 +1142,7 @@
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>-81.349234639685</v>
+        <v>-49.563131301026914</v>
       </c>
       <c r="B135" t="n">
         <v>105.60000000000001</v>
@@ -1150,7 +1150,7 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>-81.36944930297389</v>
+        <v>-48.40527674444206</v>
       </c>
       <c r="B136" t="n">
         <v>106.4</v>
@@ -1158,7 +1158,7 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>-81.38909955017017</v>
+        <v>-47.222204936971366</v>
       </c>
       <c r="B137" t="n">
         <v>107.2</v>
@@ -1166,7 +1166,7 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>-81.40818472604398</v>
+        <v>-46.014908345648394</v>
       </c>
       <c r="B138" t="n">
         <v>108.0</v>
@@ -1174,7 +1174,7 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>-81.42670416636531</v>
+        <v>-44.78445446670878</v>
       </c>
       <c r="B139" t="n">
         <v>108.80000000000001</v>
@@ -1182,7 +1182,7 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>-81.4446571979846</v>
+        <v>-43.53198025082179</v>
       </c>
       <c r="B140" t="n">
         <v>109.60000000000001</v>
@@ -1190,7 +1190,7 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>-81.75340826957057</v>
+        <v>-43.27749515708399</v>
       </c>
       <c r="B141" t="n">
         <v>110.4</v>
@@ -1198,7 +1198,7 @@
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>-81.77038380925785</v>
+        <v>-41.95465612842469</v>
       </c>
       <c r="B142" t="n">
         <v>111.2</v>
@@ -1206,7 +1206,7 @@
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>-81.78679091106422</v>
+        <v>-40.61276838559752</v>
       </c>
       <c r="B143" t="n">
         <v>112.0</v>
@@ -1214,7 +1214,7 @@
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>-82.09462936344643</v>
+        <v>-40.201643987860336</v>
       </c>
       <c r="B144" t="n">
         <v>112.80000000000001</v>
@@ -1222,7 +1222,7 @@
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>-82.11005724217347</v>
+        <v>-38.792312827945466</v>
       </c>
       <c r="B145" t="n">
         <v>113.60000000000001</v>
@@ -1230,7 +1230,7 @@
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>-82.41740462024039</v>
+        <v>-38.26825853067987</v>
       </c>
       <c r="B146" t="n">
         <v>114.4</v>
@@ -1238,7 +1238,7 @@
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>-82.43185271330427</v>
+        <v>-36.79378398352415</v>
       </c>
       <c r="B147" t="n">
         <v>115.2</v>
@@ -1246,7 +1246,7 @@
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>-82.73871997027729</v>
+        <v>-36.1519103365132</v>
       </c>
       <c r="B148" t="n">
         <v>116.0</v>
@@ -1254,7 +1254,7 @@
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>-83.04552472600943</v>
+        <v>-35.43858716046452</v>
       </c>
       <c r="B149" t="n">
         <v>116.80000000000001</v>
@@ -1262,7 +1262,7 @@
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>-83.33904541921537</v>
+        <v>-36.27993072090641</v>
       </c>
       <c r="B150" t="n">
         <v>117.60000000000001</v>
@@ -1270,7 +1270,7 @@
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>-83.64615344844603</v>
+        <v>-35.465409667394</v>
       </c>
       <c r="B151" t="n">
         <v>118.4</v>
@@ -1278,7 +1278,7 @@
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>-83.94022167415983</v>
+        <v>-36.300152915349315</v>
       </c>
       <c r="B152" t="n">
         <v>119.2</v>
@@ -1286,7 +1286,7 @@
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>-84.23448223071813</v>
+        <v>-37.15632375344609</v>
       </c>
       <c r="B153" t="n">
         <v>120.0</v>
@@ -1294,7 +1294,7 @@
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>-84.52893724469189</v>
+        <v>-38.03614834876947</v>
       </c>
       <c r="B154" t="n">
         <v>120.80000000000001</v>
@@ -1302,7 +1302,7 @@
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>-84.82358883425708</v>
+        <v>-38.942161957558994</v>
       </c>
       <c r="B155" t="n">
         <v>121.60000000000001</v>
@@ -1310,7 +1310,7 @@
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>-85.11843910921868</v>
+        <v>-39.877268304336496</v>
       </c>
       <c r="B156" t="n">
         <v>122.4</v>
@@ -1318,7 +1318,7 @@
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>-85.41349017103342</v>
+        <v>-40.84481378700201</v>
       </c>
       <c r="B157" t="n">
         <v>123.2</v>
@@ -1326,7 +1326,7 @@
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>-85.70874411282742</v>
+        <v>-41.848681199527846</v>
       </c>
       <c r="B158" t="n">
         <v>124.0</v>
@@ -1334,7 +1334,7 @@
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>-86.00420301941506</v>
+        <v>-42.893409505621776</v>
       </c>
       <c r="B159" t="n">
         <v>124.80000000000001</v>
@@ -1342,7 +1342,7 @@
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>-86.29986896731279</v>
+        <v>-43.9843489217497</v>
       </c>
       <c r="B160" t="n">
         <v>125.60000000000001</v>
@@ -1350,7 +1350,7 @@
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>-86.5804906068809</v>
+        <v>-47.50672157169316</v>
       </c>
       <c r="B161" t="n">
         <v>126.4</v>
@@ -1358,7 +1358,7 @@
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>-86.87637792280326</v>
+        <v>-48.820318294109256</v>
       </c>
       <c r="B162" t="n">
         <v>127.2</v>
@@ -1366,7 +1366,7 @@
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>-87.15624834742158</v>
+        <v>-52.82698673285307</v>
       </c>
       <c r="B163" t="n">
         <v>128.0</v>
@@ -1374,7 +1374,7 @@
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>-87.43535073974192</v>
+        <v>-57.20423756869229</v>
       </c>
       <c r="B164" t="n">
         <v>128.8</v>
@@ -1382,7 +1382,7 @@
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>-87.41777463019234</v>
+        <v>-59.93147233595556</v>
       </c>
       <c r="B165" t="n">
         <v>129.6</v>
@@ -1390,7 +1390,7 @@
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>-87.6953272326569</v>
+        <v>-64.88730535877767</v>
       </c>
       <c r="B166" t="n">
         <v>130.4</v>
@@ -1398,7 +1398,7 @@
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>-87.67640412987015</v>
+        <v>-67.70494227617684</v>
       </c>
       <c r="B167" t="n">
         <v>131.20000000000002</v>
@@ -1406,7 +1406,7 @@
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>-87.95240056725196</v>
+        <v>-73.33808139200323</v>
       </c>
       <c r="B168" t="n">
         <v>132.0</v>
@@ -1414,7 +1414,7 @@
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>-87.9321320986089</v>
+        <v>-76.19576601193648</v>
       </c>
       <c r="B169" t="n">
         <v>132.8</v>
@@ -1422,7 +1422,7 @@
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>-87.911296808805</v>
+        <v>-78.95282743276664</v>
       </c>
       <c r="B170" t="n">
         <v>133.6</v>
@@ -1430,7 +1430,7 @@
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>-88.18495400877167</v>
+        <v>-85.42625959885703</v>
       </c>
       <c r="B171" t="n">
         <v>134.4</v>
@@ -1438,7 +1438,7 @@
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>-88.16277707432343</v>
+        <v>-88.0763520963489</v>
       </c>
       <c r="B172" t="n">
         <v>135.20000000000002</v>
@@ -1446,7 +1446,7 @@
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>-88.14003627000582</v>
+        <v>-90.55386401157213</v>
       </c>
       <c r="B173" t="n">
         <v>136.0</v>
@@ -1454,7 +1454,7 @@
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>-88.11673251906889</v>
+        <v>-92.84824015712655</v>
       </c>
       <c r="B174" t="n">
         <v>136.8</v>
@@ -1462,7 +1462,7 @@
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>-88.09286673486936</v>
+        <v>-94.95354298030938</v>
       </c>
       <c r="B175" t="n">
         <v>137.6</v>
@@ -1470,7 +1470,7 @@
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>-88.06843982080687</v>
+        <v>-96.86842717243584</v>
       </c>
       <c r="B176" t="n">
         <v>138.4</v>
@@ -1478,7 +1478,7 @@
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>-88.04345267026049</v>
+        <v>-98.59575078103964</v>
       </c>
       <c r="B177" t="n">
         <v>139.20000000000002</v>
@@ -1486,7 +1486,7 @@
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>-88.01790616652536</v>
+        <v>-100.14191010125947</v>
       </c>
       <c r="B178" t="n">
         <v>140.0</v>
@@ -1494,7 +1494,7 @@
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>-87.99180118274974</v>
+        <v>-101.51601878229845</v>
       </c>
       <c r="B179" t="n">
         <v>140.8</v>
@@ -1502,7 +1502,7 @@
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>-87.96513858187107</v>
+        <v>-102.72905254093952</v>
       </c>
       <c r="B180" t="n">
         <v>141.6</v>
@@ -1510,7 +1510,7 @@
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>-87.9379192165522</v>
+        <v>-103.79305677101952</v>
       </c>
       <c r="B181" t="n">
         <v>142.4</v>
@@ -1518,7 +1518,7 @@
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>-87.91014392911897</v>
+        <v>-104.72047837010611</v>
       </c>
       <c r="B182" t="n">
         <v>143.20000000000002</v>
@@ -1526,7 +1526,7 @@
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>-87.88181355149536</v>
+        <v>-105.52364767889318</v>
       </c>
       <c r="B183" t="n">
         <v>144.0</v>
@@ -1534,7 +1534,7 @@
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>-87.85292890514094</v>
+        <v>-106.21440916396197</v>
       </c>
       <c r="B184" t="n">
         <v>144.8</v>
@@ -1542,7 +1542,7 @@
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>-87.82349080098606</v>
+        <v>-106.80388273872582</v>
       </c>
       <c r="B185" t="n">
         <v>145.6</v>
@@ -1550,7 +1550,7 @@
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>-87.79350003936878</v>
+        <v>-107.3023301847001</v>
       </c>
       <c r="B186" t="n">
         <v>146.4</v>
@@ -1558,7 +1558,7 @@
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>-87.76295740997024</v>
+        <v>-107.71910024581656</v>
       </c>
       <c r="B187" t="n">
         <v>147.20000000000002</v>
@@ -1566,7 +1566,7 @@
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>-87.73186369175087</v>
+        <v>-108.06262880950146</v>
       </c>
       <c r="B188" t="n">
         <v>148.0</v>
@@ -1574,7 +1574,7 @@
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>-87.70021965288541</v>
+        <v>-108.34047499904963</v>
       </c>
       <c r="B189" t="n">
         <v>148.8</v>
@@ -1582,7 +1582,7 @@
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>-87.66802605069867</v>
+        <v>-108.55937861529672</v>
       </c>
       <c r="B190" t="n">
         <v>149.6</v>
@@ -1590,7 +1590,7 @@
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>-87.63528363160108</v>
+        <v>-108.72532846986991</v>
       </c>
       <c r="B191" t="n">
         <v>150.4</v>
@@ -1598,7 +1598,7 @@
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>-87.60199313102305</v>
+        <v>-108.8436344765966</v>
       </c>
       <c r="B192" t="n">
         <v>151.20000000000002</v>
@@ -1606,7 +1606,7 @@
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>-87.5681552733496</v>
+        <v>-108.918998893186</v>
       </c>
       <c r="B193" t="n">
         <v>152.0</v>
@@ -1614,7 +1614,7 @@
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>-87.53377077185543</v>
+        <v>-108.95558393239557</v>
       </c>
       <c r="B194" t="n">
         <v>152.8</v>
@@ -1622,7 +1622,7 @@
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>-87.49884032863858</v>
+        <v>-108.95707423004367</v>
       </c>
       <c r="B195" t="n">
         <v>153.60000000000002</v>
@@ -1630,7 +1630,7 @@
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>-87.463364634554</v>
+        <v>-108.92673350344666</v>
       </c>
       <c r="B196" t="n">
         <v>154.4</v>
@@ -1638,7 +1638,7 @@
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>-87.42734436914749</v>
+        <v>-108.86745527496211</v>
       </c>
       <c r="B197" t="n">
         <v>155.20000000000002</v>
@@ -1646,7 +1646,7 @@
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>-87.39078020058892</v>
+        <v>-108.78180786329537</v>
       </c>
       <c r="B198" t="n">
         <v>156.0</v>
@@ -1654,7 +1654,7 @@
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>-87.35367278560429</v>
+        <v>-108.67207402885026</v>
       </c>
       <c r="B199" t="n">
         <v>156.8</v>
@@ -1662,7 +1662,7 @@
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>-87.3160227694088</v>
+        <v>-108.54028574820416</v>
       </c>
       <c r="B200" t="n">
         <v>157.60000000000002</v>
@@ -1670,7 +1670,7 @@
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>-87.27783078563859</v>
+        <v>-108.38825462140574</v>
       </c>
       <c r="B201" t="n">
         <v>158.4</v>
@@ -1678,7 +1678,7 @@
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>-87.23909745628211</v>
+        <v>-108.21759840785947</v>
       </c>
       <c r="B202" t="n">
         <v>159.20000000000002</v>
@@ -1686,7 +1686,7 @@
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>-87.1998233916111</v>
+        <v>-108.02976415782203</v>
       </c>
       <c r="B203" t="n">
         <v>160.0</v>
@@ -1694,7 +1694,7 @@
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>-87.16000919011174</v>
+        <v>-107.8260483672207</v>
       </c>
       <c r="B204" t="n">
         <v>160.8</v>
@@ -1702,7 +1702,7 @@
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>-87.11965543841389</v>
+        <v>-107.6076145400859</v>
       </c>
       <c r="B205" t="n">
         <v>161.60000000000002</v>
@@ -1710,7 +1710,7 @@
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>-87.0787627112217</v>
+        <v>-107.37550849929806</v>
       </c>
       <c r="B206" t="n">
         <v>162.4</v>
@@ -1718,7 +1718,7 @@
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>-87.03733157124171</v>
+        <v>-107.1306717448505</v>
       </c>
       <c r="B207" t="n">
         <v>163.20000000000002</v>
@@ -1726,7 +1726,7 @@
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>-86.99536256911185</v>
+        <v>-106.87395312061457</v>
       </c>
       <c r="B208" t="n">
         <v>164.0</v>
@@ -1734,7 +1734,7 @@
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>-86.95285624332928</v>
+        <v>-106.60611901616446</v>
       </c>
       <c r="B209" t="n">
         <v>164.8</v>
@@ -1742,7 +1742,7 @@
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>-86.90981312017762</v>
+        <v>-106.32786229967738</v>
       </c>
       <c r="B210" t="n">
         <v>165.60000000000002</v>
@@ -1750,7 +1750,7 @@
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>-86.86623371365343</v>
+        <v>-106.03981015111458</v>
       </c>
       <c r="B211" t="n">
         <v>166.4</v>
@@ -1758,7 +1758,7 @@
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>-86.82211852539295</v>
+        <v>-105.74253094154872</v>
       </c>
       <c r="B212" t="n">
         <v>167.20000000000002</v>
@@ -1766,7 +1766,7 @@
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>-86.77746804459659</v>
+        <v>-105.43654028427835</v>
       </c>
       <c r="B213" t="n">
         <v>168.0</v>
@@ -1774,7 +1774,7 @@
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>-86.732282747954</v>
+        <v>-105.12230636593421</v>
       </c>
       <c r="B214" t="n">
         <v>168.8</v>
@@ -1782,7 +1782,7 @@
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>-86.6865630995681</v>
+        <v>-104.80025465077509</v>
       </c>
       <c r="B215" t="n">
         <v>169.60000000000002</v>
@@ -1790,7 +1790,7 @@
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>-86.64030955087806</v>
+        <v>-104.47077203848565</v>
       </c>
       <c r="B216" t="n">
         <v>170.4</v>
@@ -1798,7 +1798,7 @@
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>-86.59352254058211</v>
+        <v>-104.13421054473838</v>
       </c>
       <c r="B217" t="n">
         <v>171.20000000000002</v>
@@ -1806,7 +1806,7 @@
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>-86.54620249455866</v>
+        <v>-103.79089056430126</v>
       </c>
       <c r="B218" t="n">
         <v>172.0</v>
@@ -1814,7 +1814,7 @@
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>-86.49834982578784</v>
+        <v>-103.44110376835283</v>
       </c>
       <c r="B219" t="n">
         <v>172.8</v>
@@ -1822,7 +1822,7 @@
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>-86.44996493427047</v>
+        <v>-103.08511568069608</v>
       </c>
       <c r="B220" t="n">
         <v>173.60000000000002</v>
@@ -1830,7 +1830,7 @@
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>-86.401048206948</v>
+        <v>-102.72316797158359</v>
       </c>
       <c r="B221" t="n">
         <v>174.4</v>
@@ -1838,7 +1838,7 @@
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>-86.35160001762128</v>
+        <v>-102.3554805027373</v>
       </c>
       <c r="B222" t="n">
         <v>175.20000000000002</v>
@@ -1846,7 +1846,7 @@
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>-86.3016207268659</v>
+        <v>-101.98225315272299</v>
       </c>
       <c r="B223" t="n">
         <v>176.0</v>
@@ -1854,7 +1854,7 @@
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>-86.25111068195132</v>
+        <v>-101.60366744805256</v>
       </c>
       <c r="B224" t="n">
         <v>176.8</v>
@@ -1862,7 +1862,7 @@
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>-86.20007021675337</v>
+        <v>-101.21988802210072</v>
       </c>
       <c r="B225" t="n">
         <v>177.60000000000002</v>
@@ -1870,7 +1870,7 @@
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>-88.19105810791189</v>
+        <v>-110.2115938397366</v>
       </c>
       <c r="B226" t="n">
         <v>178.4</v>
@@ -1878,7 +1878,7 @@
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>-88.2434847763862</v>
+        <v>-110.76567893456004</v>
       </c>
       <c r="B227" t="n">
         <v>179.20000000000002</v>
@@ -1886,7 +1886,7 @@
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>-88.29538577547861</v>
+        <v>-111.32141797862573</v>
       </c>
       <c r="B228" t="n">
         <v>180.0</v>
@@ -1894,7 +1894,7 @@
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>-88.34676070867758</v>
+        <v>-111.87905617450582</v>
       </c>
       <c r="B229" t="n">
         <v>180.8</v>
@@ -1902,7 +1902,7 @@
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>-88.39760916601324</v>
+        <v>-112.43885559270169</v>
       </c>
       <c r="B230" t="n">
         <v>181.60000000000002</v>
@@ -1910,7 +1910,7 @@
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>-88.44793072413421</v>
+        <v>-113.00109725322798</v>
       </c>
       <c r="B231" t="n">
         <v>182.4</v>
@@ -1918,7 +1918,7 @@
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>-88.49772494638293</v>
+        <v>-113.56608349459484</v>
       </c>
       <c r="B232" t="n">
         <v>183.20000000000002</v>
@@ -1926,7 +1926,7 @@
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>-88.54699138287087</v>
+        <v>-114.13414067997141</v>
       </c>
       <c r="B233" t="n">
         <v>184.0</v>
@@ -1934,7 +1934,7 @@
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>-88.59572957055224</v>
+        <v>-114.70562230041196</v>
       </c>
       <c r="B234" t="n">
         <v>184.8</v>
@@ -1942,7 +1942,7 @@
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>-88.6439390332973</v>
+        <v>-115.28091254752295</v>
       </c>
       <c r="B235" t="n">
         <v>185.60000000000002</v>
@@ -1950,7 +1950,7 @@
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>-88.69161928196407</v>
+        <v>-115.86043044350251</v>
       </c>
       <c r="B236" t="n">
         <v>186.4</v>
@@ -1958,7 +1958,7 @@
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>-88.7387698144704</v>
+        <v>-116.4446346359623</v>
       </c>
       <c r="B237" t="n">
         <v>187.20000000000002</v>
@@ -1966,7 +1966,7 @@
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>-88.78539011586447</v>
+        <v>-117.03402898948852</v>
       </c>
       <c r="B238" t="n">
         <v>188.0</v>
@@ -1974,7 +1974,7 @@
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>-88.83147965839495</v>
+        <v>-117.62916913703182</v>
       </c>
       <c r="B239" t="n">
         <v>188.8</v>
@@ -1982,7 +1982,7 @@
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>-88.8770379015804</v>
+        <v>-118.2306701940025</v>
       </c>
       <c r="B240" t="n">
         <v>189.60000000000002</v>
@@ -1990,7 +1990,7 @@
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>-88.92206429227738</v>
+        <v>-118.83921588916306</v>
       </c>
       <c r="B241" t="n">
         <v>190.4</v>
@@ -1998,7 +1998,7 @@
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>-88.96655826474915</v>
+        <v>-119.45556943288659</v>
       </c>
       <c r="B242" t="n">
         <v>191.20000000000002</v>
@@ -2006,7 +2006,7 @@
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>-89.01051924073234</v>
+        <v>-120.0805865303856</v>
       </c>
       <c r="B243" t="n">
         <v>192.0</v>
@@ -2014,7 +2014,7 @@
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>-89.05394662950441</v>
+        <v>-120.71523106253898</v>
       </c>
       <c r="B244" t="n">
         <v>192.8</v>
@@ -2022,7 +2022,7 @@
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>-89.09683982794905</v>
+        <v>-121.36059411048208</v>
       </c>
       <c r="B245" t="n">
         <v>193.60000000000002</v>
@@ -2030,7 +2030,7 @@
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>-89.13919822062185</v>
+        <v>-122.01791720732334</v>
       </c>
       <c r="B246" t="n">
         <v>194.4</v>
@@ -2038,7 +2038,7 @@
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>-89.18102117981584</v>
+        <v>-122.68862098324269</v>
       </c>
       <c r="B247" t="n">
         <v>195.20000000000002</v>
@@ -2046,7 +2046,7 @@
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>-89.22230806562533</v>
+        <v>-123.37434076143919</v>
       </c>
       <c r="B248" t="n">
         <v>196.0</v>
@@ -2054,7 +2054,7 @@
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>-89.26305822600996</v>
+        <v>-124.07697121095865</v>
       </c>
       <c r="B249" t="n">
         <v>196.8</v>
@@ -2062,7 +2062,7 @@
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>-89.30327099685888</v>
+        <v>-124.79872294343812</v>
       </c>
       <c r="B250" t="n">
         <v>197.60000000000002</v>
@@ -2070,7 +2070,7 @@
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>-89.3429457020525</v>
+        <v>-125.54219507148935</v>
       </c>
       <c r="B251" t="n">
         <v>198.4</v>
@@ -2078,7 +2078,7 @@
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>-89.38208165352621</v>
+        <v>-126.31046941391537</v>
       </c>
       <c r="B252" t="n">
         <v>199.20000000000002</v>
@@ -2086,7 +2086,7 @@
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>-89.42067815133171</v>
+        <v>-127.10723454307114</v>
       </c>
       <c r="B253" t="n">
         <v>200.0</v>
@@ -2094,7 +2094,7 @@
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>-89.45873448369933</v>
+        <v>-127.93695173603038</v>
       </c>
       <c r="B254" t="n">
         <v>200.8</v>
@@ -2102,7 +2102,7 @@
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>-89.49624992709848</v>
+        <v>-128.8050810025437</v>
       </c>
       <c r="B255" t="n">
         <v>201.60000000000002</v>
@@ -2110,7 +2110,7 @@
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>-89.53322374630022</v>
+        <v>-129.71839531013524</v>
       </c>
       <c r="B256" t="n">
         <v>202.4</v>
@@ -2118,7 +2118,7 @@
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>-89.5696551944359</v>
+        <v>-130.68542787099648</v>
       </c>
       <c r="B257" t="n">
         <v>203.20000000000002</v>
@@ -2126,7 +2126,7 @@
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>-89.60554351305866</v>
+        <v>-131.71712665795755</v>
       </c>
       <c r="B258" t="n">
         <v>204.0</v>
@@ -2134,7 +2134,7 @@
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>-89.64088793220378</v>
+        <v>-132.8278439858877</v>
       </c>
       <c r="B259" t="n">
         <v>204.8</v>
@@ -2142,7 +2142,7 @@
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>-89.6756876704467</v>
+        <v>-134.03689276350042</v>
       </c>
       <c r="B260" t="n">
         <v>205.60000000000002</v>
@@ -2150,7 +2150,7 @@
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>-89.70994193496452</v>
+        <v>-135.37111526468152</v>
       </c>
       <c r="B261" t="n">
         <v>206.4</v>
@@ -2158,7 +2158,7 @@
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>-89.74364992159336</v>
+        <v>-136.8693901101617</v>
       </c>
       <c r="B262" t="n">
         <v>207.20000000000002</v>
@@ -2166,7 +2166,7 @@
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>-89.7768108148887</v>
+        <v>-138.59119574792606</v>
       </c>
       <c r="B263" t="n">
         <v>208.0</v>
@@ -2174,7 +2174,7 @@
     </row>
     <row r="264">
       <c r="A264" t="n">
-        <v>-89.80942378818344</v>
+        <v>-140.63475472461474</v>
       </c>
       <c r="B264" t="n">
         <v>208.8</v>
@@ -2182,7 +2182,7 @@
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>-89.8414880036462</v>
+        <v>-143.1821408090114</v>
       </c>
       <c r="B265" t="n">
         <v>209.60000000000002</v>
@@ -2190,7 +2190,7 @@
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>-89.87300261234034</v>
+        <v>-146.6453836256033</v>
       </c>
       <c r="B266" t="n">
         <v>210.4</v>
@@ -2198,175 +2198,175 @@
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>-89.90396675428143</v>
+        <v>-152.51876813468613</v>
       </c>
       <c r="B267" t="n">
         <v>211.20000000000002</v>
       </c>
     </row>
     <row r="268">
-      <c r="A268" t="n">
-        <v>-89.93437955849619</v>
+      <c r="A268" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B268" t="n">
         <v>212.0</v>
       </c>
     </row>
     <row r="269">
-      <c r="A269" t="n">
-        <v>-89.96424014307973</v>
+      <c r="A269" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B269" t="n">
         <v>212.8</v>
       </c>
     </row>
     <row r="270">
-      <c r="A270" t="n">
-        <v>-89.99354761525339</v>
+      <c r="A270" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B270" t="n">
         <v>213.60000000000002</v>
       </c>
     </row>
     <row r="271">
-      <c r="A271" t="n">
-        <v>-90.02230107142341</v>
+      <c r="A271" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B271" t="n">
         <v>214.4</v>
       </c>
     </row>
     <row r="272">
-      <c r="A272" t="n">
-        <v>-90.05049959723739</v>
+      <c r="A272" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B272" t="n">
         <v>215.20000000000002</v>
       </c>
     </row>
     <row r="273">
-      <c r="A273" t="n">
-        <v>-90.07814226764248</v>
+      <c r="A273" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B273" t="n">
         <v>216.0</v>
       </c>
     </row>
     <row r="274">
-      <c r="A274" t="n">
-        <v>-90.10522814694329</v>
+      <c r="A274" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B274" t="n">
         <v>216.8</v>
       </c>
     </row>
     <row r="275">
-      <c r="A275" t="n">
-        <v>-90.13175628885908</v>
+      <c r="A275" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B275" t="n">
         <v>217.60000000000002</v>
       </c>
     </row>
     <row r="276">
-      <c r="A276" t="n">
-        <v>-90.15772573658145</v>
+      <c r="A276" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B276" t="n">
         <v>218.4</v>
       </c>
     </row>
     <row r="277">
-      <c r="A277" t="n">
-        <v>-90.18313552283206</v>
+      <c r="A277" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B277" t="n">
         <v>219.20000000000002</v>
       </c>
     </row>
     <row r="278">
-      <c r="A278" t="n">
-        <v>-90.20798466992026</v>
+      <c r="A278" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B278" t="n">
         <v>220.0</v>
       </c>
     </row>
     <row r="279">
-      <c r="A279" t="n">
-        <v>-90.2322721898008</v>
+      <c r="A279" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B279" t="n">
         <v>220.8</v>
       </c>
     </row>
     <row r="280">
-      <c r="A280" t="n">
-        <v>-90.25599708413142</v>
+      <c r="A280" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B280" t="n">
         <v>221.60000000000002</v>
       </c>
     </row>
     <row r="281">
-      <c r="A281" t="n">
-        <v>-90.27915834433128</v>
+      <c r="A281" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B281" t="n">
         <v>222.4</v>
       </c>
     </row>
     <row r="282">
-      <c r="A282" t="n">
-        <v>-90.30175495163829</v>
+      <c r="A282" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B282" t="n">
         <v>223.20000000000002</v>
       </c>
     </row>
     <row r="283">
-      <c r="A283" t="n">
-        <v>-90.3237858771677</v>
+      <c r="A283" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B283" t="n">
         <v>224.0</v>
       </c>
     </row>
     <row r="284">
-      <c r="A284" t="n">
-        <v>-90.34525008197014</v>
+      <c r="A284" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B284" t="n">
         <v>224.8</v>
       </c>
     </row>
     <row r="285">
-      <c r="A285" t="n">
-        <v>-90.36614651709021</v>
+      <c r="A285" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B285" t="n">
         <v>225.60000000000002</v>
       </c>
     </row>
     <row r="286">
-      <c r="A286" t="n">
-        <v>-90.38647412362495</v>
+      <c r="A286" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B286" t="n">
         <v>226.4</v>
       </c>
     </row>
     <row r="287">
-      <c r="A287" t="n">
-        <v>-90.4062318327824</v>
+      <c r="A287" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B287" t="n">
         <v>227.20000000000002</v>
       </c>
     </row>
     <row r="288">
-      <c r="A288" t="n">
-        <v>-90.4254185659412</v>
+      <c r="A288" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B288" t="n">
         <v>228.0</v>
@@ -2374,7 +2374,7 @@
     </row>
     <row r="289">
       <c r="A289" t="n">
-        <v>-90.44403323470927</v>
+        <v>-86.70828228871034</v>
       </c>
       <c r="B289" t="n">
         <v>228.8</v>
@@ -2382,7 +2382,7 @@
     </row>
     <row r="290">
       <c r="A290" t="n">
-        <v>-90.46207474098378</v>
+        <v>-76.21019768921784</v>
       </c>
       <c r="B290" t="n">
         <v>229.60000000000002</v>
@@ -2390,135 +2390,135 @@
     </row>
     <row r="291">
       <c r="A291" t="n">
-        <v>-90.76108986682675</v>
+        <v>-93.13010235415598</v>
       </c>
       <c r="B291" t="n">
         <v>230.4</v>
       </c>
     </row>
     <row r="292">
-      <c r="A292" t="n">
-        <v>-91.06034413299612</v>
+      <c r="A292" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B292" t="n">
         <v>231.20000000000002</v>
       </c>
     </row>
     <row r="293">
-      <c r="A293" t="n">
-        <v>-91.3598394750054</v>
+      <c r="A293" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B293" t="n">
         <v>232.0</v>
       </c>
     </row>
     <row r="294">
-      <c r="A294" t="n">
-        <v>-91.65957781994774</v>
+      <c r="A294" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B294" t="n">
         <v>232.8</v>
       </c>
     </row>
     <row r="295">
-      <c r="A295" t="n">
-        <v>-91.9595610864681</v>
+      <c r="A295" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B295" t="n">
         <v>233.60000000000002</v>
       </c>
     </row>
     <row r="296">
-      <c r="A296" t="n">
-        <v>-92.25979118473224</v>
+      <c r="A296" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B296" t="n">
         <v>234.4</v>
       </c>
     </row>
     <row r="297">
-      <c r="A297" t="n">
-        <v>-92.56027001639433</v>
+      <c r="A297" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B297" t="n">
         <v>235.20000000000002</v>
       </c>
     </row>
     <row r="298">
-      <c r="A298" t="n">
-        <v>-92.86099947456135</v>
+      <c r="A298" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B298" t="n">
         <v>236.0</v>
       </c>
     </row>
     <row r="299">
-      <c r="A299" t="n">
-        <v>-93.16198144375585</v>
+      <c r="A299" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B299" t="n">
         <v>236.8</v>
       </c>
     </row>
     <row r="300">
-      <c r="A300" t="n">
-        <v>-93.46321779987659</v>
+      <c r="A300" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B300" t="n">
         <v>237.60000000000002</v>
       </c>
     </row>
     <row r="301">
-      <c r="A301" t="n">
-        <v>-93.76471041015583</v>
+      <c r="A301" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B301" t="n">
         <v>238.4</v>
       </c>
     </row>
     <row r="302">
-      <c r="A302" t="n">
-        <v>-94.06646113311548</v>
+      <c r="A302" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B302" t="n">
         <v>239.20000000000002</v>
       </c>
     </row>
     <row r="303">
-      <c r="A303" t="n">
-        <v>-94.36847181852082</v>
+      <c r="A303" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B303" t="n">
         <v>240.0</v>
       </c>
     </row>
     <row r="304">
-      <c r="A304" t="n">
-        <v>-94.67074430733092</v>
+      <c r="A304" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B304" t="n">
         <v>240.8</v>
       </c>
     </row>
     <row r="305">
-      <c r="A305" t="n">
-        <v>-94.97328043164818</v>
+      <c r="A305" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B305" t="n">
         <v>241.60000000000002</v>
       </c>
     </row>
     <row r="306">
-      <c r="A306" t="n">
-        <v>-95.27608201466387</v>
+      <c r="A306" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B306" t="n">
         <v>242.4</v>
       </c>
     </row>
     <row r="307">
-      <c r="A307" t="n">
-        <v>-95.57915087060348</v>
+      <c r="A307" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="B307" t="n">
         <v>243.20000000000002</v>
@@ -2526,7 +2526,7 @@
     </row>
     <row r="308">
       <c r="A308" t="n">
-        <v>215.6438165199887</v>
+        <v>53.13010235415598</v>
       </c>
       <c r="B308" t="n">
         <v>243.20000000000002</v>
@@ -2534,7 +2534,7 @@
     </row>
     <row r="309">
       <c r="A309" t="n">
-        <v>215.68987006822772</v>
+        <v>51.13335950111403</v>
       </c>
       <c r="B309" t="n">
         <v>242.4</v>
@@ -2542,7 +2542,7 @@
     </row>
     <row r="310">
       <c r="A310" t="n">
-        <v>215.73649370033107</v>
+        <v>49.2384888418093</v>
       </c>
       <c r="B310" t="n">
         <v>241.60000000000002</v>
@@ -2550,7 +2550,7 @@
     </row>
     <row r="311">
       <c r="A311" t="n">
-        <v>215.78368782053218</v>
+        <v>47.44866271600404</v>
       </c>
       <c r="B311" t="n">
         <v>240.8</v>
@@ -2558,7 +2558,7 @@
     </row>
     <row r="312">
       <c r="A312" t="n">
-        <v>215.8314528492387</v>
+        <v>45.765692932347804</v>
       </c>
       <c r="B312" t="n">
         <v>240.0</v>
@@ -2566,7 +2566,7 @@
     </row>
     <row r="313">
       <c r="A313" t="n">
-        <v>215.87978922321741</v>
+        <v>44.19009224584801</v>
       </c>
       <c r="B313" t="n">
         <v>239.20000000000002</v>
@@ -2574,7 +2574,7 @@
     </row>
     <row r="314">
       <c r="A314" t="n">
-        <v>215.92869739578362</v>
+        <v>42.721180515953364</v>
       </c>
       <c r="B314" t="n">
         <v>238.4</v>
@@ -2582,7 +2582,7 @@
     </row>
     <row r="315">
       <c r="A315" t="n">
-        <v>215.97817783699142</v>
+        <v>41.35722413674017</v>
       </c>
       <c r="B315" t="n">
         <v>237.60000000000002</v>
@@ -2590,7 +2590,7 @@
     </row>
     <row r="316">
       <c r="A316" t="n">
-        <v>216.02823103382818</v>
+        <v>40.09559627809455</v>
       </c>
       <c r="B316" t="n">
         <v>236.8</v>
@@ -2598,7 +2598,7 @@
     </row>
     <row r="317">
       <c r="A317" t="n">
-        <v>216.07885749041074</v>
+        <v>38.9329459098137</v>
       </c>
       <c r="B317" t="n">
         <v>236.0</v>
@@ -2606,7 +2606,7 @@
     </row>
     <row r="318">
       <c r="A318" t="n">
-        <v>216.13005772818576</v>
+        <v>37.865365151040294</v>
       </c>
       <c r="B318" t="n">
         <v>235.20000000000002</v>
@@ -2614,7 +2614,7 @@
     </row>
     <row r="319">
       <c r="A319" t="n">
-        <v>216.18183228613134</v>
+        <v>36.88854674288433</v>
       </c>
       <c r="B319" t="n">
         <v>234.4</v>
@@ -2622,7 +2622,7 @@
     </row>
     <row r="320">
       <c r="A320" t="n">
-        <v>216.23418172096413</v>
+        <v>35.99792593850742</v>
       </c>
       <c r="B320" t="n">
         <v>233.60000000000002</v>
@@ -2630,7 +2630,7 @@
     </row>
     <row r="321">
       <c r="A321" t="n">
-        <v>216.28710660734714</v>
+        <v>35.18880348550772</v>
       </c>
       <c r="B321" t="n">
         <v>232.8</v>
@@ -2638,7 +2638,7 @@
     </row>
     <row r="322">
       <c r="A322" t="n">
-        <v>216.34060753810255</v>
+        <v>34.45644840597427</v>
       </c>
       <c r="B322" t="n">
         <v>232.0</v>
@@ -2646,7 +2646,7 @@
     </row>
     <row r="323">
       <c r="A323" t="n">
-        <v>216.39468512442733</v>
+        <v>33.79618084730214</v>
       </c>
       <c r="B323" t="n">
         <v>231.20000000000002</v>
@@ -2654,7 +2654,7 @@
     </row>
     <row r="324">
       <c r="A324" t="n">
-        <v>216.44933999611095</v>
+        <v>33.20343636617832</v>
       </c>
       <c r="B324" t="n">
         <v>230.4</v>
@@ -2662,7 +2662,7 @@
     </row>
     <row r="325">
       <c r="A325" t="n">
-        <v>216.50457280175894</v>
+        <v>32.673813667807025</v>
       </c>
       <c r="B325" t="n">
         <v>229.60000000000002</v>
@@ -2670,7 +2670,7 @@
     </row>
     <row r="326">
       <c r="A326" t="n">
-        <v>216.78699839916064</v>
+        <v>35.16477676630467</v>
       </c>
       <c r="B326" t="n">
         <v>228.8</v>
@@ -2678,7 +2678,7 @@
     </row>
     <row r="327">
       <c r="A327" t="n">
-        <v>217.06952093300683</v>
+        <v>37.548094719444634</v>
       </c>
       <c r="B327" t="n">
         <v>228.0</v>
@@ -2686,7 +2686,7 @@
     </row>
     <row r="328">
       <c r="A328" t="n">
-        <v>217.3521430227368</v>
+        <v>39.831788433381234</v>
       </c>
       <c r="B328" t="n">
         <v>227.20000000000002</v>
@@ -2694,7 +2694,7 @@
     </row>
     <row r="329">
       <c r="A329" t="n">
-        <v>217.63486731447173</v>
+        <v>42.02313401571641</v>
       </c>
       <c r="B329" t="n">
         <v>226.4</v>
@@ -2702,7 +2702,7 @@
     </row>
     <row r="330">
       <c r="A330" t="n">
-        <v>217.91769648135445</v>
+        <v>44.12874913963179</v>
       </c>
       <c r="B330" t="n">
         <v>225.60000000000002</v>
@@ -2710,7 +2710,7 @@
     </row>
     <row r="331">
       <c r="A331" t="n">
-        <v>218.2006332238999</v>
+        <v>46.15466658330507</v>
       </c>
       <c r="B331" t="n">
         <v>224.8</v>
@@ -2718,7 +2718,7 @@
     </row>
     <row r="332">
       <c r="A332" t="n">
-        <v>218.48368027035121</v>
+        <v>48.10639747058565</v>
       </c>
       <c r="B332" t="n">
         <v>224.0</v>
@@ -2726,7 +2726,7 @@
     </row>
     <row r="333">
       <c r="A333" t="n">
-        <v>218.76684037704632</v>
+        <v>49.98898609600755</v>
       </c>
       <c r="B333" t="n">
         <v>223.20000000000002</v>
@@ -2734,7 +2734,7 @@
     </row>
     <row r="334">
       <c r="A334" t="n">
-        <v>219.0501163287901</v>
+        <v>51.80705777016277</v>
       </c>
       <c r="B334" t="n">
         <v>222.4</v>
@@ -2742,7 +2742,7 @@
     </row>
     <row r="335">
       <c r="A335" t="n">
-        <v>219.33351093923739</v>
+        <v>53.564860803675174</v>
       </c>
       <c r="B335" t="n">
         <v>221.60000000000002</v>
@@ -2750,7 +2750,7 @@
     </row>
     <row r="336">
       <c r="A336" t="n">
-        <v>219.61702705128386</v>
+        <v>55.2663035171789</v>
       </c>
       <c r="B336" t="n">
         <v>220.8</v>
@@ -2758,7 +2758,7 @@
     </row>
     <row r="337">
       <c r="A337" t="n">
-        <v>219.90066753746504</v>
+        <v>56.91498699345544</v>
       </c>
       <c r="B337" t="n">
         <v>220.0</v>
@@ -2766,7 +2766,7 @@
     </row>
     <row r="338">
       <c r="A338" t="n">
-        <v>220.18443530036654</v>
+        <v>58.51423415824394</v>
       </c>
       <c r="B338" t="n">
         <v>219.20000000000002</v>
@@ -2774,7 +2774,7 @@
     </row>
     <row r="339">
       <c r="A339" t="n">
-        <v>220.46833327304108</v>
+        <v>60.06711567620667</v>
       </c>
       <c r="B339" t="n">
         <v>218.4</v>
@@ -2782,7 +2782,7 @@
     </row>
     <row r="340">
       <c r="A340" t="n">
-        <v>220.75236441943693</v>
+        <v>61.57647306996785</v>
       </c>
       <c r="B340" t="n">
         <v>217.60000000000002</v>
@@ -2790,7 +2790,7 @@
     </row>
     <row r="341">
       <c r="A341" t="n">
-        <v>221.0365317348356</v>
+        <v>63.04493940744311</v>
       </c>
       <c r="B341" t="n">
         <v>216.8</v>
@@ -2798,7 +2798,7 @@
     </row>
     <row r="342">
       <c r="A342" t="n">
-        <v>221.32083824629945</v>
+        <v>64.47495785190205</v>
       </c>
       <c r="B342" t="n">
         <v>216.0</v>
@@ -2806,7 +2806,7 @@
     </row>
     <row r="343">
       <c r="A343" t="n">
-        <v>221.6052870131296</v>
+        <v>65.86879832757191</v>
       </c>
       <c r="B343" t="n">
         <v>215.20000000000002</v>
@@ -2814,7 +2814,7 @@
     </row>
     <row r="344">
       <c r="A344" t="n">
-        <v>221.88988112733475</v>
+        <v>67.22857251906115</v>
       </c>
       <c r="B344" t="n">
         <v>214.4</v>
@@ -2822,7 +2822,7 @@
     </row>
     <row r="345">
       <c r="A345" t="n">
-        <v>222.1746237141104</v>
+        <v>68.5562473939739</v>
       </c>
       <c r="B345" t="n">
         <v>213.60000000000002</v>
@@ -2830,7 +2830,7 @@
     </row>
     <row r="346">
       <c r="A346" t="n">
-        <v>222.45951793232885</v>
+        <v>69.8536574136831</v>
       </c>
       <c r="B346" t="n">
         <v>212.8</v>
@@ -2838,7 +2838,7 @@
     </row>
     <row r="347">
       <c r="A347" t="n">
-        <v>222.74456697504152</v>
+        <v>71.12251557648324</v>
       </c>
       <c r="B347" t="n">
         <v>212.0</v>
@@ -2846,7 +2846,7 @@
     </row>
     <row r="348">
       <c r="A348" t="n">
-        <v>223.0297740699919</v>
+        <v>72.36442341959594</v>
       </c>
       <c r="B348" t="n">
         <v>211.20000000000002</v>
@@ -2854,7 +2854,7 @@
     </row>
     <row r="349">
       <c r="A349" t="n">
-        <v>223.31514248014147</v>
+        <v>73.58088009125015</v>
       </c>
       <c r="B349" t="n">
         <v>210.4</v>
@@ -2862,7 +2862,7 @@
     </row>
     <row r="350">
       <c r="A350" t="n">
-        <v>223.60067550420587</v>
+        <v>74.77329059087694</v>
       </c>
       <c r="B350" t="n">
         <v>209.60000000000002</v>
@@ -2870,7 +2870,7 @@
     </row>
     <row r="351">
       <c r="A351" t="n">
-        <v>223.88637647720668</v>
+        <v>75.94297326404416</v>
       </c>
       <c r="B351" t="n">
         <v>208.8</v>
@@ -2878,7 +2878,7 @@
     </row>
     <row r="352">
       <c r="A352" t="n">
-        <v>224.17224877103254</v>
+        <v>77.09116662881797</v>
       </c>
       <c r="B352" t="n">
         <v>208.0</v>
@@ -2886,7 +2886,7 @@
     </row>
     <row r="353">
       <c r="A353" t="n">
-        <v>224.45829579501677</v>
+        <v>78.21903560157466</v>
       </c>
       <c r="B353" t="n">
         <v>207.20000000000002</v>
@@ -2894,7 +2894,7 @@
     </row>
     <row r="354">
       <c r="A354" t="n">
-        <v>224.74452099652535</v>
+        <v>79.3276771827073</v>
       </c>
       <c r="B354" t="n">
         <v>206.4</v>
@@ -2902,7 +2902,7 @@
     </row>
     <row r="355">
       <c r="A355" t="n">
-        <v>225.0309278615616</v>
+        <v>80.4181256560309</v>
       </c>
       <c r="B355" t="n">
         <v>205.60000000000002</v>
@@ -2910,7 +2910,7 @@
     </row>
     <row r="356">
       <c r="A356" t="n">
-        <v>225.31751991538357</v>
+        <v>81.4913573498518</v>
       </c>
       <c r="B356" t="n">
         <v>204.8</v>
@@ -2918,7 +2918,7 @@
     </row>
     <row r="357">
       <c r="A357" t="n">
-        <v>225.60430072313528</v>
+        <v>82.54829500253845</v>
       </c>
       <c r="B357" t="n">
         <v>204.0</v>
@@ -2926,7 +2926,7 @@
     </row>
     <row r="358">
       <c r="A358" t="n">
-        <v>225.8912738904961</v>
+        <v>83.58981177090226</v>
       </c>
       <c r="B358" t="n">
         <v>203.20000000000002</v>
@@ -2934,7 +2934,7 @@
     </row>
     <row r="359">
       <c r="A359" t="n">
-        <v>226.17844306434094</v>
+        <v>84.61673491570525</v>
       </c>
       <c r="B359" t="n">
         <v>202.4</v>
@@ -2942,7 +2942,7 @@
     </row>
     <row r="360">
       <c r="A360" t="n">
-        <v>226.46581193342024</v>
+        <v>85.62984919508273</v>
       </c>
       <c r="B360" t="n">
         <v>201.60000000000002</v>
@@ -2950,7 +2950,7 @@
     </row>
     <row r="361">
       <c r="A361" t="n">
-        <v>226.7533842290549</v>
+        <v>86.62989999354267</v>
       </c>
       <c r="B361" t="n">
         <v>200.8</v>
@@ -2958,7 +2958,7 @@
     </row>
     <row r="362">
       <c r="A362" t="n">
-        <v>227.041163725846</v>
+        <v>87.61759621144154</v>
       </c>
       <c r="B362" t="n">
         <v>200.0</v>
@@ -2966,7 +2966,7 @@
     </row>
     <row r="363">
       <c r="A363" t="n">
-        <v>227.3291542424052</v>
+        <v>88.59361293737851</v>
       </c>
       <c r="B363" t="n">
         <v>199.20000000000002</v>
@@ -2974,7 +2974,7 @@
     </row>
     <row r="364">
       <c r="A364" t="n">
-        <v>227.61735964209947</v>
+        <v>89.55859392377704</v>
       </c>
       <c r="B364" t="n">
         <v>198.4</v>
@@ -2982,7 +2982,7 @@
     </row>
     <row r="365">
       <c r="A365" t="n">
-        <v>227.9057838338163</v>
+        <v>90.51315388398973</v>
       </c>
       <c r="B365" t="n">
         <v>197.60000000000002</v>
@@ -2990,7 +2990,7 @@
     </row>
     <row r="366">
       <c r="A366" t="n">
-        <v>228.19443077274573</v>
+        <v>91.45788062754582</v>
       </c>
       <c r="B366" t="n">
         <v>196.8</v>
@@ -2998,7 +2998,7 @@
     </row>
     <row r="367">
       <c r="A367" t="n">
-        <v>228.48330446118229</v>
+        <v>92.39333704863776</v>
       </c>
       <c r="B367" t="n">
         <v>196.0</v>
@@ -3006,7 +3006,7 @@
     </row>
     <row r="368">
       <c r="A368" t="n">
-        <v>228.77240894934667</v>
+        <v>93.32006298159047</v>
       </c>
       <c r="B368" t="n">
         <v>195.20000000000002</v>
@@ -3014,7 +3014,7 @@
     </row>
     <row r="369">
       <c r="A369" t="n">
-        <v>229.06174833622794</v>
+        <v>94.2385769358549</v>
       </c>
       <c r="B369" t="n">
         <v>194.4</v>
@@ -3022,7 +3022,7 @@
     </row>
     <row r="370">
       <c r="A370" t="n">
-        <v>229.35132677044507</v>
+        <v>95.14937772200523</v>
       </c>
       <c r="B370" t="n">
         <v>193.60000000000002</v>
@@ -3030,7 +3030,7 @@
     </row>
     <row r="371">
       <c r="A371" t="n">
-        <v>229.6411484511316</v>
+        <v>96.05294597927502</v>
       </c>
       <c r="B371" t="n">
         <v>192.8</v>
@@ -3038,7 +3038,7 @@
     </row>
     <row r="372">
       <c r="A372" t="n">
-        <v>229.93121762884127</v>
+        <v>96.94974561433975</v>
       </c>
       <c r="B372" t="n">
         <v>192.0</v>
@@ -3046,7 +3046,7 @@
     </row>
     <row r="373">
       <c r="A373" t="n">
-        <v>230.22153860647592</v>
+        <v>97.84022516031837</v>
       </c>
       <c r="B373" t="n">
         <v>191.20000000000002</v>
@@ -3054,7 +3054,7 @@
     </row>
     <row r="374">
       <c r="A374" t="n">
-        <v>230.51211574023822</v>
+        <v>98.72481906433165</v>
       </c>
       <c r="B374" t="n">
         <v>190.4</v>
@@ -3062,7 +3062,7 @@
     </row>
     <row r="375">
       <c r="A375" t="n">
-        <v>230.8029534406066</v>
+        <v>99.60394891139629</v>
       </c>
       <c r="B375" t="n">
         <v>189.60000000000002</v>
@@ -3070,7 +3070,7 @@
     </row>
     <row r="376">
       <c r="A376" t="n">
-        <v>231.09405617333599</v>
+        <v>100.47802459195742</v>
       </c>
       <c r="B376" t="n">
         <v>188.8</v>
@@ -3078,7 +3078,7 @@
     </row>
     <row r="377">
       <c r="A377" t="n">
-        <v>231.38542846048347</v>
+        <v>101.3474454199594</v>
       </c>
       <c r="B377" t="n">
         <v>188.0</v>
@@ -3086,7 +3086,7 @@
     </row>
     <row r="378">
       <c r="A378" t="n">
-        <v>231.6770748814602</v>
+        <v>102.21260120801543</v>
       </c>
       <c r="B378" t="n">
         <v>187.20000000000002</v>
@@ -3094,7 +3094,7 @@
     </row>
     <row r="379">
       <c r="A379" t="n">
-        <v>231.96900007411026</v>
+        <v>103.0738733059697</v>
       </c>
       <c r="B379" t="n">
         <v>186.4</v>
@@ -3102,7 +3102,7 @@
     </row>
     <row r="380">
       <c r="A380" t="n">
-        <v>232.26120873581732</v>
+        <v>103.93163560893777</v>
       </c>
       <c r="B380" t="n">
         <v>185.60000000000002</v>
@@ -3110,7 +3110,7 @@
     </row>
     <row r="381">
       <c r="A381" t="n">
-        <v>232.55370562463986</v>
+        <v>104.78625554076814</v>
       </c>
       <c r="B381" t="n">
         <v>184.8</v>
@@ -3118,7 +3118,7 @@
     </row>
     <row r="382">
       <c r="A382" t="n">
-        <v>232.84649556047574</v>
+        <v>105.63809501879035</v>
       </c>
       <c r="B382" t="n">
         <v>184.0</v>
@@ -3126,7 +3126,7 @@
     </row>
     <row r="383">
       <c r="A383" t="n">
-        <v>233.13958342625696</v>
+        <v>106.48751140569595</v>
       </c>
       <c r="B383" t="n">
         <v>183.20000000000002</v>
@@ -3134,7 +3134,7 @@
     </row>
     <row r="384">
       <c r="A384" t="n">
-        <v>233.43297416917693</v>
+        <v>107.3348584544554</v>
       </c>
       <c r="B384" t="n">
         <v>182.4</v>
@@ -3142,7 +3142,7 @@
     </row>
     <row r="385">
       <c r="A385" t="n">
-        <v>233.72667280194807</v>
+        <v>108.18048725229323</v>
       </c>
       <c r="B385" t="n">
         <v>181.60000000000002</v>
@@ -3150,7 +3150,7 @@
     </row>
     <row r="386">
       <c r="A386" t="n">
-        <v>234.02068440409425</v>
+        <v>109.02474716994652</v>
       </c>
       <c r="B386" t="n">
         <v>180.8</v>
@@ -3158,7 +3158,7 @@
     </row>
     <row r="387">
       <c r="A387" t="n">
-        <v>234.3150141232772</v>
+        <v>109.86798682271245</v>
       </c>
       <c r="B387" t="n">
         <v>180.0</v>
@@ -3166,7 +3166,7 @@
     </row>
     <row r="388">
       <c r="A388" t="n">
-        <v>234.60966717665795</v>
+        <v>110.71055505016949</v>
       </c>
       <c r="B388" t="n">
         <v>179.20000000000002</v>
@@ -3174,7 +3174,7 @@
     </row>
     <row r="389">
       <c r="A389" t="n">
-        <v>234.90464885229494</v>
+        <v>111.55280192193607</v>
       </c>
       <c r="B389" t="n">
         <v>178.4</v>
@@ -3182,7 +3182,7 @@
     </row>
     <row r="390">
       <c r="A390" t="n">
-        <v>235.3296554036563</v>
+        <v>108.5346905545731</v>
       </c>
       <c r="B390" t="n">
         <v>177.60000000000002</v>
@@ -3190,7 +3190,7 @@
     </row>
     <row r="391">
       <c r="A391" t="n">
-        <v>235.0336543189805</v>
+        <v>107.65968020709727</v>
       </c>
       <c r="B391" t="n">
         <v>176.8</v>
@@ -3198,7 +3198,7 @@
     </row>
     <row r="392">
       <c r="A392" t="n">
-        <v>234.73800702829337</v>
+        <v>106.7841893557623</v>
       </c>
       <c r="B392" t="n">
         <v>176.0</v>
@@ -3206,7 +3206,7 @@
     </row>
     <row r="393">
       <c r="A393" t="n">
-        <v>234.44270798945382</v>
+        <v>105.90785881719631</v>
       </c>
       <c r="B393" t="n">
         <v>175.20000000000002</v>
@@ -3214,7 +3214,7 @@
     </row>
     <row r="394">
       <c r="A394" t="n">
-        <v>234.1477517372637</v>
+        <v>105.03033188653865</v>
       </c>
       <c r="B394" t="n">
         <v>174.4</v>
@@ -3222,7 +3222,7 @@
     </row>
     <row r="395">
       <c r="A395" t="n">
-        <v>233.85313288191588</v>
+        <v>104.15125334297636</v>
       </c>
       <c r="B395" t="n">
         <v>173.60000000000002</v>
@@ -3230,7 +3230,7 @@
     </row>
     <row r="396">
       <c r="A396" t="n">
-        <v>233.55884610748333</v>
+        <v>103.27026849487521</v>
       </c>
       <c r="B396" t="n">
         <v>172.8</v>
@@ -3238,7 +3238,7 @@
     </row>
     <row r="397">
       <c r="A397" t="n">
-        <v>233.26488617044782</v>
+        <v>102.38702225717395</v>
       </c>
       <c r="B397" t="n">
         <v>172.0</v>
@@ -3246,7 +3246,7 @@
     </row>
     <row r="398">
       <c r="A398" t="n">
-        <v>232.97124789826898</v>
+        <v>101.5011582543973</v>
       </c>
       <c r="B398" t="n">
         <v>171.20000000000002</v>
@@ -3254,7 +3254,7 @@
     </row>
     <row r="399">
       <c r="A399" t="n">
-        <v>232.67792618798885</v>
+        <v>100.61231794320332</v>
       </c>
       <c r="B399" t="n">
         <v>170.4</v>
@@ -3262,7 +3262,7 @@
     </row>
     <row r="400">
       <c r="A400" t="n">
-        <v>232.38491600487467</v>
+        <v>99.7201397488679</v>
       </c>
       <c r="B400" t="n">
         <v>169.60000000000002</v>
@@ -3270,7 +3270,7 @@
     </row>
     <row r="401">
       <c r="A401" t="n">
-        <v>232.09221238109683</v>
+        <v>98.82425821049492</v>
       </c>
       <c r="B401" t="n">
         <v>168.8</v>
@@ -3278,7 +3278,7 @@
     </row>
     <row r="402">
       <c r="A402" t="n">
-        <v>231.79981041443986</v>
+        <v>97.92430313007509</v>
       </c>
       <c r="B402" t="n">
         <v>168.0</v>
@@ -3286,7 +3286,7 @@
     </row>
     <row r="403">
       <c r="A403" t="n">
-        <v>231.5077052670488</v>
+        <v>97.01989872077849</v>
       </c>
       <c r="B403" t="n">
         <v>167.20000000000002</v>
@@ -3294,7 +3294,7 @@
     </row>
     <row r="404">
       <c r="A404" t="n">
-        <v>231.21589216420497</v>
+        <v>96.11066275008187</v>
       </c>
       <c r="B404" t="n">
         <v>166.4</v>
@@ -3302,7 +3302,7 @@
     </row>
     <row r="405">
       <c r="A405" t="n">
-        <v>230.92436639313564</v>
+        <v>95.19620567350137</v>
       </c>
       <c r="B405" t="n">
         <v>165.60000000000002</v>
@@ -3310,7 +3310,7 @@
     </row>
     <row r="406">
       <c r="A406" t="n">
-        <v>230.6331233018524</v>
+        <v>94.2761297548276</v>
       </c>
       <c r="B406" t="n">
         <v>164.8</v>
@@ -3318,7 +3318,7 @@
     </row>
     <row r="407">
       <c r="A407" t="n">
-        <v>230.3421582980198</v>
+        <v>93.35002816885702</v>
       </c>
       <c r="B407" t="n">
         <v>164.0</v>
@@ -3326,7 +3326,7 @@
     </row>
     <row r="408">
       <c r="A408" t="n">
-        <v>230.0514668478521</v>
+        <v>92.41748408267165</v>
       </c>
       <c r="B408" t="n">
         <v>163.20000000000002</v>
@@ -3334,7 +3334,7 @@
     </row>
     <row r="409">
       <c r="A409" t="n">
-        <v>229.76104447503712</v>
+        <v>91.47806971156052</v>
       </c>
       <c r="B409" t="n">
         <v>162.4</v>
@@ -3342,7 +3342,7 @@
     </row>
     <row r="410">
       <c r="A410" t="n">
-        <v>229.4708867596886</v>
+        <v>90.53134534568267</v>
       </c>
       <c r="B410" t="n">
         <v>161.60000000000002</v>
@@ -3350,7 +3350,7 @@
     </row>
     <row r="411">
       <c r="A411" t="n">
-        <v>229.18098933732327</v>
+        <v>89.57685834356852</v>
       </c>
       <c r="B411" t="n">
         <v>160.8</v>
@@ -3358,7 +3358,7 @@
     </row>
     <row r="412">
       <c r="A412" t="n">
-        <v>228.8913478978635</v>
+        <v>88.6141420885275</v>
       </c>
       <c r="B412" t="n">
         <v>160.0</v>
@@ -3366,7 +3366,7 @@
     </row>
     <row r="413">
       <c r="A413" t="n">
-        <v>228.60195818466505</v>
+        <v>87.64271490399659</v>
       </c>
       <c r="B413" t="n">
         <v>159.20000000000002</v>
@@ -3374,7 +3374,7 @@
     </row>
     <row r="414">
       <c r="A414" t="n">
-        <v>228.31281599356822</v>
+        <v>86.66207892380982</v>
       </c>
       <c r="B414" t="n">
         <v>158.4</v>
@@ -3382,7 +3382,7 @@
     </row>
     <row r="415">
       <c r="A415" t="n">
-        <v>228.02391717197267</v>
+        <v>85.67171891332362</v>
       </c>
       <c r="B415" t="n">
         <v>157.60000000000002</v>
@@ -3390,7 +3390,7 @@
     </row>
     <row r="416">
       <c r="A416" t="n">
-        <v>227.73525761793456</v>
+        <v>84.6711010372681</v>
       </c>
       <c r="B416" t="n">
         <v>156.8</v>
@@ -3398,7 +3398,7 @@
     </row>
     <row r="417">
       <c r="A417" t="n">
-        <v>227.44683327928522</v>
+        <v>83.65967157015075</v>
       </c>
       <c r="B417" t="n">
         <v>156.0</v>
@@ -3406,7 +3406,7 @@
     </row>
     <row r="418">
       <c r="A418" t="n">
-        <v>227.1586401527722</v>
+        <v>82.63685554499176</v>
       </c>
       <c r="B418" t="n">
         <v>155.20000000000002</v>
@@ -3414,7 +3414,7 @@
     </row>
     <row r="419">
       <c r="A419" t="n">
-        <v>226.87067428322007</v>
+        <v>81.60205533614749</v>
       </c>
       <c r="B419" t="n">
         <v>154.4</v>
@@ -3422,7 +3422,7 @@
     </row>
     <row r="420">
       <c r="A420" t="n">
-        <v>226.58293176271187</v>
+        <v>80.55464917197514</v>
       </c>
       <c r="B420" t="n">
         <v>153.60000000000002</v>
@@ -3430,7 +3430,7 @@
     </row>
     <row r="421">
       <c r="A421" t="n">
-        <v>226.29540872978953</v>
+        <v>79.49398957313275</v>
       </c>
       <c r="B421" t="n">
         <v>152.8</v>
@@ -3438,7 +3438,7 @@
     </row>
     <row r="422">
       <c r="A422" t="n">
-        <v>226.00810136867528</v>
+        <v>78.41940171238224</v>
       </c>
       <c r="B422" t="n">
         <v>152.0</v>
@@ -3446,7 +3446,7 @@
     </row>
     <row r="423">
       <c r="A423" t="n">
-        <v>225.721005908508</v>
+        <v>77.33018169191848</v>
       </c>
       <c r="B423" t="n">
         <v>151.20000000000002</v>
@@ -3454,7 +3454,7 @@
     </row>
     <row r="424">
       <c r="A424" t="n">
-        <v>225.43411862260157</v>
+        <v>76.22559473446586</v>
       </c>
       <c r="B424" t="n">
         <v>150.4</v>
@@ -3462,7 +3462,7 @@
     </row>
     <row r="425">
       <c r="A425" t="n">
-        <v>225.14743582771843</v>
+        <v>75.104873284716</v>
       </c>
       <c r="B425" t="n">
         <v>149.6</v>
@@ -3470,7 +3470,7 @@
     </row>
     <row r="426">
       <c r="A426" t="n">
-        <v>224.86095388336048</v>
+        <v>73.96721501813843</v>
       </c>
       <c r="B426" t="n">
         <v>148.8</v>
@@ -3478,7 +3478,7 @@
     </row>
     <row r="427">
       <c r="A427" t="n">
-        <v>224.5746691910774</v>
+        <v>72.81178075481307</v>
       </c>
       <c r="B427" t="n">
         <v>148.0</v>
@@ -3486,7 +3486,7 @@
     </row>
     <row r="428">
       <c r="A428" t="n">
-        <v>224.28857819379047</v>
+        <v>71.63769227675485</v>
       </c>
       <c r="B428" t="n">
         <v>147.20000000000002</v>
@@ -3494,7 +3494,7 @@
     </row>
     <row r="429">
       <c r="A429" t="n">
-        <v>224.00267737513283</v>
+        <v>70.44403004826793</v>
       </c>
       <c r="B429" t="n">
         <v>146.4</v>
@@ -3502,7 +3502,7 @@
     </row>
     <row r="430">
       <c r="A430" t="n">
-        <v>223.71696325880342</v>
+        <v>69.22983084023545</v>
       </c>
       <c r="B430" t="n">
         <v>145.6</v>
@@ -3510,7 +3510,7 @@
     </row>
     <row r="431">
       <c r="A431" t="n">
-        <v>223.43143240793893</v>
+        <v>67.99408526099728</v>
       </c>
       <c r="B431" t="n">
         <v>144.8</v>
@@ -3518,7 +3518,7 @@
     </row>
     <row r="432">
       <c r="A432" t="n">
-        <v>223.14608142449686</v>
+        <v>66.73573519866642</v>
       </c>
       <c r="B432" t="n">
         <v>144.0</v>
@@ -3526,7 +3526,7 @@
     </row>
     <row r="433">
       <c r="A433" t="n">
-        <v>222.8609069486558</v>
+        <v>65.45367118248603</v>
       </c>
       <c r="B433" t="n">
         <v>143.20000000000002</v>
@@ -3534,7 +3534,7 @@
     </row>
     <row r="434">
       <c r="A434" t="n">
-        <v>222.57590565822693</v>
+        <v>64.1467296742604</v>
       </c>
       <c r="B434" t="n">
         <v>142.4</v>
@@ -3542,7 +3542,7 @@
     </row>
     <row r="435">
       <c r="A435" t="n">
-        <v>222.2910742680815</v>
+        <v>62.81369030513167</v>
       </c>
       <c r="B435" t="n">
         <v>141.6</v>
@@ -3550,7 +3550,7 @@
     </row>
     <row r="436">
       <c r="A436" t="n">
-        <v>222.00640952958872</v>
+        <v>61.45327307821154</v>
       </c>
       <c r="B436" t="n">
         <v>140.8</v>
@@ -3558,7 +3558,7 @@
     </row>
     <row r="437">
       <c r="A437" t="n">
-        <v>221.72190823006983</v>
+        <v>60.06413556399286</v>
       </c>
       <c r="B437" t="n">
         <v>140.0</v>
@@ -3566,7 +3566,7 @@
     </row>
     <row r="438">
       <c r="A438" t="n">
-        <v>221.4375671922611</v>
+        <v>58.6448701233312</v>
       </c>
       <c r="B438" t="n">
         <v>139.20000000000002</v>
@@ -3574,7 +3574,7 @@
     </row>
     <row r="439">
       <c r="A439" t="n">
-        <v>221.15338327379143</v>
+        <v>57.19400120235872</v>
       </c>
       <c r="B439" t="n">
         <v>138.4</v>
@@ -3582,7 +3582,7 @@
     </row>
     <row r="440">
       <c r="A440" t="n">
-        <v>220.8693533666712</v>
+        <v>55.709982755340434</v>
       </c>
       <c r="B440" t="n">
         <v>137.6</v>
@@ -3590,7 +3590,7 @@
     </row>
     <row r="441">
       <c r="A441" t="n">
-        <v>220.58547439679228</v>
+        <v>54.19119586558662</v>
       </c>
       <c r="B441" t="n">
         <v>136.8</v>
@@ -3598,7 +3598,7 @@
     </row>
     <row r="442">
       <c r="A442" t="n">
-        <v>220.30174332344026</v>
+        <v>52.63594665157464</v>
       </c>
       <c r="B442" t="n">
         <v>136.0</v>
@@ -3606,7 +3606,7 @@
     </row>
     <row r="443">
       <c r="A443" t="n">
-        <v>220.0181571388162</v>
+        <v>51.04246456595354</v>
       </c>
       <c r="B443" t="n">
         <v>135.20000000000002</v>
@@ -3614,7 +3614,7 @@
     </row>
     <row r="444">
       <c r="A444" t="n">
-        <v>219.73471286757103</v>
+        <v>49.40890121973018</v>
       </c>
       <c r="B444" t="n">
         <v>134.4</v>
@@ -3622,7 +3622,7 @@
     </row>
     <row r="445">
       <c r="A445" t="n">
-        <v>219.51110374231513</v>
+        <v>47.30308404990939</v>
       </c>
       <c r="B445" t="n">
         <v>133.6</v>
@@ -3630,7 +3630,7 @@
     </row>
     <row r="446">
       <c r="A446" t="n">
-        <v>219.2279451765523</v>
+        <v>45.60140978840525</v>
       </c>
       <c r="B446" t="n">
         <v>132.8</v>
@@ -3638,7 +3638,7 @@
     </row>
     <row r="447">
       <c r="A447" t="n">
-        <v>218.94492230264677</v>
+        <v>43.85606112020844</v>
       </c>
       <c r="B447" t="n">
         <v>132.0</v>
@@ -3646,7 +3646,7 @@
     </row>
     <row r="448">
       <c r="A448" t="n">
-        <v>218.72235950212166</v>
+        <v>41.73140956913363</v>
       </c>
       <c r="B448" t="n">
         <v>131.20000000000002</v>
@@ -3654,7 +3654,7 @@
     </row>
     <row r="449">
       <c r="A449" t="n">
-        <v>218.43961648811526</v>
+        <v>39.9191743969123</v>
       </c>
       <c r="B449" t="n">
         <v>130.4</v>
@@ -3662,7 +3662,7 @@
     </row>
     <row r="450">
       <c r="A450" t="n">
-        <v>218.21795705773317</v>
+        <v>37.81604895501863</v>
       </c>
       <c r="B450" t="n">
         <v>129.6</v>
@@ -3670,7 +3670,7 @@
     </row>
     <row r="451">
       <c r="A451" t="n">
-        <v>217.93549149929459</v>
+        <v>35.94182481037666</v>
       </c>
       <c r="B451" t="n">
         <v>128.8</v>
@@ -3678,7 +3678,7 @@
     </row>
     <row r="452">
       <c r="A452" t="n">
-        <v>217.7147393373921</v>
+        <v>33.87635609967384</v>
       </c>
       <c r="B452" t="n">
         <v>128.0</v>
@@ -3686,7 +3686,7 @@
     </row>
     <row r="453">
       <c r="A453" t="n">
-        <v>217.4947488164539</v>
+        <v>31.869590276644203</v>
       </c>
       <c r="B453" t="n">
         <v>127.2</v>
@@ -3694,7 +3694,7 @@
     </row>
     <row r="454">
       <c r="A454" t="n">
-        <v>217.5575380123927</v>
+        <v>31.818565988345057</v>
       </c>
       <c r="B454" t="n">
         <v>126.4</v>
@@ -3702,7 +3702,7 @@
     </row>
     <row r="455">
       <c r="A455" t="n">
-        <v>217.33892515214654</v>
+        <v>29.93973972697367</v>
       </c>
       <c r="B455" t="n">
         <v>125.60000000000001</v>
@@ -3710,7 +3710,7 @@
     </row>
     <row r="456">
       <c r="A456" t="n">
-        <v>217.40291831821804</v>
+        <v>29.97533587076464</v>
       </c>
       <c r="B456" t="n">
         <v>124.80000000000001</v>
@@ -3718,7 +3718,7 @@
     </row>
     <row r="457">
       <c r="A457" t="n">
-        <v>217.4675025509867</v>
+        <v>30.031905262059524</v>
       </c>
       <c r="B457" t="n">
         <v>124.0</v>
@@ -3726,7 +3726,7 @@
     </row>
     <row r="458">
       <c r="A458" t="n">
-        <v>217.53267885670883</v>
+        <v>30.108184802458027</v>
       </c>
       <c r="B458" t="n">
         <v>123.2</v>
@@ -3734,7 +3734,7 @@
     </row>
     <row r="459">
       <c r="A459" t="n">
-        <v>217.5984482651516</v>
+        <v>30.20301074575127</v>
       </c>
       <c r="B459" t="n">
         <v>122.4</v>
@@ -3742,7 +3742,7 @@
     </row>
     <row r="460">
       <c r="A460" t="n">
-        <v>217.66481182989946</v>
+        <v>30.31531056883705</v>
       </c>
       <c r="B460" t="n">
         <v>121.60000000000001</v>
@@ -3750,7 +3750,7 @@
     </row>
     <row r="461">
       <c r="A461" t="n">
-        <v>217.73177062866483</v>
+        <v>30.444095485035945</v>
       </c>
       <c r="B461" t="n">
         <v>120.80000000000001</v>
@@ -3758,7 +3758,7 @@
     </row>
     <row r="462">
       <c r="A462" t="n">
-        <v>217.79932576360574</v>
+        <v>30.588453567674946</v>
       </c>
       <c r="B462" t="n">
         <v>120.0</v>
@@ -3766,7 +3766,7 @@
     </row>
     <row r="463">
       <c r="A463" t="n">
-        <v>217.86747836164827</v>
+        <v>30.74754344769505</v>
       </c>
       <c r="B463" t="n">
         <v>119.2</v>
@@ -3774,7 +3774,7 @@
     </row>
     <row r="464">
       <c r="A464" t="n">
-        <v>217.93622957481597</v>
+        <v>30.920588547050443</v>
       </c>
       <c r="B464" t="n">
         <v>118.4</v>
@@ -3782,7 +3782,7 @@
     </row>
     <row r="465">
       <c r="A465" t="n">
-        <v>218.2874072164001</v>
+        <v>32.62838282496159</v>
       </c>
       <c r="B465" t="n">
         <v>117.60000000000001</v>
@@ -3790,7 +3790,7 @@
     </row>
     <row r="466">
       <c r="A466" t="n">
-        <v>218.35735002473058</v>
+        <v>32.7996480818818</v>
       </c>
       <c r="B466" t="n">
         <v>116.80000000000001</v>
@@ -3798,7 +3798,7 @@
     </row>
     <row r="467">
       <c r="A467" t="n">
-        <v>218.70986812174232</v>
+        <v>34.43805633007523</v>
       </c>
       <c r="B467" t="n">
         <v>116.0</v>
@@ -3806,7 +3806,7 @@
     </row>
     <row r="468">
       <c r="A468" t="n">
-        <v>219.06315124556238</v>
+        <v>36.026944605630746</v>
       </c>
       <c r="B468" t="n">
         <v>115.2</v>
@@ -3814,7 +3814,7 @@
     </row>
     <row r="469">
       <c r="A469" t="n">
-        <v>219.34545714649178</v>
+        <v>37.43167047538719</v>
       </c>
       <c r="B469" t="n">
         <v>114.4</v>
@@ -3822,7 +3822,7 @@
     </row>
     <row r="470">
       <c r="A470" t="n">
-        <v>219.6997011424604</v>
+        <v>38.941477207883054</v>
       </c>
       <c r="B470" t="n">
         <v>113.60000000000001</v>
@@ -3830,7 +3830,7 @@
     </row>
     <row r="471">
       <c r="A471" t="n">
-        <v>219.98236535561958</v>
+        <v>40.300186334588545</v>
       </c>
       <c r="B471" t="n">
         <v>112.80000000000001</v>
@@ -3838,7 +3838,7 @@
     </row>
     <row r="472">
       <c r="A472" t="n">
-        <v>220.3376128239695</v>
+        <v>41.73984316730326</v>
       </c>
       <c r="B472" t="n">
         <v>112.0</v>
@@ -3846,7 +3846,7 @@
     </row>
     <row r="473">
       <c r="A473" t="n">
-        <v>220.62065996550498</v>
+        <v>43.05593402892839</v>
       </c>
       <c r="B473" t="n">
         <v>111.2</v>
@@ -3854,7 +3854,7 @@
     </row>
     <row r="474">
       <c r="A474" t="n">
-        <v>220.90389823035417</v>
+        <v>44.360319593746</v>
       </c>
       <c r="B474" t="n">
         <v>110.4</v>
@@ -3862,7 +3862,7 @@
     </row>
     <row r="475">
       <c r="A475" t="n">
-        <v>221.26040978994482</v>
+        <v>45.710076383508266</v>
       </c>
       <c r="B475" t="n">
         <v>109.60000000000001</v>
@@ -3870,7 +3870,7 @@
     </row>
     <row r="476">
       <c r="A476" t="n">
-        <v>221.5440653869117</v>
+        <v>46.97570402889815</v>
       </c>
       <c r="B476" t="n">
         <v>108.80000000000001</v>
@@ -3878,7 +3878,7 @@
     </row>
     <row r="477">
       <c r="A477" t="n">
-        <v>221.82792457574402</v>
+        <v>48.230229872725744</v>
       </c>
       <c r="B477" t="n">
         <v>108.0</v>
@@ -3886,7 +3886,7 @@
     </row>
     <row r="478">
       <c r="A478" t="n">
-        <v>222.11199066374212</v>
+        <v>49.47364971512155</v>
       </c>
       <c r="B478" t="n">
         <v>107.2</v>
@@ -3894,7 +3894,7 @@
     </row>
     <row r="479">
       <c r="A479" t="n">
-        <v>222.39626699865633</v>
+        <v>50.705987051694365</v>
       </c>
       <c r="B479" t="n">
         <v>106.4</v>
@@ -3902,7 +3902,7 @@
     </row>
     <row r="480">
       <c r="A480" t="n">
-        <v>222.68075696932138</v>
+        <v>51.9272908504058</v>
       </c>
       <c r="B480" t="n">
         <v>105.60000000000001</v>
@@ -3910,7 +3910,7 @@
     </row>
     <row r="481">
       <c r="A481" t="n">
-        <v>222.96546400630655</v>
+        <v>53.13763343261175</v>
       </c>
       <c r="B481" t="n">
         <v>104.80000000000001</v>
@@ -3918,7 +3918,7 @@
     </row>
     <row r="482">
       <c r="A482" t="n">
-        <v>223.2503915825815</v>
+        <v>54.33710846287701</v>
       </c>
       <c r="B482" t="n">
         <v>104.0</v>
@@ -3926,7 +3926,7 @@
     </row>
     <row r="483">
       <c r="A483" t="n">
-        <v>223.53554321419722</v>
+        <v>55.52582905038372</v>
       </c>
       <c r="B483" t="n">
         <v>103.2</v>
@@ -3934,7 +3934,7 @@
     </row>
     <row r="484">
       <c r="A484" t="n">
-        <v>223.82092246098466</v>
+        <v>56.703925963221536</v>
       </c>
       <c r="B484" t="n">
         <v>102.4</v>
@@ -3942,7 +3942,7 @@
     </row>
     <row r="485">
       <c r="A485" t="n">
-        <v>224.10653292726903</v>
+        <v>57.87154595554972</v>
       </c>
       <c r="B485" t="n">
         <v>101.60000000000001</v>
@@ -3950,7 +3950,7 @@
     </row>
     <row r="486">
       <c r="A486" t="n">
-        <v>224.39237826260296</v>
+        <v>59.02885020653662</v>
       </c>
       <c r="B486" t="n">
         <v>100.80000000000001</v>
@@ -3958,7 +3958,7 @@
     </row>
     <row r="487">
       <c r="A487" t="n">
-        <v>224.67846216251482</v>
+        <v>60.17601286909388</v>
       </c>
       <c r="B487" t="n">
         <v>100.0</v>
@@ -3966,7 +3966,7 @@
     </row>
     <row r="488">
       <c r="A488" t="n">
-        <v>224.9647883692788</v>
+        <v>61.31321972571149</v>
       </c>
       <c r="B488" t="n">
         <v>99.2</v>
@@ -3974,7 +3974,7 @@
     </row>
     <row r="489">
       <c r="A489" t="n">
-        <v>225.25136067270077</v>
+        <v>62.440666948136794</v>
       </c>
       <c r="B489" t="n">
         <v>98.4</v>
@@ -3982,7 +3982,7 @@
     </row>
     <row r="490">
       <c r="A490" t="n">
-        <v>225.53818291092549</v>
+        <v>63.55855995722402</v>
       </c>
       <c r="B490" t="n">
         <v>97.60000000000001</v>
@@ -3990,7 +3990,7 @@
     </row>
     <row r="491">
       <c r="A491" t="n">
-        <v>225.82525897126203</v>
+        <v>64.66711237897528</v>
       </c>
       <c r="B491" t="n">
         <v>96.80000000000001</v>
@@ -3998,7 +3998,7 @@
     </row>
     <row r="492">
       <c r="A492" t="n">
-        <v>226.1125927910314</v>
+        <v>65.76654509259657</v>
       </c>
       <c r="B492" t="n">
         <v>96.0</v>
@@ -4006,7 +4006,7 @@
     </row>
     <row r="493">
       <c r="A493" t="n">
-        <v>226.40018835843426</v>
+        <v>66.85708536627993</v>
       </c>
       <c r="B493" t="n">
         <v>95.2</v>
@@ -4014,7 +4014,7 @@
     </row>
     <row r="494">
       <c r="A494" t="n">
-        <v>226.68804971344</v>
+        <v>67.938966076389</v>
       </c>
       <c r="B494" t="n">
         <v>94.4</v>
@@ -4022,7 +4022,7 @@
     </row>
     <row r="495">
       <c r="A495" t="n">
-        <v>226.97618094869853</v>
+        <v>69.01242500574963</v>
       </c>
       <c r="B495" t="n">
         <v>93.60000000000001</v>
@@ -4030,7 +4030,7 @@
     </row>
     <row r="496">
       <c r="A496" t="n">
-        <v>227.26458621047595</v>
+        <v>70.07770421682795</v>
       </c>
       <c r="B496" t="n">
         <v>92.80000000000001</v>
@@ -4038,7 +4038,7 @@
     </row>
     <row r="497">
       <c r="A497" t="n">
-        <v>227.55326969961095</v>
+        <v>71.13504949570137</v>
       </c>
       <c r="B497" t="n">
         <v>92.0</v>
@@ -4046,7 +4046,7 @@
     </row>
     <row r="498">
       <c r="A498" t="n">
-        <v>227.84223567249924</v>
+        <v>72.18470986288438</v>
       </c>
       <c r="B498" t="n">
         <v>91.2</v>
@@ -4054,7 +4054,7 @@
     </row>
     <row r="499">
       <c r="A499" t="n">
-        <v>228.13148844210025</v>
+        <v>73.22693714725739</v>
       </c>
       <c r="B499" t="n">
         <v>90.4</v>
@@ -4062,7 +4062,7 @@
     </row>
     <row r="500">
       <c r="A500" t="n">
-        <v>228.42103237897032</v>
+        <v>74.26198561955667</v>
       </c>
       <c r="B500" t="n">
         <v>89.60000000000001</v>
@@ -4070,7 +4070,7 @@
     </row>
     <row r="501">
       <c r="A501" t="n">
-        <v>228.71087191232328</v>
+        <v>75.29011168210786</v>
       </c>
       <c r="B501" t="n">
         <v>88.80000000000001</v>
@@ -4078,7 +4078,7 @@
     </row>
     <row r="502">
       <c r="A502" t="n">
-        <v>229.00101153111737</v>
+        <v>76.31157361172882</v>
       </c>
       <c r="B502" t="n">
         <v>88.0</v>
@@ -4086,7 +4086,7 @@
     </row>
     <row r="503">
       <c r="A503" t="n">
-        <v>229.29145578516992</v>
+        <v>77.32663135297514</v>
       </c>
       <c r="B503" t="n">
         <v>87.2</v>
@@ -4094,7 +4094,7 @@
     </row>
     <row r="504">
       <c r="A504" t="n">
-        <v>229.58220928630323</v>
+        <v>78.33554635916568</v>
       </c>
       <c r="B504" t="n">
         <v>86.4</v>
@@ -4102,7 +4102,7 @@
     </row>
     <row r="505">
       <c r="A505" t="n">
-        <v>229.87327670951757</v>
+        <v>79.33858147888918</v>
       </c>
       <c r="B505" t="n">
         <v>85.60000000000001</v>
@@ -4110,7 +4110,7 @@
     </row>
     <row r="506">
       <c r="A506" t="n">
-        <v>230.16466279419743</v>
+        <v>80.33600088596677</v>
       </c>
       <c r="B506" t="n">
         <v>84.80000000000001</v>
@@ -4118,7 +4118,7 @@
     </row>
     <row r="507">
       <c r="A507" t="n">
-        <v>230.4563723453475</v>
+        <v>81.3280700511234</v>
       </c>
       <c r="B507" t="n">
         <v>84.0</v>
@@ -4126,7 +4126,7 @@
     </row>
     <row r="508">
       <c r="A508" t="n">
-        <v>230.74841023486363</v>
+        <v>82.31505575390577</v>
       </c>
       <c r="B508" t="n">
         <v>83.2</v>
@@ -4134,7 +4134,7 @@
     </row>
     <row r="509">
       <c r="A509" t="n">
-        <v>231.04078140283505</v>
+        <v>83.29722613367159</v>
       </c>
       <c r="B509" t="n">
         <v>82.4</v>
@@ -4142,7 +4142,7 @@
     </row>
     <row r="510">
       <c r="A510" t="n">
-        <v>231.3334908588847</v>
+        <v>84.27485077877634</v>
       </c>
       <c r="B510" t="n">
         <v>81.60000000000001</v>
@@ -4150,7 +4150,7 @@
     </row>
     <row r="511">
       <c r="A511" t="n">
-        <v>231.6265436835421</v>
+        <v>85.2482008533857</v>
       </c>
       <c r="B511" t="n">
         <v>80.80000000000001</v>
@@ -4158,7 +4158,7 @@
     </row>
     <row r="512">
       <c r="A512" t="n">
-        <v>231.91994502965588</v>
+        <v>86.21754926166216</v>
       </c>
       <c r="B512" t="n">
         <v>80.0</v>
@@ -4166,7 +4166,7 @@
     </row>
     <row r="513">
       <c r="A513" t="n">
-        <v>232.21370012384415</v>
+        <v>87.18317084940509</v>
       </c>
       <c r="B513" t="n">
         <v>79.2</v>
@@ -4174,7 +4174,7 @@
     </row>
     <row r="514">
       <c r="A514" t="n">
-        <v>232.50781426798358</v>
+        <v>88.14534264357121</v>
       </c>
       <c r="B514" t="n">
         <v>78.4</v>
@@ -4182,7 +4182,7 @@
     </row>
     <row r="515">
       <c r="A515" t="n">
-        <v>232.80229284074093</v>
+        <v>89.10434413047341</v>
       </c>
       <c r="B515" t="n">
         <v>77.60000000000001</v>
@@ -4190,7 +4190,7 @@
     </row>
     <row r="516">
       <c r="A516" t="n">
-        <v>233.09714129914454</v>
+        <v>90.06045757385243</v>
       </c>
       <c r="B516" t="n">
         <v>76.80000000000001</v>
@@ -4198,7 +4198,7 @@
     </row>
     <row r="517">
       <c r="A517" t="n">
-        <v>233.3923651802026</v>
+        <v>91.0139683744427</v>
       </c>
       <c r="B517" t="n">
         <v>76.0</v>
@@ -4206,7 +4206,7 @@
     </row>
     <row r="518">
       <c r="A518" t="n">
-        <v>233.68797010256333</v>
+        <v>91.96516547312154</v>
       </c>
       <c r="B518" t="n">
         <v>75.2</v>
@@ -4214,7 +4214,7 @@
     </row>
     <row r="519">
       <c r="A519" t="n">
-        <v>233.98396176822448</v>
+        <v>92.9143418002459</v>
       </c>
       <c r="B519" t="n">
         <v>74.4</v>
@@ -4222,7 +4222,7 @@
     </row>
     <row r="520">
       <c r="A520" t="n">
-        <v>234.28034596428915</v>
+        <v>93.861794774347</v>
       </c>
       <c r="B520" t="n">
         <v>73.60000000000001</v>
@@ -4230,7 +4230,7 @@
     </row>
     <row r="521">
       <c r="A521" t="n">
-        <v>234.57712856477198</v>
+        <v>94.80782685399669</v>
       </c>
       <c r="B521" t="n">
         <v>72.8</v>
@@ -4238,7 +4238,7 @@
     </row>
     <row r="522">
       <c r="A522" t="n">
-        <v>234.87431553245736</v>
+        <v>95.75274614737333</v>
       </c>
       <c r="B522" t="n">
         <v>72.0</v>
@@ -4246,7 +4246,7 @@
     </row>
     <row r="523">
       <c r="A523" t="n">
-        <v>235.1719129208105</v>
+        <v>96.6968670848762</v>
       </c>
       <c r="B523" t="n">
         <v>71.2</v>
@@ -4254,7 +4254,7 @@
     </row>
     <row r="524">
       <c r="A524" t="n">
-        <v>235.46992687594397</v>
+        <v>97.64051116106901</v>
       </c>
       <c r="B524" t="n">
         <v>70.4</v>
@@ -4262,7 +4262,7 @@
     </row>
     <row r="525">
       <c r="A525" t="n">
-        <v>235.7683636386403</v>
+        <v>98.58400775331125</v>
       </c>
       <c r="B525" t="n">
         <v>69.60000000000001</v>
@@ -4270,7 +4270,7 @@
     </row>
     <row r="526">
       <c r="A526" t="n">
-        <v>236.06722954643521</v>
+        <v>99.5276950256794</v>
       </c>
       <c r="B526" t="n">
         <v>68.8</v>
@@ -4278,7 +4278,7 @@
     </row>
     <row r="527">
       <c r="A527" t="n">
-        <v>236.36653103576083</v>
+        <v>100.4719209282336</v>
       </c>
       <c r="B527" t="n">
         <v>68.0</v>
@@ -4286,7 +4286,7 @@
     </row>
     <row r="528">
       <c r="A528" t="n">
-        <v>236.66627464415245</v>
+        <v>101.41704430338177</v>
       </c>
       <c r="B528" t="n">
         <v>67.2</v>
@@ -4294,7 +4294,7 @@
     </row>
     <row r="529">
       <c r="A529" t="n">
-        <v>236.96646701252135</v>
+        <v>102.36343611309883</v>
       </c>
       <c r="B529" t="n">
         <v>66.4</v>
@@ -4302,7 +4302,7 @@
     </row>
     <row r="530">
       <c r="A530" t="n">
-        <v>218.9623090025334</v>
+        <v>34.49012509348549</v>
       </c>
       <c r="B530" t="n">
         <v>65.60000000000001</v>
@@ -4310,7 +4310,7 @@
     </row>
     <row r="531">
       <c r="A531" t="n">
-        <v>219.0401958328672</v>
+        <v>34.810556257211886</v>
       </c>
       <c r="B531" t="n">
         <v>64.8</v>
@@ -4318,7 +4318,7 @@
     </row>
     <row r="532">
       <c r="A532" t="n">
-        <v>219.11870341771933</v>
+        <v>35.138156176523864</v>
       </c>
       <c r="B532" t="n">
         <v>64.0</v>
@@ -4326,7 +4326,7 @@
     </row>
     <row r="533">
       <c r="A533" t="n">
-        <v>219.1978333926089</v>
+        <v>35.47272299968898</v>
       </c>
       <c r="B533" t="n">
         <v>63.2</v>
@@ -4334,7 +4334,7 @@
     </row>
     <row r="534">
       <c r="A534" t="n">
-        <v>219.27758742527504</v>
+        <v>35.814071279169355</v>
       </c>
       <c r="B534" t="n">
         <v>62.400000000000006</v>
@@ -4342,7 +4342,7 @@
     </row>
     <row r="535">
       <c r="A535" t="n">
-        <v>219.35796721614986</v>
+        <v>36.16203097699048</v>
       </c>
       <c r="B535" t="n">
         <v>61.6</v>
@@ -4350,7 +4350,7 @@
     </row>
     <row r="536">
       <c r="A536" t="n">
-        <v>219.4389744988448</v>
+        <v>36.51644655935644</v>
       </c>
       <c r="B536" t="n">
         <v>60.800000000000004</v>
@@ -4358,7 +4358,7 @@
     </row>
     <row r="537">
       <c r="A537" t="n">
-        <v>219.52061104064276</v>
+        <v>36.877176173212604</v>
       </c>
       <c r="B537" t="n">
         <v>60.0</v>
@@ -4366,7 +4366,7 @@
     </row>
     <row r="538">
       <c r="A538" t="n">
-        <v>219.60287864300483</v>
+        <v>37.244090898193065</v>
       </c>
       <c r="B538" t="n">
         <v>59.2</v>
@@ -4374,7 +4374,7 @@
     </row>
     <row r="539">
       <c r="A539" t="n">
-        <v>219.6857791420839</v>
+        <v>37.61707406806403</v>
       </c>
       <c r="B539" t="n">
         <v>58.400000000000006</v>
@@ -4382,7 +4382,7 @@
     </row>
     <row r="540">
       <c r="A540" t="n">
-        <v>219.76931440925114</v>
+        <v>37.99602065638345</v>
       </c>
       <c r="B540" t="n">
         <v>57.6</v>
@@ -4390,7 +4390,7 @@
     </row>
     <row r="541">
       <c r="A541" t="n">
-        <v>219.85348635163302</v>
+        <v>38.380836721656976</v>
       </c>
       <c r="B541" t="n">
         <v>56.800000000000004</v>
@@ -4398,7 +4398,7 @@
     </row>
     <row r="542">
       <c r="A542" t="n">
-        <v>219.9382969126599</v>
+        <v>38.77143890777813</v>
       </c>
       <c r="B542" t="n">
         <v>56.0</v>
@@ -4406,7 +4406,7 @@
     </row>
     <row r="543">
       <c r="A543" t="n">
-        <v>220.02374807262603</v>
+        <v>39.16775399600857</v>
       </c>
       <c r="B543" t="n">
         <v>55.2</v>
@@ -4414,7 +4414,7 @@
     </row>
     <row r="544">
       <c r="A544" t="n">
-        <v>220.1098418492624</v>
+        <v>39.56971850518252</v>
       </c>
       <c r="B544" t="n">
         <v>54.400000000000006</v>
@@ -4422,7 +4422,7 @@
     </row>
     <row r="545">
       <c r="A545" t="n">
-        <v>220.1965802983208</v>
+        <v>39.97727833721706</v>
       </c>
       <c r="B545" t="n">
         <v>53.6</v>
@@ -4430,7 +4430,7 @@
     </row>
     <row r="546">
       <c r="A546" t="n">
-        <v>220.28396551417063</v>
+        <v>40.390388465375906</v>
       </c>
       <c r="B546" t="n">
         <v>52.800000000000004</v>
@@ -4438,7 +4438,7 @@
     </row>
     <row r="547">
       <c r="A547" t="n">
-        <v>220.37199963041047</v>
+        <v>40.80901266307882</v>
       </c>
       <c r="B547" t="n">
         <v>52.0</v>
@@ -4446,7 +4446,7 @@
     </row>
     <row r="548">
       <c r="A548" t="n">
-        <v>220.46068482049083</v>
+        <v>41.23312327136949</v>
       </c>
       <c r="B548" t="n">
         <v>51.2</v>
@@ -4454,7 +4454,7 @@
     </row>
     <row r="549">
       <c r="A549" t="n">
-        <v>220.74297912494507</v>
+        <v>42.19563379218823</v>
       </c>
       <c r="B549" t="n">
         <v>50.400000000000006</v>
@@ -4462,7 +4462,7 @@
     </row>
     <row r="550">
       <c r="A550" t="n">
-        <v>221.02551782320873</v>
+        <v>43.159466290983204</v>
       </c>
       <c r="B550" t="n">
         <v>49.6</v>
@@ -4470,7 +4470,7 @@
     </row>
     <row r="551">
       <c r="A551" t="n">
-        <v>221.30830431298983</v>
+        <v>44.124392212532996</v>
       </c>
       <c r="B551" t="n">
         <v>48.800000000000004</v>
@@ -4478,7 +4478,7 @@
     </row>
     <row r="552">
       <c r="A552" t="n">
-        <v>221.5913420369937</v>
+        <v>45.09019391421407</v>
       </c>
       <c r="B552" t="n">
         <v>48.0</v>
@@ -4486,7 +4486,7 @@
     </row>
     <row r="553">
       <c r="A553" t="n">
-        <v>221.87463448365384</v>
+        <v>46.056664804407035</v>
       </c>
       <c r="B553" t="n">
         <v>47.2</v>
@@ -4494,7 +4494,7 @@
     </row>
     <row r="554">
       <c r="A554" t="n">
-        <v>222.1581851878772</v>
+        <v>47.02360944460844</v>
       </c>
       <c r="B554" t="n">
         <v>46.400000000000006</v>
@@ -4502,7 +4502,7 @@
     </row>
     <row r="555">
       <c r="A555" t="n">
-        <v>222.44199773181023</v>
+        <v>47.99084361732821</v>
       </c>
       <c r="B555" t="n">
         <v>45.6</v>
@@ -4510,7 +4510,7 @@
     </row>
     <row r="556">
       <c r="A556" t="n">
-        <v>222.72607574562167</v>
+        <v>48.95819436197735</v>
       </c>
       <c r="B556" t="n">
         <v>44.800000000000004</v>
@@ -4518,7 +4518,7 @@
     </row>
     <row r="557">
       <c r="A557" t="n">
-        <v>223.01042290830628</v>
+        <v>49.925499981049654</v>
       </c>
       <c r="B557" t="n">
         <v>44.0</v>
@@ -4526,7 +4526,7 @@
     </row>
     <row r="558">
       <c r="A558" t="n">
-        <v>223.29504294850761</v>
+        <v>50.89261001897569</v>
       </c>
       <c r="B558" t="n">
         <v>43.2</v>
@@ -4534,7 +4534,7 @@
     </row>
     <row r="559">
       <c r="A559" t="n">
-        <v>223.5799396453611</v>
+        <v>51.85938521607744</v>
       </c>
       <c r="B559" t="n">
         <v>42.400000000000006</v>
@@ -4542,7 +4542,7 @@
     </row>
     <row r="560">
       <c r="A560" t="n">
-        <v>223.8651168293581</v>
+        <v>52.825697440078386</v>
       </c>
       <c r="B560" t="n">
         <v>41.6</v>
@@ -4550,7 +4550,7 @@
     </row>
     <row r="561">
       <c r="A561" t="n">
-        <v>224.15057838323187</v>
+        <v>53.79142959763354</v>
       </c>
       <c r="B561" t="n">
         <v>40.800000000000004</v>
@@ -4558,7 +4558,7 @@
     </row>
     <row r="562">
       <c r="A562" t="n">
-        <v>224.43632824286559</v>
+        <v>54.7564755283359</v>
       </c>
       <c r="B562" t="n">
         <v>40.0</v>
@@ -4566,7 +4566,7 @@
     </row>
     <row r="563">
       <c r="A563" t="n">
-        <v>224.72237039822343</v>
+        <v>55.72073988363047</v>
       </c>
       <c r="B563" t="n">
         <v>39.2</v>
@@ -4574,7 +4574,7 @@
     </row>
     <row r="564">
       <c r="A564" t="n">
-        <v>225.00870889430425</v>
+        <v>56.68413799303079</v>
       </c>
       <c r="B564" t="n">
         <v>38.400000000000006</v>
@@ -4582,7 +4582,7 @@
     </row>
     <row r="565">
       <c r="A565" t="n">
-        <v>225.2953478321211</v>
+        <v>57.6465957199876</v>
       </c>
       <c r="B565" t="n">
         <v>37.6</v>
@@ -4590,7 +4590,7 @@
     </row>
     <row r="566">
       <c r="A566" t="n">
-        <v>225.5822913697043</v>
+        <v>58.60804930970096</v>
       </c>
       <c r="B566" t="n">
         <v>36.800000000000004</v>
@@ -4598,7 +4598,7 @@
     </row>
     <row r="567">
       <c r="A567" t="n">
-        <v>225.8695437231305</v>
+        <v>59.568445231109365</v>
       </c>
       <c r="B567" t="n">
         <v>36.0</v>
@@ -4606,7 +4606,7 @@
     </row>
     <row r="568">
       <c r="A568" t="n">
-        <v>226.15710916757874</v>
+        <v>60.527740015220786</v>
       </c>
       <c r="B568" t="n">
         <v>35.2</v>
@@ -4614,7 +4614,7 @@
     </row>
     <row r="569">
       <c r="A569" t="n">
-        <v>226.4449920384139</v>
+        <v>61.485900091886805</v>
       </c>
       <c r="B569" t="n">
         <v>34.4</v>
@@ -4622,7 +4622,7 @@
     </row>
     <row r="570">
       <c r="A570" t="n">
-        <v>226.73319673229707</v>
+        <v>62.442901627049935</v>
       </c>
       <c r="B570" t="n">
         <v>33.6</v>
@@ -4630,7 +4630,7 @@
     </row>
     <row r="571">
       <c r="A571" t="n">
-        <v>227.021727708326</v>
+        <v>63.398730362433184</v>
       </c>
       <c r="B571" t="n">
         <v>32.800000000000004</v>
@@ -4638,7 +4638,7 @@
     </row>
     <row r="572">
       <c r="A572" t="n">
-        <v>227.31058948920517</v>
+        <v>64.35338145957485</v>
       </c>
       <c r="B572" t="n">
         <v>32.0</v>
@@ -4646,7 +4646,7 @@
     </row>
     <row r="573">
       <c r="A573" t="n">
-        <v>227.59978666244623</v>
+        <v>65.30685935005818</v>
       </c>
       <c r="B573" t="n">
         <v>31.200000000000003</v>
@@ -4654,7 +4654,7 @@
     </row>
     <row r="574">
       <c r="A574" t="n">
-        <v>227.8893238816012</v>
+        <v>66.2591775937328</v>
       </c>
       <c r="B574" t="n">
         <v>30.400000000000002</v>
@@ -4662,7 +4662,7 @@
     </row>
     <row r="575">
       <c r="A575" t="n">
-        <v>228.17920586752703</v>
+        <v>67.21035874668715</v>
       </c>
       <c r="B575" t="n">
         <v>29.6</v>
@@ -4670,7 +4670,7 @@
     </row>
     <row r="576">
       <c r="A576" t="n">
-        <v>228.46943740968493</v>
+        <v>68.1604342406946</v>
       </c>
       <c r="B576" t="n">
         <v>28.8</v>
@@ -4678,7 +4678,7 @@
     </row>
     <row r="577">
       <c r="A577" t="n">
-        <v>228.76002336747413</v>
+        <v>69.10944427584124</v>
       </c>
       <c r="B577" t="n">
         <v>28.0</v>
@@ -4686,7 +4686,7 @@
     </row>
     <row r="578">
       <c r="A578" t="n">
-        <v>229.05096867160213</v>
+        <v>70.0574377280324</v>
       </c>
       <c r="B578" t="n">
         <v>27.200000000000003</v>
@@ -4694,7 +4694,7 @@
     </row>
     <row r="579">
       <c r="A579" t="n">
-        <v>229.34227832549172</v>
+        <v>71.00447207308443</v>
       </c>
       <c r="B579" t="n">
         <v>26.400000000000002</v>
@@ -4702,7 +4702,7 @@
     </row>
     <row r="580">
       <c r="A580" t="n">
-        <v>229.63395740672553</v>
+        <v>71.9506133291332</v>
       </c>
       <c r="B580" t="n">
         <v>25.6</v>
@@ -4710,7 +4710,7 @@
     </row>
     <row r="581">
       <c r="A581" t="n">
-        <v>229.92601106853206</v>
+        <v>72.8959360191312</v>
       </c>
       <c r="B581" t="n">
         <v>24.8</v>
@@ -4718,7 +4718,7 @@
     </row>
     <row r="582">
       <c r="A582" t="n">
-        <v>230.218444541311</v>
+        <v>73.84052315527074</v>
       </c>
       <c r="B582" t="n">
         <v>24.0</v>
@@ -4726,7 +4726,7 @@
     </row>
     <row r="583">
       <c r="A583" t="n">
-        <v>230.51126313420082</v>
+        <v>74.78446624725495</v>
       </c>
       <c r="B583" t="n">
         <v>23.200000000000003</v>
@@ -4734,7 +4734,7 @@
     </row>
     <row r="584">
       <c r="A584" t="n">
-        <v>230.80447223669137</v>
+        <v>75.72786533645098</v>
       </c>
       <c r="B584" t="n">
         <v>22.400000000000002</v>
@@ -4742,7 +4742,7 @@
     </row>
     <row r="585">
       <c r="A585" t="n">
-        <v>231.09807732027977</v>
+        <v>76.67082905809798</v>
       </c>
       <c r="B585" t="n">
         <v>21.6</v>
@@ -4750,7 +4750,7 @@
     </row>
     <row r="586">
       <c r="A586" t="n">
-        <v>231.39208394017416</v>
+        <v>77.61347473391777</v>
       </c>
       <c r="B586" t="n">
         <v>20.8</v>
@@ -4758,7 +4758,7 @@
     </row>
     <row r="587">
       <c r="A587" t="n">
-        <v>231.68649773704544</v>
+        <v>78.55592849768163</v>
       </c>
       <c r="B587" t="n">
         <v>20.0</v>
@@ -4766,7 +4766,7 @@
     </row>
     <row r="588">
       <c r="A588" t="n">
-        <v>231.98132443882793</v>
+        <v>79.49832545653936</v>
       </c>
       <c r="B588" t="n">
         <v>19.200000000000003</v>
@@ -4774,7 +4774,7 @@
     </row>
     <row r="589">
       <c r="A589" t="n">
-        <v>232.27656986257264</v>
+        <v>80.44080989121164</v>
       </c>
       <c r="B589" t="n">
         <v>18.400000000000002</v>
@@ -4782,7 +4782,7 @@
     </row>
     <row r="590">
       <c r="A590" t="n">
-        <v>232.57223991635354</v>
+        <v>81.3835354985016</v>
       </c>
       <c r="B590" t="n">
         <v>17.6</v>
@@ -4790,7 +4790,7 @@
     </row>
     <row r="591">
       <c r="A591" t="n">
-        <v>232.86834060122874</v>
+        <v>82.32666567999235</v>
       </c>
       <c r="B591" t="n">
         <v>16.8</v>
@@ -4798,7 +4798,7 @@
     </row>
     <row r="592">
       <c r="A592" t="n">
-        <v>233.164878013258</v>
+        <v>83.27037388128605</v>
       </c>
       <c r="B592" t="n">
         <v>16.0</v>
@@ -4806,7 +4806,7 @@
     </row>
     <row r="593">
       <c r="A593" t="n">
-        <v>233.46185834558167</v>
+        <v>84.21484398671282</v>
       </c>
       <c r="B593" t="n">
         <v>15.200000000000001</v>
@@ -4814,7 +4814,7 @@
     </row>
     <row r="594">
       <c r="A594" t="n">
-        <v>233.75928789055808</v>
+        <v>85.16027077510535</v>
       </c>
       <c r="B594" t="n">
         <v>14.4</v>
@@ -4822,7 +4822,7 @@
     </row>
     <row r="595">
       <c r="A595" t="n">
-        <v>234.0571730419657</v>
+        <v>86.10686044302668</v>
       </c>
       <c r="B595" t="n">
         <v>13.600000000000001</v>
@@ -4830,7 +4830,7 @@
     </row>
     <row r="596">
       <c r="A596" t="n">
-        <v>234.3555202972708</v>
+        <v>87.0548312027613</v>
       </c>
       <c r="B596" t="n">
         <v>12.8</v>
@@ -4838,7 +4838,7 @@
     </row>
     <row r="597">
       <c r="A597" t="n">
-        <v>234.65433625996278</v>
+        <v>88.00441396347338</v>
       </c>
       <c r="B597" t="n">
         <v>12.0</v>
@@ -4846,7 +4846,7 @@
     </row>
     <row r="598">
       <c r="A598" t="n">
-        <v>234.95362764196017</v>
+        <v>88.95585310521881</v>
       </c>
       <c r="B598" t="n">
         <v>11.200000000000001</v>
@@ -4854,7 +4854,7 @@
     </row>
     <row r="599">
       <c r="A599" t="n">
-        <v>235.25340126608944</v>
+        <v>89.90940735702407</v>
       </c>
       <c r="B599" t="n">
         <v>10.4</v>
@@ -4862,7 +4862,7 @@
     </row>
     <row r="600">
       <c r="A600" t="n">
-        <v>235.5536640686397</v>
+        <v>90.8653507920477</v>
       </c>
       <c r="B600" t="n">
         <v>9.600000000000001</v>
@@ -4870,7 +4870,7 @@
     </row>
     <row r="601">
       <c r="A601" t="n">
-        <v>235.85442310199596</v>
+        <v>91.82397395499345</v>
       </c>
       <c r="B601" t="n">
         <v>8.8</v>
@@ -4878,7 +4878,7 @@
     </row>
     <row r="602">
       <c r="A602" t="n">
-        <v>236.15568553735335</v>
+        <v>92.78558513951077</v>
       </c>
       <c r="B602" t="n">
         <v>8.0</v>
@@ -4886,7 +4886,7 @@
     </row>
     <row r="603">
       <c r="A603" t="n">
-        <v>236.45745866751665</v>
+        <v>93.7505118364034</v>
       </c>
       <c r="B603" t="n">
         <v>7.2</v>
@@ -4894,7 +4894,7 @@
     </row>
     <row r="604">
       <c r="A604" t="n">
-        <v>236.7597499097866</v>
+        <v>94.71910237717827</v>
       </c>
       <c r="B604" t="n">
         <v>6.4</v>
@@ -4902,7 +4902,7 @@
     </row>
     <row r="605">
       <c r="A605" t="n">
-        <v>237.06256680893802</v>
+        <v>95.69172780195993</v>
       </c>
       <c r="B605" t="n">
         <v>5.6000000000000005</v>
@@ -4910,7 +4910,7 @@
     </row>
     <row r="606">
       <c r="A606" t="n">
-        <v>237.3659170402922</v>
+        <v>96.66878398626227</v>
       </c>
       <c r="B606" t="n">
         <v>4.800000000000001</v>
@@ -4918,7 +4918,7 @@
     </row>
     <row r="607">
       <c r="A607" t="n">
-        <v>237.66980841288697</v>
+        <v>97.65069406778451</v>
       </c>
       <c r="B607" t="n">
         <v>4.0</v>
@@ -4926,7 +4926,7 @@
     </row>
     <row r="608">
       <c r="A608" t="n">
-        <v>237.9742488727498</v>
+        <v>98.63791122261142</v>
       </c>
       <c r="B608" t="n">
         <v>3.2</v>
@@ -4934,7 +4934,7 @@
     </row>
     <row r="609">
       <c r="A609" t="n">
-        <v>238.279246506276</v>
+        <v>99.63092185033781</v>
       </c>
       <c r="B609" t="n">
         <v>2.4000000000000004</v>
@@ -4942,7 +4942,7 @@
     </row>
     <row r="610">
       <c r="A610" t="n">
-        <v>238.58480954371754</v>
+        <v>100.63024924026422</v>
       </c>
       <c r="B610" t="n">
         <v>1.6</v>
@@ -4950,7 +4950,7 @@
     </row>
     <row r="611">
       <c r="A611" t="n">
-        <v>238.89094636278648</v>
+        <v>101.63645780660488</v>
       </c>
       <c r="B611" t="n">
         <v>0.8</v>
@@ -4958,7 +4958,7 @@
     </row>
     <row r="612">
       <c r="A612" t="n">
-        <v>239.19766549237735</v>
+        <v>102.65015800056955</v>
       </c>
       <c r="B612" t="n">
         <v>0.0</v>
@@ -4966,7 +4966,7 @@
     </row>
     <row r="613">
       <c r="A613" t="n">
-        <v>-72.60540258802313</v>
+        <v>-47.32192444898172</v>
       </c>
       <c r="B613" t="n">
         <v>0.0</v>

--- a/src/main/resources/mold_output.xlsx
+++ b/src/main/resources/mold_output.xlsx
@@ -86,7 +86,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-47.32192444898172</v>
+        <v>-83.21533628618289</v>
       </c>
       <c r="B3" t="n">
         <v>0.0</v>
@@ -94,7 +94,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-47.22369651683323</v>
+        <v>-83.1987287282679</v>
       </c>
       <c r="B4" t="n">
         <v>0.8</v>
@@ -102,7 +102,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-47.11276110567783</v>
+        <v>-83.181736661564</v>
       </c>
       <c r="B5" t="n">
         <v>1.6</v>
@@ -110,7 +110,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-46.989025461828305</v>
+        <v>-83.16435924112326</v>
       </c>
       <c r="B6" t="n">
         <v>2.4000000000000004</v>
@@ -118,7 +118,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-46.852395036738756</v>
+        <v>-83.1465956213471</v>
       </c>
       <c r="B7" t="n">
         <v>3.2</v>
@@ -126,7 +126,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-46.702773866328414</v>
+        <v>-83.12844495604682</v>
       </c>
       <c r="B8" t="n">
         <v>4.0</v>
@@ -134,7 +134,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-46.54006495944407</v>
+        <v>-83.10990639850354</v>
       </c>
       <c r="B9" t="n">
         <v>4.800000000000001</v>
@@ -142,7 +142,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-46.36417069617937</v>
+        <v>-83.09097910153011</v>
       </c>
       <c r="B10" t="n">
         <v>5.6000000000000005</v>
@@ -150,7 +150,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-46.17499323664623</v>
+        <v>-83.0716622175321</v>
       </c>
       <c r="B11" t="n">
         <v>6.4</v>
@@ -158,7 +158,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-45.972434940666744</v>
+        <v>-83.05195489857073</v>
       </c>
       <c r="B12" t="n">
         <v>7.2</v>
@@ -166,7 +166,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-45.75639879872267</v>
+        <v>-83.03185629642525</v>
       </c>
       <c r="B13" t="n">
         <v>8.0</v>
@@ -174,7 +174,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-45.52678887435667</v>
+        <v>-83.01136556265661</v>
       </c>
       <c r="B14" t="n">
         <v>8.8</v>
@@ -182,7 +182,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-45.28351075807592</v>
+        <v>-82.99048184867127</v>
       </c>
       <c r="B15" t="n">
         <v>9.600000000000001</v>
@@ -190,7 +190,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-45.026472032649224</v>
+        <v>-82.9692043057857</v>
       </c>
       <c r="B16" t="n">
         <v>10.4</v>
@@ -198,7 +198,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-44.755582749530845</v>
+        <v>-82.9475320852917</v>
       </c>
       <c r="B17" t="n">
         <v>11.200000000000001</v>
@@ -206,7 +206,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-44.470755915968596</v>
+        <v>-82.92546433852178</v>
       </c>
       <c r="B18" t="n">
         <v>12.0</v>
@@ -214,7 +214,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-44.1719079921786</v>
+        <v>-82.90300021691553</v>
       </c>
       <c r="B19" t="n">
         <v>12.8</v>
@@ -222,7 +222,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-43.85895939778072</v>
+        <v>-82.88013887208638</v>
       </c>
       <c r="B20" t="n">
         <v>13.600000000000001</v>
@@ -230,7 +230,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-43.531835026497504</v>
+        <v>-82.8568794558891</v>
       </c>
       <c r="B21" t="n">
         <v>14.4</v>
@@ -238,7 +238,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>-43.19046476792019</v>
+        <v>-82.83322112048731</v>
       </c>
       <c r="B22" t="n">
         <v>15.200000000000001</v>
@@ -246,7 +246,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>-42.83478403494229</v>
+        <v>-82.80916301842251</v>
       </c>
       <c r="B23" t="n">
         <v>16.0</v>
@@ -254,7 +254,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>-42.46473429525582</v>
+        <v>-82.78470430268266</v>
       </c>
       <c r="B24" t="n">
         <v>16.8</v>
@@ -262,7 +262,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>-42.08026360509763</v>
+        <v>-82.75984412677201</v>
       </c>
       <c r="B25" t="n">
         <v>17.6</v>
@@ -270,7 +270,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>-41.681327143224735</v>
+        <v>-82.73458164478146</v>
       </c>
       <c r="B26" t="n">
         <v>18.400000000000002</v>
@@ -278,7 +278,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>-41.26788774289699</v>
+        <v>-82.70891601145888</v>
       </c>
       <c r="B27" t="n">
         <v>19.200000000000003</v>
@@ -286,7 +286,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>-40.839916419444165</v>
+        <v>-82.68284638228081</v>
       </c>
       <c r="B28" t="n">
         <v>20.0</v>
@@ -294,7 +294,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-40.39739289080484</v>
+        <v>-82.6563719135242</v>
       </c>
       <c r="B29" t="n">
         <v>20.8</v>
@@ -302,7 +302,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>-39.94030608824738</v>
+        <v>-82.62949176233877</v>
       </c>
       <c r="B30" t="n">
         <v>21.6</v>
@@ -310,7 +310,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>-39.46865465431733</v>
+        <v>-82.60220508682008</v>
       </c>
       <c r="B31" t="n">
         <v>22.400000000000002</v>
@@ -318,7 +318,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>-38.982447424908855</v>
+        <v>-82.57451104608327</v>
       </c>
       <c r="B32" t="n">
         <v>23.200000000000003</v>
@@ -326,7 +326,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>-38.48170389223506</v>
+        <v>-82.54640880033676</v>
       </c>
       <c r="B33" t="n">
         <v>24.0</v>
@@ -334,7 +334,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>-37.96645464536749</v>
+        <v>-82.51789751095745</v>
       </c>
       <c r="B34" t="n">
         <v>24.8</v>
@@ -342,7 +342,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>-37.43674178494757</v>
+        <v>-82.48897634056539</v>
       </c>
       <c r="B35" t="n">
         <v>25.6</v>
@@ -350,7 +350,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>-36.892619308626934</v>
+        <v>-82.45964445310011</v>
       </c>
       <c r="B36" t="n">
         <v>26.400000000000002</v>
@@ -358,7 +358,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>-36.3341534637905</v>
+        <v>-82.4299010138966</v>
       </c>
       <c r="B37" t="n">
         <v>27.200000000000003</v>
@@ -366,7 +366,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>-35.761423064145106</v>
+        <v>-82.39974518976231</v>
       </c>
       <c r="B38" t="n">
         <v>28.0</v>
@@ -374,7 +374,7 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>-35.174519766826904</v>
+        <v>-82.36917614905457</v>
       </c>
       <c r="B39" t="n">
         <v>28.8</v>
@@ -382,7 +382,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>-34.57354830679316</v>
+        <v>-82.33819306175872</v>
       </c>
       <c r="B40" t="n">
         <v>29.6</v>
@@ -390,7 +390,7 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>-33.9586266854173</v>
+        <v>-82.30679509956627</v>
       </c>
       <c r="B41" t="n">
         <v>30.400000000000002</v>
@@ -398,7 +398,7 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>-33.32988631040661</v>
+        <v>-82.27498143595437</v>
       </c>
       <c r="B42" t="n">
         <v>31.200000000000003</v>
@@ -406,7 +406,7 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>-32.68747208440192</v>
+        <v>-82.24275124626513</v>
       </c>
       <c r="B43" t="n">
         <v>32.0</v>
@@ -414,7 +414,7 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>-32.03154243990471</v>
+        <v>-82.21010370778583</v>
       </c>
       <c r="B44" t="n">
         <v>32.800000000000004</v>
@@ -422,7 +422,7 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>-31.36226931850274</v>
+        <v>-82.17703799982976</v>
       </c>
       <c r="B45" t="n">
         <v>33.6</v>
@@ -430,7 +430,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>-30.679838092731416</v>
+        <v>-82.14355330381693</v>
       </c>
       <c r="B46" t="n">
         <v>34.4</v>
@@ -438,7 +438,7 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>-29.984447429309398</v>
+        <v>-82.1096488033563</v>
       </c>
       <c r="B47" t="n">
         <v>35.2</v>
@@ -446,7 +446,7 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>-29.276309092918012</v>
+        <v>-82.07532368432766</v>
       </c>
       <c r="B48" t="n">
         <v>36.0</v>
@@ -454,7 +454,7 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>-28.55564769015723</v>
+        <v>-82.04057713496462</v>
       </c>
       <c r="B49" t="n">
         <v>36.800000000000004</v>
@@ -462,7 +462,7 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>-27.8227003537892</v>
+        <v>-82.0054083459375</v>
       </c>
       <c r="B50" t="n">
         <v>37.6</v>
@@ -470,7 +470,7 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>-27.077716367878253</v>
+        <v>-81.96981651043757</v>
       </c>
       <c r="B51" t="n">
         <v>38.400000000000006</v>
@@ -478,7 +478,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>-26.320956734942285</v>
+        <v>-81.93380082426066</v>
       </c>
       <c r="B52" t="n">
         <v>39.2</v>
@@ -486,7 +486,7 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>-25.552693686734017</v>
+        <v>-81.8973604858927</v>
       </c>
       <c r="B53" t="n">
         <v>40.0</v>
@@ -494,7 +494,7 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>-24.773210140773756</v>
+        <v>-81.86049469659406</v>
       </c>
       <c r="B54" t="n">
         <v>40.800000000000004</v>
@@ -502,7 +502,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-23.982799105240645</v>
+        <v>-81.823202660486</v>
       </c>
       <c r="B55" t="n">
         <v>41.6</v>
@@ -510,7 +510,7 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>-23.181763035295205</v>
+        <v>-81.78548358463661</v>
       </c>
       <c r="B56" t="n">
         <v>42.400000000000006</v>
@@ -518,7 +518,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-22.370413144344838</v>
+        <v>-81.74733667914728</v>
       </c>
       <c r="B57" t="n">
         <v>43.2</v>
@@ -526,7 +526,7 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>-21.54906867416466</v>
+        <v>-83.35732673040181</v>
       </c>
       <c r="B58" t="n">
         <v>44.0</v>
@@ -534,7 +534,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>-20.718056128149783</v>
+        <v>-85.41395166885042</v>
       </c>
       <c r="B59" t="n">
         <v>44.800000000000004</v>
@@ -542,7 +542,7 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>-19.87770847228785</v>
+        <v>-87.7467633866093</v>
       </c>
       <c r="B60" t="n">
         <v>45.6</v>
@@ -550,7 +550,7 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>-19.02836430870491</v>
+        <v>-89.66602420817335</v>
       </c>
       <c r="B61" t="n">
         <v>46.400000000000006</v>
@@ -558,7 +558,7 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>-18.170367026844417</v>
+        <v>-92.01393515835733</v>
       </c>
       <c r="B62" t="n">
         <v>47.2</v>
@@ -566,7 +566,7 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>-17.30406393748956</v>
+        <v>-93.04938763376074</v>
       </c>
       <c r="B63" t="n">
         <v>48.0</v>
@@ -574,7 +574,7 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>-16.429805394927826</v>
+        <v>-95.03547062411491</v>
       </c>
       <c r="B64" t="n">
         <v>48.800000000000004</v>
@@ -582,7 +582,7 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>-15.547943912585794</v>
+        <v>-95.23362969743249</v>
       </c>
       <c r="B65" t="n">
         <v>49.6</v>
@@ -590,7 +590,7 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>-14.658833277431427</v>
+        <v>-95.39427913826444</v>
       </c>
       <c r="B66" t="n">
         <v>50.400000000000006</v>
@@ -598,7 +598,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>-13.762827668350667</v>
+        <v>-95.51858759054645</v>
       </c>
       <c r="B67" t="n">
         <v>51.2</v>
@@ -606,7 +606,7 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>-14.384352325304121</v>
+        <v>-95.60770126749864</v>
       </c>
       <c r="B68" t="n">
         <v>52.0</v>
@@ -614,7 +614,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-15.006342958609082</v>
+        <v>-95.64811143759653</v>
       </c>
       <c r="B69" t="n">
         <v>52.800000000000004</v>
@@ -622,7 +622,7 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>-15.62901602961702</v>
+        <v>-95.64241427341028</v>
       </c>
       <c r="B70" t="n">
         <v>53.6</v>
@@ -630,7 +630,7 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>-16.252594376001213</v>
+        <v>-95.63630395733821</v>
       </c>
       <c r="B71" t="n">
         <v>54.400000000000006</v>
@@ -638,7 +638,7 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>-16.87730805378746</v>
+        <v>-95.62977899786688</v>
       </c>
       <c r="B72" t="n">
         <v>55.2</v>
@@ -646,7 +646,7 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>-17.503395242947477</v>
+        <v>-95.62283789836317</v>
       </c>
       <c r="B73" t="n">
         <v>56.0</v>
@@ -654,7 +654,7 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>-18.1311032256842</v>
+        <v>-95.61547915713606</v>
       </c>
       <c r="B74" t="n">
         <v>56.800000000000004</v>
@@ -662,7 +662,7 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>-18.760689447689742</v>
+        <v>-95.59950271783208</v>
       </c>
       <c r="B75" t="n">
         <v>57.6</v>
@@ -670,7 +670,7 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>-19.392422674013176</v>
+        <v>-95.59088199165072</v>
       </c>
       <c r="B76" t="n">
         <v>58.400000000000006</v>
@@ -678,7 +678,7 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>-20.026584252767407</v>
+        <v>-95.5818375676688</v>
       </c>
       <c r="B77" t="n">
         <v>59.2</v>
@@ -686,7 +686,7 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>-20.663469501780128</v>
+        <v>-95.57236791986807</v>
       </c>
       <c r="B78" t="n">
         <v>60.0</v>
@@ -694,7 +694,7 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>-21.30338923550488</v>
+        <v>-95.56247151756736</v>
       </c>
       <c r="B79" t="n">
         <v>60.800000000000004</v>
@@ -702,7 +702,7 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>-21.946671452119773</v>
+        <v>-95.55214682549337</v>
       </c>
       <c r="B80" t="n">
         <v>61.6</v>
@@ -710,7 +710,7 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>-22.593663203837195</v>
+        <v>-95.54139230385314</v>
       </c>
       <c r="B81" t="n">
         <v>62.400000000000006</v>
@@ -718,7 +718,7 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>-23.244732677125</v>
+        <v>-95.53020640840751</v>
       </c>
       <c r="B82" t="n">
         <v>63.2</v>
@@ -726,7 +726,7 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-23.90027151392053</v>
+        <v>-95.50653429736585</v>
       </c>
       <c r="B83" t="n">
         <v>64.0</v>
@@ -734,7 +734,7 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>-24.560697410162618</v>
+        <v>-95.49404497174567</v>
       </c>
       <c r="B84" t="n">
         <v>64.8</v>
@@ -742,7 +742,7 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>-25.226457034255134</v>
+        <v>-95.4811180524299</v>
       </c>
       <c r="B85" t="n">
         <v>65.60000000000001</v>
@@ -750,7 +750,7 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>-73.34187224430431</v>
+        <v>-95.46775197410773</v>
       </c>
       <c r="B86" t="n">
         <v>66.4</v>
@@ -758,7 +758,7 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>-73.36139199253608</v>
+        <v>-95.45394516749636</v>
       </c>
       <c r="B87" t="n">
         <v>67.2</v>
@@ -766,7 +766,7 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>-73.36692661097428</v>
+        <v>-95.43969605942573</v>
       </c>
       <c r="B88" t="n">
         <v>68.0</v>
@@ -774,7 +774,7 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>-73.35812864142747</v>
+        <v>-95.42500307292437</v>
       </c>
       <c r="B89" t="n">
         <v>68.8</v>
@@ -782,7 +782,7 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>-73.33463643321133</v>
+        <v>-95.4098646273072</v>
       </c>
       <c r="B90" t="n">
         <v>69.60000000000001</v>
@@ -790,7 +790,7 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>-73.29607403677852</v>
+        <v>-95.37824501795328</v>
       </c>
       <c r="B91" t="n">
         <v>70.4</v>
@@ -798,7 +798,7 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>-73.24205113281783</v>
+        <v>-95.36176067508967</v>
       </c>
       <c r="B92" t="n">
         <v>71.2</v>
@@ -806,7 +806,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-73.17216300358629</v>
+        <v>-95.34482451504277</v>
       </c>
       <c r="B93" t="n">
         <v>72.0</v>
@@ -814,7 +814,7 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>-73.08599055390638</v>
+        <v>-95.32743493993127</v>
       </c>
       <c r="B94" t="n">
         <v>72.8</v>
@@ -822,7 +822,7 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>-72.98310038996803</v>
+        <v>-95.30959034872029</v>
       </c>
       <c r="B95" t="n">
         <v>73.60000000000001</v>
@@ -830,7 +830,7 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>-72.86304496480923</v>
+        <v>-95.2912891373212</v>
       </c>
       <c r="B96" t="n">
         <v>74.4</v>
@@ -838,7 +838,7 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>-72.72536280011465</v>
+        <v>-95.27252969869232</v>
       </c>
       <c r="B97" t="n">
         <v>75.2</v>
@@ -846,7 +846,7 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>-72.56957879474771</v>
+        <v>-95.25331042294192</v>
       </c>
       <c r="B98" t="n">
         <v>76.0</v>
@@ -854,7 +854,7 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>-72.39520463121235</v>
+        <v>-95.21348590688683</v>
       </c>
       <c r="B99" t="n">
         <v>76.80000000000001</v>
@@ -862,7 +862,7 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>-72.20173929200948</v>
+        <v>-95.1928774334965</v>
       </c>
       <c r="B100" t="n">
         <v>77.60000000000001</v>
@@ -870,7 +870,7 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>-71.98866969858608</v>
+        <v>-95.1718026570311</v>
       </c>
       <c r="B101" t="n">
         <v>78.4</v>
@@ -878,7 +878,7 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>-71.75547148625489</v>
+        <v>-95.15025995495014</v>
       </c>
       <c r="B102" t="n">
         <v>79.2</v>
@@ -886,7 +886,7 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>-71.50160992905677</v>
+        <v>-95.12824770251626</v>
       </c>
       <c r="B103" t="n">
         <v>80.0</v>
@@ -894,7 +894,7 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>-71.22654102901129</v>
+        <v>-95.10576427291042</v>
       </c>
       <c r="B104" t="n">
         <v>80.80000000000001</v>
@@ -902,7 +902,7 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>-70.92971278452222</v>
+        <v>-95.08280803734885</v>
       </c>
       <c r="B105" t="n">
         <v>81.60000000000001</v>
@@ -910,7 +910,7 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>-70.61056665282194</v>
+        <v>-95.05937736520201</v>
       </c>
       <c r="B106" t="n">
         <v>82.4</v>
@@ -918,7 +918,7 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>-70.26853922120642</v>
+        <v>-95.0110861801302</v>
       </c>
       <c r="B107" t="n">
         <v>83.2</v>
@@ -926,7 +926,7 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>-69.90306410137572</v>
+        <v>-94.98622239781184</v>
       </c>
       <c r="B108" t="n">
         <v>84.0</v>
@@ -934,7 +934,7 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>-69.51357406039534</v>
+        <v>-94.96087764037208</v>
       </c>
       <c r="B109" t="n">
         <v>84.80000000000001</v>
@@ -942,7 +942,7 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>-69.09950340056963</v>
+        <v>-94.93505026979886</v>
       </c>
       <c r="B110" t="n">
         <v>85.60000000000001</v>
@@ -950,7 +950,7 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>-68.6602905988039</v>
+        <v>-94.9087386469862</v>
       </c>
       <c r="B111" t="n">
         <v>86.4</v>
@@ -958,7 +958,7 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>-68.1953812137657</v>
+        <v>-94.88194113186628</v>
       </c>
       <c r="B112" t="n">
         <v>87.2</v>
@@ -966,7 +966,7 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>-67.70423106628246</v>
+        <v>-94.85465608354286</v>
       </c>
       <c r="B113" t="n">
         <v>88.0</v>
@@ -974,7 +974,7 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>-67.1863096948683</v>
+        <v>-94.82688186042719</v>
       </c>
       <c r="B114" t="n">
         <v>88.80000000000001</v>
@@ -982,7 +982,7 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>-66.64110408402672</v>
+        <v>-94.79861682037563</v>
       </c>
       <c r="B115" t="n">
         <v>89.60000000000001</v>
@@ -990,7 +990,7 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>-66.06812265799653</v>
+        <v>-94.76985932082903</v>
       </c>
       <c r="B116" t="n">
         <v>90.4</v>
@@ -998,7 +998,7 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>-65.46689952688894</v>
+        <v>-94.7406077189546</v>
       </c>
       <c r="B117" t="n">
         <v>91.2</v>
@@ -1006,7 +1006,7 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>-64.83699896573162</v>
+        <v>-94.71086037178895</v>
       </c>
       <c r="B118" t="n">
         <v>92.0</v>
@@ -1014,7 +1014,7 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>-64.17802009983819</v>
+        <v>-96.71712839878529</v>
       </c>
       <c r="B119" t="n">
         <v>92.80000000000001</v>
@@ -1022,7 +1022,7 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>-63.48960176225518</v>
+        <v>-98.84740278286273</v>
       </c>
       <c r="B120" t="n">
         <v>93.60000000000001</v>
@@ -1030,7 +1030,7 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>-62.771427480938854</v>
+        <v>-98.57797545362607</v>
       </c>
       <c r="B121" t="n">
         <v>94.4</v>
@@ -1038,7 +1038,7 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>-62.02323054495781</v>
+        <v>-98.30946418759686</v>
       </c>
       <c r="B122" t="n">
         <v>95.2</v>
@@ -1046,7 +1046,7 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>-61.244799090638594</v>
+        <v>-98.04185980618843</v>
       </c>
       <c r="B123" t="n">
         <v>96.0</v>
@@ -1054,7 +1054,7 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>-60.435981140438884</v>
+        <v>-97.77515325395044</v>
       </c>
       <c r="B124" t="n">
         <v>96.80000000000001</v>
@@ -1062,7 +1062,7 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>-59.59668951977136</v>
+        <v>-97.50933559605937</v>
       </c>
       <c r="B125" t="n">
         <v>97.60000000000001</v>
@@ -1070,7 +1070,7 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>-58.726906570356675</v>
+        <v>-97.24439801587599</v>
       </c>
       <c r="B126" t="n">
         <v>98.4</v>
@@ -1078,7 +1078,7 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>-57.826688573330756</v>
+        <v>-96.9803318125663</v>
       </c>
       <c r="B127" t="n">
         <v>99.2</v>
@@ -1086,7 +1086,7 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>-56.896169791654756</v>
+        <v>-96.45477929841985</v>
       </c>
       <c r="B128" t="n">
         <v>100.0</v>
@@ -1094,7 +1094,7 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>-55.9355660397365</v>
+        <v>-96.19327614439044</v>
       </c>
       <c r="B129" t="n">
         <v>100.80000000000001</v>
@@ -1102,7 +1102,7 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>-54.9451776889058</v>
+        <v>-95.9326106765086</v>
       </c>
       <c r="B130" t="n">
         <v>101.60000000000001</v>
@@ -1110,7 +1110,7 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>-53.92539202076165</v>
+        <v>-95.67277473938907</v>
       </c>
       <c r="B131" t="n">
         <v>102.4</v>
@@ -1118,7 +1118,7 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>-52.87668484661785</v>
+        <v>-95.41376028041404</v>
       </c>
       <c r="B132" t="n">
         <v>103.2</v>
@@ -1126,7 +1126,7 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>-51.79962132038895</v>
+        <v>-95.15555934774926</v>
       </c>
       <c r="B133" t="n">
         <v>104.0</v>
@@ -1134,7 +1134,7 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>-50.69485588424493</v>
+        <v>-94.89816408840863</v>
       </c>
       <c r="B134" t="n">
         <v>104.80000000000001</v>
@@ -1142,7 +1142,7 @@
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>-49.563131301026914</v>
+        <v>-94.64156674636723</v>
       </c>
       <c r="B135" t="n">
         <v>105.60000000000001</v>
@@ -1150,7 +1150,7 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>-48.40527674444206</v>
+        <v>-94.6806156363836</v>
       </c>
       <c r="B136" t="n">
         <v>106.4</v>
@@ -1158,7 +1158,7 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>-47.222204936971366</v>
+        <v>-94.64987186995222</v>
       </c>
       <c r="B137" t="n">
         <v>107.2</v>
@@ -1166,7 +1166,7 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>-46.014908345648394</v>
+        <v>-94.61862743001979</v>
       </c>
       <c r="B138" t="n">
         <v>108.0</v>
@@ -1174,7 +1174,7 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>-44.78445446670878</v>
+        <v>-94.58688067457408</v>
       </c>
       <c r="B139" t="n">
         <v>108.80000000000001</v>
@@ -1182,7 +1182,7 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>-43.53198025082179</v>
+        <v>-94.55462996221863</v>
       </c>
       <c r="B140" t="n">
         <v>109.60000000000001</v>
@@ -1190,7 +1190,7 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>-43.27749515708399</v>
+        <v>-94.52187365232749</v>
       </c>
       <c r="B141" t="n">
         <v>110.4</v>
@@ -1198,7 +1198,7 @@
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>-41.95465612842469</v>
+        <v>-94.4886101052029</v>
       </c>
       <c r="B142" t="n">
         <v>111.2</v>
@@ -1206,7 +1206,7 @@
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>-40.61276838559752</v>
+        <v>-94.4548376822338</v>
       </c>
       <c r="B143" t="n">
         <v>112.0</v>
@@ -1214,7 +1214,7 @@
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>-40.201643987860336</v>
+        <v>-94.42055474605709</v>
       </c>
       <c r="B144" t="n">
         <v>112.80000000000001</v>
@@ -1222,7 +1222,7 @@
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>-38.792312827945466</v>
+        <v>-94.38575966072037</v>
       </c>
       <c r="B145" t="n">
         <v>113.60000000000001</v>
@@ -1230,7 +1230,7 @@
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>-38.26825853067987</v>
+        <v>-92.95689517636322</v>
       </c>
       <c r="B146" t="n">
         <v>114.4</v>
@@ -1238,7 +1238,7 @@
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>-36.79378398352415</v>
+        <v>-93.22134743063737</v>
       </c>
       <c r="B147" t="n">
         <v>115.2</v>
@@ -1246,7 +1246,7 @@
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>-36.1519103365132</v>
+        <v>-93.44733285266551</v>
       </c>
       <c r="B148" t="n">
         <v>116.0</v>
@@ -1254,7 +1254,7 @@
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>-35.43858716046452</v>
+        <v>-93.63594448910635</v>
       </c>
       <c r="B149" t="n">
         <v>116.80000000000001</v>
@@ -1262,7 +1262,7 @@
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>-36.27993072090641</v>
+        <v>-93.78826696275277</v>
       </c>
       <c r="B150" t="n">
         <v>117.60000000000001</v>
@@ -1270,7 +1270,7 @@
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>-35.465409667394</v>
+        <v>-93.90537031800261</v>
       </c>
       <c r="B151" t="n">
         <v>118.4</v>
@@ -1278,7 +1278,7 @@
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>-36.300152915349315</v>
+        <v>-93.98830466147257</v>
       </c>
       <c r="B152" t="n">
         <v>119.2</v>
@@ -1286,7 +1286,7 @@
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>-37.15632375344609</v>
+        <v>-93.98074497283142</v>
       </c>
       <c r="B153" t="n">
         <v>120.0</v>
@@ -1294,7 +1294,7 @@
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>-38.03614834876947</v>
+        <v>-93.97277474407485</v>
       </c>
       <c r="B154" t="n">
         <v>120.80000000000001</v>
@@ -1302,7 +1302,7 @@
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>-38.942161957558994</v>
+        <v>-93.96439258024475</v>
       </c>
       <c r="B155" t="n">
         <v>121.60000000000001</v>
@@ -1310,7 +1310,7 @@
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>-39.877268304336496</v>
+        <v>-93.9555970821512</v>
       </c>
       <c r="B156" t="n">
         <v>122.4</v>
@@ -1318,7 +1318,7 @@
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>-40.84481378700201</v>
+        <v>-93.94638684643644</v>
       </c>
       <c r="B157" t="n">
         <v>123.2</v>
@@ -1326,7 +1326,7 @@
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>-41.848681199527846</v>
+        <v>-93.93676046563957</v>
       </c>
       <c r="B158" t="n">
         <v>124.0</v>
@@ -1334,7 +1334,7 @@
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>-42.893409505621776</v>
+        <v>-93.92671652826294</v>
       </c>
       <c r="B159" t="n">
         <v>124.80000000000001</v>
@@ -1342,7 +1342,7 @@
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>-43.9843489217497</v>
+        <v>-93.91625361883979</v>
       </c>
       <c r="B160" t="n">
         <v>125.60000000000001</v>
@@ -1350,7 +1350,7 @@
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>-47.50672157169316</v>
+        <v>-93.89406520255335</v>
       </c>
       <c r="B161" t="n">
         <v>126.4</v>
@@ -1358,7 +1358,7 @@
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>-48.820318294109256</v>
+        <v>-93.88233684553467</v>
       </c>
       <c r="B162" t="n">
         <v>127.2</v>
@@ -1366,7 +1366,7 @@
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>-52.82698673285307</v>
+        <v>-93.87018381630278</v>
       </c>
       <c r="B163" t="n">
         <v>128.0</v>
@@ -1374,7 +1374,7 @@
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>-57.20423756869229</v>
+        <v>-93.85760468060079</v>
       </c>
       <c r="B164" t="n">
         <v>128.8</v>
@@ -1382,7 +1382,7 @@
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>-59.93147233595556</v>
+        <v>-93.84459800063439</v>
       </c>
       <c r="B165" t="n">
         <v>129.6</v>
@@ -1390,7 +1390,7 @@
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>-64.88730535877767</v>
+        <v>-93.83116233514846</v>
       </c>
       <c r="B166" t="n">
         <v>130.4</v>
@@ -1398,7 +1398,7 @@
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>-67.70494227617684</v>
+        <v>-93.81729623950469</v>
       </c>
       <c r="B167" t="n">
         <v>131.20000000000002</v>
@@ -1406,7 +1406,7 @@
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>-73.33808139200323</v>
+        <v>-93.80299826576118</v>
       </c>
       <c r="B168" t="n">
         <v>132.0</v>
@@ -1414,7 +1414,7 @@
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>-76.19576601193648</v>
+        <v>-93.77310087617332</v>
       </c>
       <c r="B169" t="n">
         <v>132.8</v>
@@ -1422,7 +1422,7 @@
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>-78.95282743276664</v>
+        <v>-93.75749854865927</v>
       </c>
       <c r="B170" t="n">
         <v>133.6</v>
@@ -1430,7 +1430,7 @@
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>-85.42625959885703</v>
+        <v>-93.74145851987407</v>
       </c>
       <c r="B171" t="n">
         <v>134.4</v>
@@ -1438,7 +1438,7 @@
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>-88.0763520963489</v>
+        <v>-93.7249793265949</v>
       </c>
       <c r="B172" t="n">
         <v>135.20000000000002</v>
@@ -1446,7 +1446,7 @@
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>-90.55386401157213</v>
+        <v>-93.70805950280013</v>
       </c>
       <c r="B173" t="n">
         <v>136.0</v>
@@ -1454,7 +1454,7 @@
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>-92.84824015712655</v>
+        <v>-93.69069757975831</v>
       </c>
       <c r="B174" t="n">
         <v>136.8</v>
@@ -1462,7 +1462,7 @@
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>-94.95354298030938</v>
+        <v>-93.67289208611922</v>
       </c>
       <c r="B175" t="n">
         <v>137.6</v>
@@ -1470,7 +1470,7 @@
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>-96.86842717243584</v>
+        <v>-93.65464154800557</v>
       </c>
       <c r="B176" t="n">
         <v>138.4</v>
@@ -1478,7 +1478,7 @@
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>-98.59575078103964</v>
+        <v>-93.61679943077255</v>
       </c>
       <c r="B177" t="n">
         <v>139.20000000000002</v>
@@ -1486,7 +1486,7 @@
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>-100.14191010125947</v>
+        <v>-93.59720489211273</v>
       </c>
       <c r="B178" t="n">
         <v>140.0</v>
@@ -1494,7 +1494,7 @@
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>-101.51601878229845</v>
+        <v>-93.57715939009182</v>
       </c>
       <c r="B179" t="n">
         <v>140.8</v>
@@ -1502,7 +1502,7 @@
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>-102.72905254093952</v>
+        <v>-93.55666143963003</v>
       </c>
       <c r="B180" t="n">
         <v>141.6</v>
@@ -1510,7 +1510,7 @@
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>-103.79305677101952</v>
+        <v>-93.53570955370441</v>
       </c>
       <c r="B181" t="n">
         <v>142.4</v>
@@ -1518,7 +1518,7 @@
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>-104.72047837010611</v>
+        <v>-93.51430224345077</v>
       </c>
       <c r="B182" t="n">
         <v>143.20000000000002</v>
@@ -1526,7 +1526,7 @@
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>-105.52364767889318</v>
+        <v>-93.49243801826836</v>
       </c>
       <c r="B183" t="n">
         <v>144.0</v>
@@ -1534,7 +1534,7 @@
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>-106.21440916396197</v>
+        <v>-93.47011538592528</v>
       </c>
       <c r="B184" t="n">
         <v>144.8</v>
@@ -1542,7 +1542,7 @@
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>-106.80388273872582</v>
+        <v>-93.4240889233179</v>
       </c>
       <c r="B185" t="n">
         <v>145.6</v>
@@ -1550,7 +1550,7 @@
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>-107.3023301847001</v>
+        <v>-93.40038210140636</v>
       </c>
       <c r="B186" t="n">
         <v>146.4</v>
@@ -1558,7 +1558,7 @@
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>-107.71910024581656</v>
+        <v>-93.37621088926159</v>
       </c>
       <c r="B187" t="n">
         <v>147.20000000000002</v>
@@ -1566,7 +1566,7 @@
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>-108.06262880950146</v>
+        <v>-93.3515737881352</v>
       </c>
       <c r="B188" t="n">
         <v>148.0</v>
@@ -1574,7 +1574,7 @@
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>-108.34047499904963</v>
+        <v>-93.32646929831384</v>
       </c>
       <c r="B189" t="n">
         <v>148.8</v>
@@ -1582,7 +1582,7 @@
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>-108.55937861529672</v>
+        <v>-93.30089591923667</v>
       </c>
       <c r="B190" t="n">
         <v>149.6</v>
@@ -1590,7 +1590,7 @@
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>-108.72532846986991</v>
+        <v>-93.27485214961303</v>
       </c>
       <c r="B191" t="n">
         <v>150.4</v>
@@ -1598,7 +1598,7 @@
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>-108.8436344765966</v>
+        <v>-93.24833648754276</v>
       </c>
       <c r="B192" t="n">
         <v>151.20000000000002</v>
@@ -1606,7 +1606,7 @@
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>-108.918998893186</v>
+        <v>-93.1938834761433</v>
       </c>
       <c r="B193" t="n">
         <v>152.0</v>
@@ -1614,7 +1614,7 @@
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>-108.95558393239557</v>
+        <v>-93.1659431210665</v>
       </c>
       <c r="B194" t="n">
         <v>152.8</v>
@@ -1622,7 +1622,7 @@
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>-108.95707423004367</v>
+        <v>-93.13752486229919</v>
       </c>
       <c r="B195" t="n">
         <v>153.60000000000002</v>
@@ -1630,7 +1630,7 @@
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>-108.92673350344666</v>
+        <v>-93.10862719674697</v>
       </c>
       <c r="B196" t="n">
         <v>154.4</v>
@@ -1638,7 +1638,7 @@
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>-108.86745527496211</v>
+        <v>-93.07924862145941</v>
       </c>
       <c r="B197" t="n">
         <v>155.20000000000002</v>
@@ -1646,7 +1646,7 @@
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>-108.78180786329537</v>
+        <v>-93.01904273138268</v>
       </c>
       <c r="B198" t="n">
         <v>156.0</v>
@@ -1654,7 +1654,7 @@
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>-108.67207402885026</v>
+        <v>-92.98821241259941</v>
       </c>
       <c r="B199" t="n">
         <v>156.8</v>
@@ -1662,7 +1662,7 @@
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>-108.54028574820416</v>
+        <v>-92.67715261748938</v>
       </c>
       <c r="B200" t="n">
         <v>157.60000000000002</v>
@@ -1670,7 +1670,7 @@
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>-108.38825462140574</v>
+        <v>-92.64465010032802</v>
       </c>
       <c r="B201" t="n">
         <v>158.4</v>
@@ -1678,7 +1678,7 @@
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>-108.21759840785947</v>
+        <v>-92.61165749488924</v>
       </c>
       <c r="B202" t="n">
         <v>159.20000000000002</v>
@@ -1686,7 +1686,7 @@
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>-108.02976415782203</v>
+        <v>-92.33032377282325</v>
       </c>
       <c r="B203" t="n">
         <v>160.0</v>
@@ -1694,7 +1694,7 @@
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>-107.8260483672207</v>
+        <v>-92.29614717512038</v>
       </c>
       <c r="B204" t="n">
         <v>160.8</v>
@@ -1702,7 +1702,7 @@
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>-107.6076145400859</v>
+        <v>-91.9785777215431</v>
       </c>
       <c r="B205" t="n">
         <v>161.60000000000002</v>
@@ -1710,7 +1710,7 @@
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>-107.37550849929806</v>
+        <v>-91.69550351591721</v>
       </c>
       <c r="B206" t="n">
         <v>162.4</v>
@@ -1718,7 +1718,7 @@
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>-107.1306717448505</v>
+        <v>-91.41226135185542</v>
       </c>
       <c r="B207" t="n">
         <v>163.20000000000002</v>
@@ -1726,7 +1726,7 @@
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>-106.87395312061457</v>
+        <v>-91.16624937100465</v>
       </c>
       <c r="B208" t="n">
         <v>164.0</v>
@@ -1734,7 +1734,7 @@
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>-106.60611901616446</v>
+        <v>-90.88335904285219</v>
       </c>
       <c r="B209" t="n">
         <v>164.8</v>
@@ -1742,7 +1742,7 @@
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>-106.32786229967738</v>
+        <v>-90.63854603046275</v>
       </c>
       <c r="B210" t="n">
         <v>165.60000000000002</v>
@@ -1750,7 +1750,7 @@
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>-106.03981015111458</v>
+        <v>-90.39441229348574</v>
       </c>
       <c r="B211" t="n">
         <v>166.4</v>
@@ -1758,7 +1758,7 @@
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>-105.74253094154872</v>
+        <v>-90.15095154510476</v>
       </c>
       <c r="B212" t="n">
         <v>167.20000000000002</v>
@@ -1766,7 +1766,7 @@
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>-105.43654028427835</v>
+        <v>-89.90815756700138</v>
       </c>
       <c r="B213" t="n">
         <v>168.0</v>
@@ -1774,7 +1774,7 @@
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>-105.12230636593421</v>
+        <v>-89.42454538377743</v>
       </c>
       <c r="B214" t="n">
         <v>168.8</v>
@@ -1782,7 +1782,7 @@
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>-104.80025465077509</v>
+        <v>-89.18371507399769</v>
       </c>
       <c r="B215" t="n">
         <v>169.60000000000002</v>
@@ -1790,7 +1790,7 @@
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>-104.47077203848565</v>
+        <v>-88.94352732293765</v>
       </c>
       <c r="B216" t="n">
         <v>170.4</v>
@@ -1798,7 +1798,7 @@
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>-104.13421054473838</v>
+        <v>-88.70397623753595</v>
       </c>
       <c r="B217" t="n">
         <v>171.20000000000002</v>
@@ -1806,7 +1806,7 @@
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>-103.79089056430126</v>
+        <v>-88.50420908201099</v>
       </c>
       <c r="B218" t="n">
         <v>172.0</v>
@@ -1814,7 +1814,7 @@
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>-103.44110376835283</v>
+        <v>-88.26605659357281</v>
       </c>
       <c r="B219" t="n">
         <v>172.8</v>
@@ -1822,7 +1822,7 @@
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>-103.08511568069608</v>
+        <v>-88.06748209275085</v>
       </c>
       <c r="B220" t="n">
         <v>173.60000000000002</v>
@@ -1830,7 +1830,7 @@
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>-102.72316797158359</v>
+        <v>-87.90748157706054</v>
       </c>
       <c r="B221" t="n">
         <v>174.4</v>
@@ -1838,7 +1838,7 @@
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>-102.3554805027373</v>
+        <v>-87.86932413856766</v>
       </c>
       <c r="B222" t="n">
         <v>175.20000000000002</v>
@@ -1846,7 +1846,7 @@
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>-101.98225315272299</v>
+        <v>-87.7094025160635</v>
       </c>
       <c r="B223" t="n">
         <v>176.0</v>
@@ -1854,7 +1854,7 @@
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>-101.60366744805256</v>
+        <v>-87.6214405226998</v>
       </c>
       <c r="B224" t="n">
         <v>176.8</v>
@@ -1862,7 +1862,7 @@
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>-101.21988802210072</v>
+        <v>-87.58533147334185</v>
       </c>
       <c r="B225" t="n">
         <v>177.60000000000002</v>
@@ -1870,7 +1870,7 @@
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>-110.2115938397366</v>
+        <v>-87.54875996592529</v>
       </c>
       <c r="B226" t="n">
         <v>178.4</v>
@@ -1878,7 +1878,7 @@
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>-110.76567893456004</v>
+        <v>-87.62832552349158</v>
       </c>
       <c r="B227" t="n">
         <v>179.20000000000002</v>
@@ -1886,7 +1886,7 @@
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>-111.32141797862573</v>
+        <v>-87.90557662284903</v>
       </c>
       <c r="B228" t="n">
         <v>180.0</v>
@@ -1894,7 +1894,7 @@
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>-111.87905617450582</v>
+        <v>-88.14701482299978</v>
       </c>
       <c r="B229" t="n">
         <v>180.8</v>
@@ -1902,7 +1902,7 @@
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>-112.43885559270169</v>
+        <v>-88.35346735936866</v>
       </c>
       <c r="B230" t="n">
         <v>181.60000000000002</v>
@@ -1910,7 +1910,7 @@
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>-113.00109725322798</v>
+        <v>-88.52576227146608</v>
       </c>
       <c r="B231" t="n">
         <v>182.4</v>
@@ -1918,7 +1918,7 @@
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>-113.56608349459484</v>
+        <v>-88.66472331011616</v>
       </c>
       <c r="B232" t="n">
         <v>183.20000000000002</v>
@@ -1926,7 +1926,7 @@
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>-114.13414067997141</v>
+        <v>-88.70377730783497</v>
       </c>
       <c r="B233" t="n">
         <v>184.0</v>
@@ -1934,7 +1934,7 @@
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>-114.70562230041196</v>
+        <v>-88.69115891722447</v>
       </c>
       <c r="B234" t="n">
         <v>184.8</v>
@@ -1942,7 +1942,7 @@
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>-115.28091254752295</v>
+        <v>-88.67814128703174</v>
       </c>
       <c r="B235" t="n">
         <v>185.60000000000002</v>
@@ -1950,7 +1950,7 @@
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>-115.86043044350251</v>
+        <v>-88.65090387728031</v>
       </c>
       <c r="B236" t="n">
         <v>186.4</v>
@@ -1958,7 +1958,7 @@
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>-116.4446346359623</v>
+        <v>-88.63668187733538</v>
       </c>
       <c r="B237" t="n">
         <v>187.20000000000002</v>
@@ -1966,7 +1966,7 @@
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>-117.03402898948852</v>
+        <v>-88.62205619716696</v>
       </c>
       <c r="B238" t="n">
         <v>188.0</v>
@@ -1974,7 +1974,7 @@
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>-117.62916913703182</v>
+        <v>-88.60702572180168</v>
       </c>
       <c r="B239" t="n">
         <v>188.8</v>
@@ -1982,7 +1982,7 @@
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>-118.2306701940025</v>
+        <v>-88.59158933447557</v>
       </c>
       <c r="B240" t="n">
         <v>189.60000000000002</v>
@@ -1990,7 +1990,7 @@
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>-118.83921588916306</v>
+        <v>-88.5757459167022</v>
       </c>
       <c r="B241" t="n">
         <v>190.4</v>
@@ -1998,7 +1998,7 @@
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>-119.45556943288659</v>
+        <v>-88.55949434834247</v>
       </c>
       <c r="B242" t="n">
         <v>191.20000000000002</v>
@@ -2006,7 +2006,7 @@
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>-120.0805865303856</v>
+        <v>-88.54283350767466</v>
       </c>
       <c r="B243" t="n">
         <v>192.0</v>
@@ -2014,7 +2014,7 @@
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>-120.71523106253898</v>
+        <v>-88.50827951504522</v>
       </c>
       <c r="B244" t="n">
         <v>192.8</v>
@@ -2022,7 +2022,7 @@
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>-121.36059411048208</v>
+        <v>-88.49038411237478</v>
       </c>
       <c r="B245" t="n">
         <v>193.60000000000002</v>
@@ -2030,7 +2030,7 @@
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>-122.01791720732334</v>
+        <v>-88.47207493612552</v>
       </c>
       <c r="B246" t="n">
         <v>194.4</v>
@@ -2038,7 +2038,7 @@
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>-122.68862098324269</v>
+        <v>-88.45335085775179</v>
       </c>
       <c r="B247" t="n">
         <v>195.20000000000002</v>
@@ -2046,7 +2046,7 @@
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>-123.37434076143919</v>
+        <v>-88.43421074756657</v>
       </c>
       <c r="B248" t="n">
         <v>196.0</v>
@@ -2054,7 +2054,7 @@
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>-124.07697121095865</v>
+        <v>-88.414653474819</v>
       </c>
       <c r="B249" t="n">
         <v>196.8</v>
@@ -2062,7 +2062,7 @@
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>-124.79872294343812</v>
+        <v>-88.39467790777164</v>
       </c>
       <c r="B250" t="n">
         <v>197.60000000000002</v>
@@ -2070,7 +2070,7 @@
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>-125.54219507148935</v>
+        <v>-88.37428291377938</v>
       </c>
       <c r="B251" t="n">
         <v>198.4</v>
@@ -2078,7 +2078,7 @@
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>-126.31046941391537</v>
+        <v>-88.33223011031839</v>
       </c>
       <c r="B252" t="n">
         <v>199.20000000000002</v>
@@ -2086,7 +2086,7 @@
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>-127.10723454307114</v>
+        <v>-88.31057003174107</v>
       </c>
       <c r="B253" t="n">
         <v>200.0</v>
@@ -2094,7 +2094,7 @@
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>-127.93695173603038</v>
+        <v>-88.28848598816546</v>
       </c>
       <c r="B254" t="n">
         <v>200.8</v>
@@ -2102,7 +2102,7 @@
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>-128.8050810025437</v>
+        <v>-88.26597684362005</v>
       </c>
       <c r="B255" t="n">
         <v>201.60000000000002</v>
@@ -2110,7 +2110,7 @@
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>-129.71839531013524</v>
+        <v>-88.24304146171662</v>
       </c>
       <c r="B256" t="n">
         <v>202.4</v>
@@ -2118,7 +2118,7 @@
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>-130.68542787099648</v>
+        <v>-88.2196787057365</v>
       </c>
       <c r="B257" t="n">
         <v>203.20000000000002</v>
@@ -2126,7 +2126,7 @@
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>-131.71712665795755</v>
+        <v>-88.19588743871594</v>
       </c>
       <c r="B258" t="n">
         <v>204.0</v>
@@ -2134,7 +2134,7 @@
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>-132.8278439858877</v>
+        <v>-88.17166652353387</v>
       </c>
       <c r="B259" t="n">
         <v>204.8</v>
@@ -2142,7 +2142,7 @@
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>-134.03689276350042</v>
+        <v>-88.12193119994265</v>
       </c>
       <c r="B260" t="n">
         <v>205.60000000000002</v>
@@ -2150,7 +2150,7 @@
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>-135.37111526468152</v>
+        <v>-88.0964145173013</v>
       </c>
       <c r="B261" t="n">
         <v>206.4</v>
@@ -2158,7 +2158,7 @@
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>-136.8693901101617</v>
+        <v>-88.07046363821524</v>
       </c>
       <c r="B262" t="n">
         <v>207.20000000000002</v>
@@ -2166,7 +2166,7 @@
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>-138.59119574792606</v>
+        <v>-88.04407742611679</v>
       </c>
       <c r="B263" t="n">
         <v>208.0</v>
@@ -2174,7 +2174,7 @@
     </row>
     <row r="264">
       <c r="A264" t="n">
-        <v>-140.63475472461474</v>
+        <v>-88.01725474482373</v>
       </c>
       <c r="B264" t="n">
         <v>208.8</v>
@@ -2182,7 +2182,7 @@
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>-143.1821408090114</v>
+        <v>-87.98999445863365</v>
       </c>
       <c r="B265" t="n">
         <v>209.60000000000002</v>
@@ -2190,7 +2190,7 @@
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>-146.6453836256033</v>
+        <v>-87.96229543241853</v>
       </c>
       <c r="B266" t="n">
         <v>210.4</v>
@@ -2198,175 +2198,175 @@
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>-152.51876813468613</v>
+        <v>-87.93415653172042</v>
       </c>
       <c r="B267" t="n">
         <v>211.20000000000002</v>
       </c>
     </row>
     <row r="268">
-      <c r="A268" t="e">
-        <v>#NUM!</v>
+      <c r="A268" t="n">
+        <v>-87.87655457297848</v>
       </c>
       <c r="B268" t="n">
         <v>212.0</v>
       </c>
     </row>
     <row r="269">
-      <c r="A269" t="e">
-        <v>#NUM!</v>
+      <c r="A269" t="n">
+        <v>-87.84708925024682</v>
       </c>
       <c r="B269" t="n">
         <v>212.8</v>
       </c>
     </row>
     <row r="270">
-      <c r="A270" t="e">
-        <v>#NUM!</v>
+      <c r="A270" t="n">
+        <v>-87.81717952385532</v>
       </c>
       <c r="B270" t="n">
         <v>213.60000000000002</v>
       </c>
     </row>
     <row r="271">
-      <c r="A271" t="e">
-        <v>#NUM!</v>
+      <c r="A271" t="n">
+        <v>-87.7868242641697</v>
       </c>
       <c r="B271" t="n">
         <v>214.4</v>
       </c>
     </row>
     <row r="272">
-      <c r="A272" t="e">
-        <v>#NUM!</v>
+      <c r="A272" t="n">
+        <v>-87.75602234282093</v>
       </c>
       <c r="B272" t="n">
         <v>215.20000000000002</v>
       </c>
     </row>
     <row r="273">
-      <c r="A273" t="e">
-        <v>#NUM!</v>
+      <c r="A273" t="n">
+        <v>-87.72477263280854</v>
       </c>
       <c r="B273" t="n">
         <v>216.0</v>
       </c>
     </row>
     <row r="274">
-      <c r="A274" t="e">
-        <v>#NUM!</v>
+      <c r="A274" t="n">
+        <v>-87.69307400860407</v>
       </c>
       <c r="B274" t="n">
         <v>216.8</v>
       </c>
     </row>
     <row r="275">
-      <c r="A275" t="e">
-        <v>#NUM!</v>
+      <c r="A275" t="n">
+        <v>-87.66092534625508</v>
       </c>
       <c r="B275" t="n">
         <v>217.60000000000002</v>
       </c>
     </row>
     <row r="276">
-      <c r="A276" t="e">
-        <v>#NUM!</v>
+      <c r="A276" t="n">
+        <v>-87.59527341983159</v>
       </c>
       <c r="B276" t="n">
         <v>218.4</v>
       </c>
     </row>
     <row r="277">
-      <c r="A277" t="e">
-        <v>#NUM!</v>
+      <c r="A277" t="n">
+        <v>-87.56176791668878</v>
       </c>
       <c r="B277" t="n">
         <v>219.20000000000002</v>
       </c>
     </row>
     <row r="278">
-      <c r="A278" t="e">
-        <v>#NUM!</v>
+      <c r="A278" t="n">
+        <v>-87.52780789748107</v>
       </c>
       <c r="B278" t="n">
         <v>220.0</v>
       </c>
     </row>
     <row r="279">
-      <c r="A279" t="e">
-        <v>#NUM!</v>
+      <c r="A279" t="n">
+        <v>-87.49339224773962</v>
       </c>
       <c r="B279" t="n">
         <v>220.8</v>
       </c>
     </row>
     <row r="280">
-      <c r="A280" t="e">
-        <v>#NUM!</v>
+      <c r="A280" t="n">
+        <v>-87.45851985521912</v>
       </c>
       <c r="B280" t="n">
         <v>221.60000000000002</v>
       </c>
     </row>
     <row r="281">
-      <c r="A281" t="e">
-        <v>#NUM!</v>
+      <c r="A281" t="n">
+        <v>-87.42318961000893</v>
       </c>
       <c r="B281" t="n">
         <v>222.4</v>
       </c>
     </row>
     <row r="282">
-      <c r="A282" t="e">
-        <v>#NUM!</v>
+      <c r="A282" t="n">
+        <v>-85.18328306058078</v>
       </c>
       <c r="B282" t="n">
         <v>223.20000000000002</v>
       </c>
     </row>
     <row r="283">
-      <c r="A283" t="e">
-        <v>#NUM!</v>
+      <c r="A283" t="n">
+        <v>-84.95316457159157</v>
       </c>
       <c r="B283" t="n">
         <v>224.0</v>
       </c>
     </row>
     <row r="284">
-      <c r="A284" t="e">
-        <v>#NUM!</v>
+      <c r="A284" t="n">
+        <v>-84.72359123105957</v>
       </c>
       <c r="B284" t="n">
         <v>224.8</v>
       </c>
     </row>
     <row r="285">
-      <c r="A285" t="e">
-        <v>#NUM!</v>
+      <c r="A285" t="n">
+        <v>-84.49455811485291</v>
       </c>
       <c r="B285" t="n">
         <v>225.60000000000002</v>
       </c>
     </row>
     <row r="286">
-      <c r="A286" t="e">
-        <v>#NUM!</v>
+      <c r="A286" t="n">
+        <v>-84.26606034479096</v>
       </c>
       <c r="B286" t="n">
         <v>226.4</v>
       </c>
     </row>
     <row r="287">
-      <c r="A287" t="e">
-        <v>#NUM!</v>
+      <c r="A287" t="n">
+        <v>-84.0380930879187</v>
       </c>
       <c r="B287" t="n">
         <v>227.20000000000002</v>
       </c>
     </row>
     <row r="288">
-      <c r="A288" t="e">
-        <v>#NUM!</v>
+      <c r="A288" t="n">
+        <v>-83.81065155579404</v>
       </c>
       <c r="B288" t="n">
         <v>228.0</v>
@@ -2374,7 +2374,7 @@
     </row>
     <row r="289">
       <c r="A289" t="n">
-        <v>-86.70828228871034</v>
+        <v>-83.58373100378876</v>
       </c>
       <c r="B289" t="n">
         <v>228.8</v>
@@ -2382,7 +2382,7 @@
     </row>
     <row r="290">
       <c r="A290" t="n">
-        <v>-76.21019768921784</v>
+        <v>-83.13143407658549</v>
       </c>
       <c r="B290" t="n">
         <v>229.60000000000002</v>
@@ -2390,135 +2390,135 @@
     </row>
     <row r="291">
       <c r="A291" t="n">
-        <v>-93.13010235415598</v>
+        <v>-82.90604842508372</v>
       </c>
       <c r="B291" t="n">
         <v>230.4</v>
       </c>
     </row>
     <row r="292">
-      <c r="A292" t="e">
-        <v>#NUM!</v>
+      <c r="A292" t="n">
+        <v>-82.68116519978219</v>
       </c>
       <c r="B292" t="n">
         <v>231.20000000000002</v>
       </c>
     </row>
     <row r="293">
-      <c r="A293" t="e">
-        <v>#NUM!</v>
+      <c r="A293" t="n">
+        <v>-82.45677986506982</v>
       </c>
       <c r="B293" t="n">
         <v>232.0</v>
       </c>
     </row>
     <row r="294">
-      <c r="A294" t="e">
-        <v>#NUM!</v>
+      <c r="A294" t="n">
+        <v>-82.23288792521225</v>
       </c>
       <c r="B294" t="n">
         <v>232.8</v>
       </c>
     </row>
     <row r="295">
-      <c r="A295" t="e">
-        <v>#NUM!</v>
+      <c r="A295" t="n">
+        <v>-82.00948492373612</v>
       </c>
       <c r="B295" t="n">
         <v>233.60000000000002</v>
       </c>
     </row>
     <row r="296">
-      <c r="A296" t="e">
-        <v>#NUM!</v>
+      <c r="A296" t="n">
+        <v>-81.7865664428233</v>
       </c>
       <c r="B296" t="n">
         <v>234.4</v>
       </c>
     </row>
     <row r="297">
-      <c r="A297" t="e">
-        <v>#NUM!</v>
+      <c r="A297" t="n">
+        <v>-81.56412810271718</v>
       </c>
       <c r="B297" t="n">
         <v>235.20000000000002</v>
       </c>
     </row>
     <row r="298">
-      <c r="A298" t="e">
-        <v>#NUM!</v>
+      <c r="A298" t="n">
+        <v>-81.70876115724025</v>
       </c>
       <c r="B298" t="n">
         <v>236.0</v>
       </c>
     </row>
     <row r="299">
-      <c r="A299" t="e">
-        <v>#NUM!</v>
+      <c r="A299" t="n">
+        <v>-81.66975623534574</v>
       </c>
       <c r="B299" t="n">
         <v>236.8</v>
       </c>
     </row>
     <row r="300">
-      <c r="A300" t="e">
-        <v>#NUM!</v>
+      <c r="A300" t="n">
+        <v>-81.63032113319036</v>
       </c>
       <c r="B300" t="n">
         <v>237.60000000000002</v>
       </c>
     </row>
     <row r="301">
-      <c r="A301" t="e">
-        <v>#NUM!</v>
+      <c r="A301" t="n">
+        <v>-81.5904550738855</v>
       </c>
       <c r="B301" t="n">
         <v>238.4</v>
       </c>
     </row>
     <row r="302">
-      <c r="A302" t="e">
-        <v>#NUM!</v>
+      <c r="A302" t="n">
+        <v>-81.55015728401617</v>
       </c>
       <c r="B302" t="n">
         <v>239.20000000000002</v>
       </c>
     </row>
     <row r="303">
-      <c r="A303" t="e">
-        <v>#NUM!</v>
+      <c r="A303" t="n">
+        <v>-81.50942699373064</v>
       </c>
       <c r="B303" t="n">
         <v>240.0</v>
       </c>
     </row>
     <row r="304">
-      <c r="A304" t="e">
-        <v>#NUM!</v>
+      <c r="A304" t="n">
+        <v>-81.4682634368298</v>
       </c>
       <c r="B304" t="n">
         <v>240.8</v>
       </c>
     </row>
     <row r="305">
-      <c r="A305" t="e">
-        <v>#NUM!</v>
+      <c r="A305" t="n">
+        <v>-81.42666585085806</v>
       </c>
       <c r="B305" t="n">
         <v>241.60000000000002</v>
       </c>
     </row>
     <row r="306">
-      <c r="A306" t="e">
-        <v>#NUM!</v>
+      <c r="A306" t="n">
+        <v>-81.38463347719309</v>
       </c>
       <c r="B306" t="n">
         <v>242.4</v>
       </c>
     </row>
     <row r="307">
-      <c r="A307" t="e">
-        <v>#NUM!</v>
+      <c r="A307" t="n">
+        <v>-81.34216556113785</v>
       </c>
       <c r="B307" t="n">
         <v>243.20000000000002</v>
@@ -2526,7 +2526,7 @@
     </row>
     <row r="308">
       <c r="A308" t="n">
-        <v>53.13010235415598</v>
+        <v>99.31377479448577</v>
       </c>
       <c r="B308" t="n">
         <v>243.20000000000002</v>
@@ -2534,7 +2534,7 @@
     </row>
     <row r="309">
       <c r="A309" t="n">
-        <v>51.13335950111403</v>
+        <v>99.54460988799326</v>
       </c>
       <c r="B309" t="n">
         <v>242.4</v>
@@ -2542,7 +2542,7 @@
     </row>
     <row r="310">
       <c r="A310" t="n">
-        <v>49.2384888418093</v>
+        <v>99.77626890317902</v>
       </c>
       <c r="B310" t="n">
         <v>241.60000000000002</v>
@@ -2550,7 +2550,7 @@
     </row>
     <row r="311">
       <c r="A311" t="n">
-        <v>47.44866271600404</v>
+        <v>100.00876723358743</v>
       </c>
       <c r="B311" t="n">
         <v>240.8</v>
@@ -2558,7 +2558,7 @@
     </row>
     <row r="312">
       <c r="A312" t="n">
-        <v>45.765692932347804</v>
+        <v>100.24212068848078</v>
       </c>
       <c r="B312" t="n">
         <v>240.0</v>
@@ -2566,7 +2566,7 @@
     </row>
     <row r="313">
       <c r="A313" t="n">
-        <v>44.19009224584801</v>
+        <v>100.47634550885533</v>
       </c>
       <c r="B313" t="n">
         <v>239.20000000000002</v>
@@ -2574,7 +2574,7 @@
     </row>
     <row r="314">
       <c r="A314" t="n">
-        <v>42.721180515953364</v>
+        <v>100.7114583842598</v>
       </c>
       <c r="B314" t="n">
         <v>238.4</v>
@@ -2582,7 +2582,7 @@
     </row>
     <row r="315">
       <c r="A315" t="n">
-        <v>41.35722413674017</v>
+        <v>100.94747647046495</v>
       </c>
       <c r="B315" t="n">
         <v>237.60000000000002</v>
@@ -2590,7 +2590,7 @@
     </row>
     <row r="316">
       <c r="A316" t="n">
-        <v>40.09559627809455</v>
+        <v>101.18441740803769</v>
       </c>
       <c r="B316" t="n">
         <v>236.8</v>
@@ -2598,7 +2598,7 @@
     </row>
     <row r="317">
       <c r="A317" t="n">
-        <v>38.9329459098137</v>
+        <v>101.42229934187708</v>
       </c>
       <c r="B317" t="n">
         <v>236.0</v>
@@ -2606,7 +2606,7 @@
     </row>
     <row r="318">
       <c r="A318" t="n">
-        <v>37.865365151040294</v>
+        <v>99.2340688587417</v>
       </c>
       <c r="B318" t="n">
         <v>235.20000000000002</v>
@@ -2614,7 +2614,7 @@
     </row>
     <row r="319">
       <c r="A319" t="n">
-        <v>36.88854674288433</v>
+        <v>99.15503619135166</v>
       </c>
       <c r="B319" t="n">
         <v>234.4</v>
@@ -2622,7 +2622,7 @@
     </row>
     <row r="320">
       <c r="A320" t="n">
-        <v>35.99792593850742</v>
+        <v>99.07667064068005</v>
       </c>
       <c r="B320" t="n">
         <v>233.60000000000002</v>
@@ -2630,7 +2630,7 @@
     </row>
     <row r="321">
       <c r="A321" t="n">
-        <v>35.18880348550772</v>
+        <v>98.9989661813849</v>
       </c>
       <c r="B321" t="n">
         <v>232.8</v>
@@ -2638,7 +2638,7 @@
     </row>
     <row r="322">
       <c r="A322" t="n">
-        <v>34.45644840597427</v>
+        <v>98.92191691101391</v>
       </c>
       <c r="B322" t="n">
         <v>232.0</v>
@@ -2646,7 +2646,7 @@
     </row>
     <row r="323">
       <c r="A323" t="n">
-        <v>33.79618084730214</v>
+        <v>98.84551704671645</v>
       </c>
       <c r="B323" t="n">
         <v>231.20000000000002</v>
@@ -2654,7 +2654,7 @@
     </row>
     <row r="324">
       <c r="A324" t="n">
-        <v>33.20343636617832</v>
+        <v>98.769760922069</v>
       </c>
       <c r="B324" t="n">
         <v>230.4</v>
@@ -2662,7 +2662,7 @@
     </row>
     <row r="325">
       <c r="A325" t="n">
-        <v>32.673813667807025</v>
+        <v>98.69464298400788</v>
       </c>
       <c r="B325" t="n">
         <v>229.60000000000002</v>
@@ -2670,7 +2670,7 @@
     </row>
     <row r="326">
       <c r="A326" t="n">
-        <v>35.16477676630467</v>
+        <v>98.54630000450226</v>
       </c>
       <c r="B326" t="n">
         <v>228.8</v>
@@ -2678,7 +2678,7 @@
     </row>
     <row r="327">
       <c r="A327" t="n">
-        <v>37.548094719444634</v>
+        <v>98.47306439754283</v>
       </c>
       <c r="B327" t="n">
         <v>228.0</v>
@@ -2686,7 +2686,7 @@
     </row>
     <row r="328">
       <c r="A328" t="n">
-        <v>39.831788433381234</v>
+        <v>98.40044584069096</v>
       </c>
       <c r="B328" t="n">
         <v>227.20000000000002</v>
@@ -2694,7 +2694,7 @@
     </row>
     <row r="329">
       <c r="A329" t="n">
-        <v>42.02313401571641</v>
+        <v>98.32843930514127</v>
       </c>
       <c r="B329" t="n">
         <v>226.4</v>
@@ -2702,7 +2702,7 @@
     </row>
     <row r="330">
       <c r="A330" t="n">
-        <v>44.12874913963179</v>
+        <v>98.25703985907086</v>
       </c>
       <c r="B330" t="n">
         <v>225.60000000000002</v>
@@ -2710,7 +2710,7 @@
     </row>
     <row r="331">
       <c r="A331" t="n">
-        <v>46.15466658330507</v>
+        <v>98.18624266521357</v>
       </c>
       <c r="B331" t="n">
         <v>224.8</v>
@@ -2718,7 +2718,7 @@
     </row>
     <row r="332">
       <c r="A332" t="n">
-        <v>48.10639747058565</v>
+        <v>98.11604297851005</v>
       </c>
       <c r="B332" t="n">
         <v>224.0</v>
@@ -2726,7 +2726,7 @@
     </row>
     <row r="333">
       <c r="A333" t="n">
-        <v>49.98898609600755</v>
+        <v>98.04643614383372</v>
       </c>
       <c r="B333" t="n">
         <v>223.20000000000002</v>
@@ -2734,7 +2734,7 @@
     </row>
     <row r="334">
       <c r="A334" t="n">
-        <v>51.80705777016277</v>
+        <v>99.75018347469756</v>
       </c>
       <c r="B334" t="n">
         <v>222.4</v>
@@ -2742,7 +2742,7 @@
     </row>
     <row r="335">
       <c r="A335" t="n">
-        <v>53.564860803675174</v>
+        <v>99.97801447071026</v>
       </c>
       <c r="B335" t="n">
         <v>221.60000000000002</v>
@@ -2750,7 +2750,7 @@
     </row>
     <row r="336">
       <c r="A336" t="n">
-        <v>55.2663035171789</v>
+        <v>100.20659621251912</v>
       </c>
       <c r="B336" t="n">
         <v>220.8</v>
@@ -2758,7 +2758,7 @@
     </row>
     <row r="337">
       <c r="A337" t="n">
-        <v>56.91498699345544</v>
+        <v>100.43594231902034</v>
       </c>
       <c r="B337" t="n">
         <v>220.0</v>
@@ -2766,7 +2766,7 @@
     </row>
     <row r="338">
       <c r="A338" t="n">
-        <v>58.51423415824394</v>
+        <v>100.66606675569523</v>
       </c>
       <c r="B338" t="n">
         <v>219.20000000000002</v>
@@ -2774,7 +2774,7 @@
     </row>
     <row r="339">
       <c r="A339" t="n">
-        <v>60.06711567620667</v>
+        <v>100.89698384725455</v>
       </c>
       <c r="B339" t="n">
         <v>218.4</v>
@@ -2782,7 +2782,7 @@
     </row>
     <row r="340">
       <c r="A340" t="n">
-        <v>61.57647306996785</v>
+        <v>101.361255170101</v>
       </c>
       <c r="B340" t="n">
         <v>217.60000000000002</v>
@@ -2790,7 +2790,7 @@
     </row>
     <row r="341">
       <c r="A341" t="n">
-        <v>63.04493940744311</v>
+        <v>101.5946399693388</v>
       </c>
       <c r="B341" t="n">
         <v>216.8</v>
@@ -2798,7 +2798,7 @@
     </row>
     <row r="342">
       <c r="A342" t="n">
-        <v>64.47495785190205</v>
+        <v>101.82887858916627</v>
       </c>
       <c r="B342" t="n">
         <v>216.0</v>
@@ -2806,7 +2806,7 @@
     </row>
     <row r="343">
       <c r="A343" t="n">
-        <v>65.86879832757191</v>
+        <v>102.0639873623179</v>
       </c>
       <c r="B343" t="n">
         <v>215.20000000000002</v>
@@ -2814,7 +2814,7 @@
     </row>
     <row r="344">
       <c r="A344" t="n">
-        <v>67.22857251906115</v>
+        <v>102.29998307050141</v>
       </c>
       <c r="B344" t="n">
         <v>214.4</v>
@@ -2822,7 +2822,7 @@
     </row>
     <row r="345">
       <c r="A345" t="n">
-        <v>68.5562473939739</v>
+        <v>102.53688296205712</v>
       </c>
       <c r="B345" t="n">
         <v>213.60000000000002</v>
@@ -2830,7 +2830,7 @@
     </row>
     <row r="346">
       <c r="A346" t="n">
-        <v>69.8536574136831</v>
+        <v>102.77470477052071</v>
       </c>
       <c r="B346" t="n">
         <v>212.8</v>
@@ -2838,7 +2838,7 @@
     </row>
     <row r="347">
       <c r="A347" t="n">
-        <v>71.12251557648324</v>
+        <v>103.01346673414434</v>
       </c>
       <c r="B347" t="n">
         <v>212.0</v>
@@ -2846,7 +2846,7 @@
     </row>
     <row r="348">
       <c r="A348" t="n">
-        <v>72.36442341959594</v>
+        <v>103.49388672779742</v>
       </c>
       <c r="B348" t="n">
         <v>211.20000000000002</v>
@@ -2854,7 +2854,7 @@
     </row>
     <row r="349">
       <c r="A349" t="n">
-        <v>73.58088009125015</v>
+        <v>103.73558394828808</v>
       </c>
       <c r="B349" t="n">
         <v>210.4</v>
@@ -2862,7 +2862,7 @@
     </row>
     <row r="350">
       <c r="A350" t="n">
-        <v>74.77329059087694</v>
+        <v>103.97829975166405</v>
       </c>
       <c r="B350" t="n">
         <v>209.60000000000002</v>
@@ -2870,7 +2870,7 @@
     </row>
     <row r="351">
       <c r="A351" t="n">
-        <v>75.94297326404416</v>
+        <v>104.2220552307021</v>
       </c>
       <c r="B351" t="n">
         <v>208.8</v>
@@ -2878,7 +2878,7 @@
     </row>
     <row r="352">
       <c r="A352" t="n">
-        <v>77.09116662881797</v>
+        <v>104.46687212394124</v>
       </c>
       <c r="B352" t="n">
         <v>208.0</v>
@@ -2886,7 +2886,7 @@
     </row>
     <row r="353">
       <c r="A353" t="n">
-        <v>78.21903560157466</v>
+        <v>104.71277284392482</v>
       </c>
       <c r="B353" t="n">
         <v>207.20000000000002</v>
@@ -2894,7 +2894,7 @@
     </row>
     <row r="354">
       <c r="A354" t="n">
-        <v>79.3276771827073</v>
+        <v>104.95978050704718</v>
       </c>
       <c r="B354" t="n">
         <v>206.4</v>
@@ -2902,7 +2902,7 @@
     </row>
     <row r="355">
       <c r="A355" t="n">
-        <v>80.4181256560309</v>
+        <v>105.20791896512083</v>
       </c>
       <c r="B355" t="n">
         <v>205.60000000000002</v>
@@ -2910,7 +2910,7 @@
     </row>
     <row r="356">
       <c r="A356" t="n">
-        <v>81.4913573498518</v>
+        <v>105.70768755288344</v>
       </c>
       <c r="B356" t="n">
         <v>204.8</v>
@@ -2918,7 +2918,7 @@
     </row>
     <row r="357">
       <c r="A357" t="n">
-        <v>82.54829500253845</v>
+        <v>105.95936937397602</v>
       </c>
       <c r="B357" t="n">
         <v>204.0</v>
@@ -2926,7 +2926,7 @@
     </row>
     <row r="358">
       <c r="A358" t="n">
-        <v>83.58981177090226</v>
+        <v>106.21228545010564</v>
       </c>
       <c r="B358" t="n">
         <v>203.20000000000002</v>
@@ -2934,7 +2934,7 @@
     </row>
     <row r="359">
       <c r="A359" t="n">
-        <v>84.61673491570525</v>
+        <v>106.4664638530279</v>
       </c>
       <c r="B359" t="n">
         <v>202.4</v>
@@ -2942,7 +2942,7 @@
     </row>
     <row r="360">
       <c r="A360" t="n">
-        <v>85.62984919508273</v>
+        <v>106.72193362306814</v>
       </c>
       <c r="B360" t="n">
         <v>201.60000000000002</v>
@@ -2950,7 +2950,7 @@
     </row>
     <row r="361">
       <c r="A361" t="n">
-        <v>86.62989999354267</v>
+        <v>106.97872481681583</v>
       </c>
       <c r="B361" t="n">
         <v>200.8</v>
@@ -2958,7 +2958,7 @@
     </row>
     <row r="362">
       <c r="A362" t="n">
-        <v>87.61759621144154</v>
+        <v>107.23686855787946</v>
       </c>
       <c r="B362" t="n">
         <v>200.0</v>
@@ -2966,7 +2966,7 @@
     </row>
     <row r="363">
       <c r="A363" t="n">
-        <v>88.59361293737851</v>
+        <v>107.4963970909414</v>
       </c>
       <c r="B363" t="n">
         <v>199.20000000000002</v>
@@ -2974,7 +2974,7 @@
     </row>
     <row r="364">
       <c r="A364" t="n">
-        <v>89.55859392377704</v>
+        <v>108.01974346677753</v>
       </c>
       <c r="B364" t="n">
         <v>198.4</v>
@@ -2982,7 +2982,7 @@
     </row>
     <row r="365">
       <c r="A365" t="n">
-        <v>90.51315388398973</v>
+        <v>108.28363194254149</v>
       </c>
       <c r="B365" t="n">
         <v>197.60000000000002</v>
@@ -2990,7 +2990,7 @@
     </row>
     <row r="366">
       <c r="A366" t="n">
-        <v>91.45788062754582</v>
+        <v>108.54904661215312</v>
       </c>
       <c r="B366" t="n">
         <v>196.8</v>
@@ -2998,7 +2998,7 @@
     </row>
     <row r="367">
       <c r="A367" t="n">
-        <v>92.39333704863776</v>
+        <v>108.81602627226772</v>
       </c>
       <c r="B367" t="n">
         <v>196.0</v>
@@ -3006,7 +3006,7 @@
     </row>
     <row r="368">
       <c r="A368" t="n">
-        <v>93.32006298159047</v>
+        <v>109.0846112511959</v>
       </c>
       <c r="B368" t="n">
         <v>195.20000000000002</v>
@@ -3014,7 +3014,7 @@
     </row>
     <row r="369">
       <c r="A369" t="n">
-        <v>94.2385769358549</v>
+        <v>109.35484349520266</v>
       </c>
       <c r="B369" t="n">
         <v>194.4</v>
@@ -3022,7 +3022,7 @@
     </row>
     <row r="370">
       <c r="A370" t="n">
-        <v>95.14937772200523</v>
+        <v>109.62676666115527</v>
       </c>
       <c r="B370" t="n">
         <v>193.60000000000002</v>
@@ -3030,7 +3030,7 @@
     </row>
     <row r="371">
       <c r="A371" t="n">
-        <v>96.05294597927502</v>
+        <v>109.90042621609797</v>
       </c>
       <c r="B371" t="n">
         <v>192.8</v>
@@ -3038,7 +3038,7 @@
     </row>
     <row r="372">
       <c r="A372" t="n">
-        <v>96.94974561433975</v>
+        <v>110.4531460631801</v>
       </c>
       <c r="B372" t="n">
         <v>192.0</v>
@@ -3046,7 +3046,7 @@
     </row>
     <row r="373">
       <c r="A373" t="n">
-        <v>97.84022516031837</v>
+        <v>110.73230734683688</v>
       </c>
       <c r="B373" t="n">
         <v>191.20000000000002</v>
@@ -3054,7 +3054,7 @@
     </row>
     <row r="374">
       <c r="A374" t="n">
-        <v>98.72481906433165</v>
+        <v>111.0134072615217</v>
       </c>
       <c r="B374" t="n">
         <v>190.4</v>
@@ -3062,7 +3062,7 @@
     </row>
     <row r="375">
       <c r="A375" t="n">
-        <v>99.60394891139629</v>
+        <v>111.2965021105984</v>
       </c>
       <c r="B375" t="n">
         <v>189.60000000000002</v>
@@ -3070,7 +3070,7 @@
     </row>
     <row r="376">
       <c r="A376" t="n">
-        <v>100.47802459195742</v>
+        <v>111.58165079217122</v>
       </c>
       <c r="B376" t="n">
         <v>188.8</v>
@@ -3078,7 +3078,7 @@
     </row>
     <row r="377">
       <c r="A377" t="n">
-        <v>101.3474454199594</v>
+        <v>111.86891496994161</v>
       </c>
       <c r="B377" t="n">
         <v>188.0</v>
@@ -3086,7 +3086,7 @@
     </row>
     <row r="378">
       <c r="A378" t="n">
-        <v>102.21260120801543</v>
+        <v>112.15835925879281</v>
       </c>
       <c r="B378" t="n">
         <v>187.20000000000002</v>
@@ -3094,7 +3094,7 @@
     </row>
     <row r="379">
       <c r="A379" t="n">
-        <v>103.0738733059697</v>
+        <v>112.45005142668731</v>
       </c>
       <c r="B379" t="n">
         <v>186.4</v>
@@ -3102,7 +3102,7 @@
     </row>
     <row r="380">
       <c r="A380" t="n">
-        <v>103.93163560893777</v>
+        <v>113.04046757693675</v>
       </c>
       <c r="B380" t="n">
         <v>185.60000000000002</v>
@@ -3110,7 +3110,7 @@
     </row>
     <row r="381">
       <c r="A381" t="n">
-        <v>104.78625554076814</v>
+        <v>113.33934494345766</v>
       </c>
       <c r="B381" t="n">
         <v>184.8</v>
@@ -3118,7 +3118,7 @@
     </row>
     <row r="382">
       <c r="A382" t="n">
-        <v>105.63809501879035</v>
+        <v>113.6407775074394</v>
       </c>
       <c r="B382" t="n">
         <v>184.0</v>
@@ -3126,7 +3126,7 @@
     </row>
     <row r="383">
       <c r="A383" t="n">
-        <v>106.48751140569595</v>
+        <v>112.7440626146606</v>
       </c>
       <c r="B383" t="n">
         <v>183.20000000000002</v>
@@ -3134,7 +3134,7 @@
     </row>
     <row r="384">
       <c r="A384" t="n">
-        <v>107.3348584544554</v>
+        <v>110.17586954439855</v>
       </c>
       <c r="B384" t="n">
         <v>182.4</v>
@@ -3142,7 +3142,7 @@
     </row>
     <row r="385">
       <c r="A385" t="n">
-        <v>108.18048725229323</v>
+        <v>107.75734383938465</v>
       </c>
       <c r="B385" t="n">
         <v>181.60000000000002</v>
@@ -3150,7 +3150,7 @@
     </row>
     <row r="386">
       <c r="A386" t="n">
-        <v>109.02474716994652</v>
+        <v>105.4572128387839</v>
       </c>
       <c r="B386" t="n">
         <v>180.8</v>
@@ -3158,7 +3158,7 @@
     </row>
     <row r="387">
       <c r="A387" t="n">
-        <v>109.86798682271245</v>
+        <v>103.25318761643808</v>
       </c>
       <c r="B387" t="n">
         <v>180.0</v>
@@ -3166,7 +3166,7 @@
     </row>
     <row r="388">
       <c r="A388" t="n">
-        <v>110.71055505016949</v>
+        <v>101.1287082908803</v>
       </c>
       <c r="B388" t="n">
         <v>179.20000000000002</v>
@@ -3174,7 +3174,7 @@
     </row>
     <row r="389">
       <c r="A389" t="n">
-        <v>111.55280192193607</v>
+        <v>99.00416750631791</v>
       </c>
       <c r="B389" t="n">
         <v>178.4</v>
@@ -3182,7 +3182,7 @@
     </row>
     <row r="390">
       <c r="A390" t="n">
-        <v>108.5346905545731</v>
+        <v>99.22945053725374</v>
       </c>
       <c r="B390" t="n">
         <v>177.60000000000002</v>
@@ -3190,7 +3190,7 @@
     </row>
     <row r="391">
       <c r="A391" t="n">
-        <v>107.65968020709727</v>
+        <v>99.45543816965142</v>
       </c>
       <c r="B391" t="n">
         <v>176.8</v>
@@ -3198,7 +3198,7 @@
     </row>
     <row r="392">
       <c r="A392" t="n">
-        <v>106.7841893557623</v>
+        <v>98.49007078563426</v>
       </c>
       <c r="B392" t="n">
         <v>176.0</v>
@@ -3206,7 +3206,7 @@
     </row>
     <row r="393">
       <c r="A393" t="n">
-        <v>105.90785881719631</v>
+        <v>97.98059168258135</v>
       </c>
       <c r="B393" t="n">
         <v>175.20000000000002</v>
@@ -3214,7 +3214,7 @@
     </row>
     <row r="394">
       <c r="A394" t="n">
-        <v>105.03033188653865</v>
+        <v>98.20249530929232</v>
       </c>
       <c r="B394" t="n">
         <v>174.4</v>
@@ -3222,7 +3222,7 @@
     </row>
     <row r="395">
       <c r="A395" t="n">
-        <v>104.15125334297636</v>
+        <v>97.69585965711019</v>
       </c>
       <c r="B395" t="n">
         <v>173.60000000000002</v>
@@ -3230,7 +3230,7 @@
     </row>
     <row r="396">
       <c r="A396" t="n">
-        <v>103.27026849487521</v>
+        <v>97.41293683515386</v>
       </c>
       <c r="B396" t="n">
         <v>172.8</v>
@@ -3238,7 +3238,7 @@
     </row>
     <row r="397">
       <c r="A397" t="n">
-        <v>102.38702225717395</v>
+        <v>97.35087939944424</v>
       </c>
       <c r="B397" t="n">
         <v>172.0</v>
@@ -3246,7 +3246,7 @@
     </row>
     <row r="398">
       <c r="A398" t="n">
-        <v>101.5011582543973</v>
+        <v>97.07056170727702</v>
       </c>
       <c r="B398" t="n">
         <v>171.20000000000002</v>
@@ -3254,7 +3254,7 @@
     </row>
     <row r="399">
       <c r="A399" t="n">
-        <v>100.61231794320332</v>
+        <v>97.00987299070698</v>
       </c>
       <c r="B399" t="n">
         <v>170.4</v>
@@ -3262,7 +3262,7 @@
     </row>
     <row r="400">
       <c r="A400" t="n">
-        <v>99.7201397488679</v>
+        <v>96.94970985377648</v>
       </c>
       <c r="B400" t="n">
         <v>169.60000000000002</v>
@@ -3270,7 +3270,7 @@
     </row>
     <row r="401">
       <c r="A401" t="n">
-        <v>98.82425821049492</v>
+        <v>96.8900689413091</v>
       </c>
       <c r="B401" t="n">
         <v>168.8</v>
@@ -3278,7 +3278,7 @@
     </row>
     <row r="402">
       <c r="A402" t="n">
-        <v>97.92430313007509</v>
+        <v>96.7723406563955</v>
       </c>
       <c r="B402" t="n">
         <v>168.0</v>
@@ -3286,7 +3286,7 @@
     </row>
     <row r="403">
       <c r="A403" t="n">
-        <v>97.01989872077849</v>
+        <v>96.71424685722405</v>
       </c>
       <c r="B403" t="n">
         <v>167.20000000000002</v>
@@ -3294,7 +3294,7 @@
     </row>
     <row r="404">
       <c r="A404" t="n">
-        <v>96.11066275008187</v>
+        <v>96.65666242667118</v>
       </c>
       <c r="B404" t="n">
         <v>166.4</v>
@@ -3302,7 +3302,7 @@
     </row>
     <row r="405">
       <c r="A405" t="n">
-        <v>95.19620567350137</v>
+        <v>96.59958428600368</v>
       </c>
       <c r="B405" t="n">
         <v>165.60000000000002</v>
@@ -3310,7 +3310,7 @@
     </row>
     <row r="406">
       <c r="A406" t="n">
-        <v>94.2761297548276</v>
+        <v>96.54300940829819</v>
       </c>
       <c r="B406" t="n">
         <v>164.8</v>
@@ -3318,7 +3318,7 @@
     </row>
     <row r="407">
       <c r="A407" t="n">
-        <v>93.35002816885702</v>
+        <v>96.7028980472819</v>
       </c>
       <c r="B407" t="n">
         <v>164.0</v>
@@ -3326,7 +3326,7 @@
     </row>
     <row r="408">
       <c r="A408" t="n">
-        <v>92.41748408267165</v>
+        <v>96.64705621529635</v>
       </c>
       <c r="B408" t="n">
         <v>163.20000000000002</v>
@@ -3334,7 +3334,7 @@
     </row>
     <row r="409">
       <c r="A409" t="n">
-        <v>91.47806971156052</v>
+        <v>96.80767677982692</v>
       </c>
       <c r="B409" t="n">
         <v>162.4</v>
@@ -3342,7 +3342,7 @@
     </row>
     <row r="410">
       <c r="A410" t="n">
-        <v>90.53134534568267</v>
+        <v>96.96879736830152</v>
       </c>
       <c r="B410" t="n">
         <v>161.60000000000002</v>
@@ -3350,7 +3350,7 @@
     </row>
     <row r="411">
       <c r="A411" t="n">
-        <v>89.57685834356852</v>
+        <v>97.34746612371225</v>
       </c>
       <c r="B411" t="n">
         <v>160.8</v>
@@ -3358,7 +3358,7 @@
     </row>
     <row r="412">
       <c r="A412" t="n">
-        <v>88.6141420885275</v>
+        <v>97.56506615812896</v>
       </c>
       <c r="B412" t="n">
         <v>160.0</v>
@@ -3366,7 +3366,7 @@
     </row>
     <row r="413">
       <c r="A413" t="n">
-        <v>87.64271490399659</v>
+        <v>97.72774676701493</v>
       </c>
       <c r="B413" t="n">
         <v>159.20000000000002</v>
@@ -3374,7 +3374,7 @@
     </row>
     <row r="414">
       <c r="A414" t="n">
-        <v>86.66207892380982</v>
+        <v>97.94619350078477</v>
       </c>
       <c r="B414" t="n">
         <v>158.4</v>
@@ -3382,7 +3382,7 @@
     </row>
     <row r="415">
       <c r="A415" t="n">
-        <v>85.67171891332362</v>
+        <v>98.16521568658226</v>
       </c>
       <c r="B415" t="n">
         <v>157.60000000000002</v>
@@ -3390,7 +3390,7 @@
     </row>
     <row r="416">
       <c r="A416" t="n">
-        <v>84.6711010372681</v>
+        <v>98.5488856903911</v>
       </c>
       <c r="B416" t="n">
         <v>156.8</v>
@@ -3398,7 +3398,7 @@
     </row>
     <row r="417">
       <c r="A417" t="n">
-        <v>83.65967157015075</v>
+        <v>98.76938823477855</v>
       </c>
       <c r="B417" t="n">
         <v>156.0</v>
@@ -3406,7 +3406,7 @@
     </row>
     <row r="418">
       <c r="A418" t="n">
-        <v>82.63685554499176</v>
+        <v>99.21223228274476</v>
       </c>
       <c r="B418" t="n">
         <v>155.20000000000002</v>
@@ -3414,7 +3414,7 @@
     </row>
     <row r="419">
       <c r="A419" t="n">
-        <v>81.60205533614749</v>
+        <v>99.43459476341081</v>
       </c>
       <c r="B419" t="n">
         <v>154.4</v>
@@ -3422,7 +3422,7 @@
     </row>
     <row r="420">
       <c r="A420" t="n">
-        <v>80.55464917197514</v>
+        <v>99.65759859545557</v>
       </c>
       <c r="B420" t="n">
         <v>153.60000000000002</v>
@@ -3430,7 +3430,7 @@
     </row>
     <row r="421">
       <c r="A421" t="n">
-        <v>79.49398957313275</v>
+        <v>99.88125487237966</v>
       </c>
       <c r="B421" t="n">
         <v>152.8</v>
@@ -3438,7 +3438,7 @@
     </row>
     <row r="422">
       <c r="A422" t="n">
-        <v>78.41940171238224</v>
+        <v>100.10557494411859</v>
       </c>
       <c r="B422" t="n">
         <v>152.0</v>
@@ -3446,7 +3446,7 @@
     </row>
     <row r="423">
       <c r="A423" t="n">
-        <v>77.33018169191848</v>
+        <v>100.5562532057154</v>
       </c>
       <c r="B423" t="n">
         <v>151.20000000000002</v>
@@ -3454,7 +3454,7 @@
     </row>
     <row r="424">
       <c r="A424" t="n">
-        <v>76.22559473446586</v>
+        <v>100.78263545657364</v>
       </c>
       <c r="B424" t="n">
         <v>150.4</v>
@@ -3462,7 +3462,7 @@
     </row>
     <row r="425">
       <c r="A425" t="n">
-        <v>75.104873284716</v>
+        <v>101.00972964330924</v>
       </c>
       <c r="B425" t="n">
         <v>149.6</v>
@@ -3470,7 +3470,7 @@
     </row>
     <row r="426">
       <c r="A426" t="n">
-        <v>73.96721501813843</v>
+        <v>101.23754853421661</v>
       </c>
       <c r="B426" t="n">
         <v>148.8</v>
@@ -3478,7 +3478,7 @@
     </row>
     <row r="427">
       <c r="A427" t="n">
-        <v>72.81178075481307</v>
+        <v>101.46610521138507</v>
       </c>
       <c r="B427" t="n">
         <v>148.0</v>
@@ -3486,7 +3486,7 @@
     </row>
     <row r="428">
       <c r="A428" t="n">
-        <v>71.63769227675485</v>
+        <v>101.69541308180891</v>
       </c>
       <c r="B428" t="n">
         <v>147.20000000000002</v>
@@ -3494,7 +3494,7 @@
     </row>
     <row r="429">
       <c r="A429" t="n">
-        <v>70.44403004826793</v>
+        <v>101.92548588900769</v>
       </c>
       <c r="B429" t="n">
         <v>146.4</v>
@@ -3502,7 +3502,7 @@
     </row>
     <row r="430">
       <c r="A430" t="n">
-        <v>69.22983084023545</v>
+        <v>102.15633772518464</v>
       </c>
       <c r="B430" t="n">
         <v>145.6</v>
@@ -3510,7 +3510,7 @@
     </row>
     <row r="431">
       <c r="A431" t="n">
-        <v>67.99408526099728</v>
+        <v>102.62043667367737</v>
       </c>
       <c r="B431" t="n">
         <v>144.8</v>
@@ -3518,7 +3518,7 @@
     </row>
     <row r="432">
       <c r="A432" t="n">
-        <v>66.73573519866642</v>
+        <v>102.85371383141944</v>
       </c>
       <c r="B432" t="n">
         <v>144.0</v>
@@ -3526,7 +3526,7 @@
     </row>
     <row r="433">
       <c r="A433" t="n">
-        <v>65.45367118248603</v>
+        <v>103.08783013760342</v>
       </c>
       <c r="B433" t="n">
         <v>143.20000000000002</v>
@@ -3534,7 +3534,7 @@
     </row>
     <row r="434">
       <c r="A434" t="n">
-        <v>64.1467296742604</v>
+        <v>103.32280163136397</v>
       </c>
       <c r="B434" t="n">
         <v>142.4</v>
@@ -3542,7 +3542,7 @@
     </row>
     <row r="435">
       <c r="A435" t="n">
-        <v>62.81369030513167</v>
+        <v>103.55864478666479</v>
       </c>
       <c r="B435" t="n">
         <v>141.6</v>
@@ -3550,7 +3550,7 @@
     </row>
     <row r="436">
       <c r="A436" t="n">
-        <v>61.45327307821154</v>
+        <v>103.7953765292213</v>
       </c>
       <c r="B436" t="n">
         <v>140.8</v>
@@ -3558,7 +3558,7 @@
     </row>
     <row r="437">
       <c r="A437" t="n">
-        <v>60.06413556399286</v>
+        <v>104.03301425427708</v>
       </c>
       <c r="B437" t="n">
         <v>140.0</v>
@@ -3566,7 +3566,7 @@
     </row>
     <row r="438">
       <c r="A438" t="n">
-        <v>58.6448701233312</v>
+        <v>104.27157584528794</v>
       </c>
       <c r="B438" t="n">
         <v>139.20000000000002</v>
@@ -3574,7 +3574,7 @@
     </row>
     <row r="439">
       <c r="A439" t="n">
-        <v>57.19400120235872</v>
+        <v>104.75154471898293</v>
       </c>
       <c r="B439" t="n">
         <v>138.4</v>
@@ -3582,7 +3582,7 @@
     </row>
     <row r="440">
       <c r="A440" t="n">
-        <v>55.709982755340434</v>
+        <v>104.99299039168426</v>
       </c>
       <c r="B440" t="n">
         <v>137.6</v>
@@ -3590,7 +3590,7 @@
     </row>
     <row r="441">
       <c r="A441" t="n">
-        <v>54.19119586558662</v>
+        <v>105.23543675507733</v>
       </c>
       <c r="B441" t="n">
         <v>136.8</v>
@@ -3598,7 +3598,7 @@
     </row>
     <row r="442">
       <c r="A442" t="n">
-        <v>52.63594665157464</v>
+        <v>105.47890444997813</v>
       </c>
       <c r="B442" t="n">
         <v>136.0</v>
@@ -3606,7 +3606,7 @@
     </row>
     <row r="443">
       <c r="A443" t="n">
-        <v>51.04246456595354</v>
+        <v>105.72341474011552</v>
       </c>
       <c r="B443" t="n">
         <v>135.20000000000002</v>
@@ -3614,7 +3614,7 @@
     </row>
     <row r="444">
       <c r="A444" t="n">
-        <v>49.40890121973018</v>
+        <v>105.96898953904463</v>
       </c>
       <c r="B444" t="n">
         <v>134.4</v>
@@ -3622,7 +3622,7 @@
     </row>
     <row r="445">
       <c r="A445" t="n">
-        <v>47.30308404990939</v>
+        <v>106.21565143857032</v>
       </c>
       <c r="B445" t="n">
         <v>133.6</v>
@@ -3630,7 +3630,7 @@
     </row>
     <row r="446">
       <c r="A446" t="n">
-        <v>45.60140978840525</v>
+        <v>106.46342373878667</v>
       </c>
       <c r="B446" t="n">
         <v>132.8</v>
@@ -3638,7 +3638,7 @@
     </row>
     <row r="447">
       <c r="A447" t="n">
-        <v>43.85606112020844</v>
+        <v>106.96239647558542</v>
       </c>
       <c r="B447" t="n">
         <v>132.0</v>
@@ -3646,7 +3646,7 @@
     </row>
     <row r="448">
       <c r="A448" t="n">
-        <v>41.73140956913363</v>
+        <v>107.21364734912578</v>
       </c>
       <c r="B448" t="n">
         <v>131.20000000000002</v>
@@ -3654,7 +3654,7 @@
     </row>
     <row r="449">
       <c r="A449" t="n">
-        <v>39.9191743969123</v>
+        <v>107.46610957062205</v>
       </c>
       <c r="B449" t="n">
         <v>130.4</v>
@@ -3662,7 +3662,7 @@
     </row>
     <row r="450">
       <c r="A450" t="n">
-        <v>37.81604895501863</v>
+        <v>107.7198104972889</v>
       </c>
       <c r="B450" t="n">
         <v>129.6</v>
@@ -3670,7 +3670,7 @@
     </row>
     <row r="451">
       <c r="A451" t="n">
-        <v>35.94182481037666</v>
+        <v>107.97477841589313</v>
       </c>
       <c r="B451" t="n">
         <v>128.8</v>
@@ -3678,7 +3678,7 @@
     </row>
     <row r="452">
       <c r="A452" t="n">
-        <v>33.87635609967384</v>
+        <v>108.2310425878955</v>
       </c>
       <c r="B452" t="n">
         <v>128.0</v>
@@ -3686,7 +3686,7 @@
     </row>
     <row r="453">
       <c r="A453" t="n">
-        <v>31.869590276644203</v>
+        <v>108.48863329744592</v>
       </c>
       <c r="B453" t="n">
         <v>127.2</v>
@@ -3694,7 +3694,7 @@
     </row>
     <row r="454">
       <c r="A454" t="n">
-        <v>31.818565988345057</v>
+        <v>108.74758190245603</v>
       </c>
       <c r="B454" t="n">
         <v>126.4</v>
@@ -3702,7 +3702,7 @@
     </row>
     <row r="455">
       <c r="A455" t="n">
-        <v>29.93973972697367</v>
+        <v>109.26968392926972</v>
       </c>
       <c r="B455" t="n">
         <v>125.60000000000001</v>
@@ -3710,7 +3710,7 @@
     </row>
     <row r="456">
       <c r="A456" t="n">
-        <v>29.97533587076464</v>
+        <v>109.53290594350125</v>
       </c>
       <c r="B456" t="n">
         <v>124.80000000000001</v>
@@ -3718,7 +3718,7 @@
     </row>
     <row r="457">
       <c r="A457" t="n">
-        <v>30.031905262059524</v>
+        <v>109.7976231659909</v>
       </c>
       <c r="B457" t="n">
         <v>124.0</v>
@@ -3726,7 +3726,7 @@
     </row>
     <row r="458">
       <c r="A458" t="n">
-        <v>30.108184802458027</v>
+        <v>110.06387321575897</v>
       </c>
       <c r="B458" t="n">
         <v>123.2</v>
@@ -3734,7 +3734,7 @@
     </row>
     <row r="459">
       <c r="A459" t="n">
-        <v>30.20301074575127</v>
+        <v>110.3316951721306</v>
       </c>
       <c r="B459" t="n">
         <v>122.4</v>
@@ -3742,7 +3742,7 @@
     </row>
     <row r="460">
       <c r="A460" t="n">
-        <v>30.31531056883705</v>
+        <v>110.60112965570386</v>
       </c>
       <c r="B460" t="n">
         <v>121.60000000000001</v>
@@ -3750,7 +3750,7 @@
     </row>
     <row r="461">
       <c r="A461" t="n">
-        <v>30.444095485035945</v>
+        <v>110.872218915176</v>
       </c>
       <c r="B461" t="n">
         <v>120.80000000000001</v>
@@ -3758,7 +3758,7 @@
     </row>
     <row r="462">
       <c r="A462" t="n">
-        <v>30.588453567674946</v>
+        <v>111.14500692055304</v>
       </c>
       <c r="B462" t="n">
         <v>120.0</v>
@@ -3766,7 +3766,7 @@
     </row>
     <row r="463">
       <c r="A463" t="n">
-        <v>30.74754344769505</v>
+        <v>111.41953946332723</v>
       </c>
       <c r="B463" t="n">
         <v>119.2</v>
@@ -3774,7 +3774,7 @@
     </row>
     <row r="464">
       <c r="A464" t="n">
-        <v>30.920588547050443</v>
+        <v>109.00792088899414</v>
       </c>
       <c r="B464" t="n">
         <v>118.4</v>
@@ -3782,7 +3782,7 @@
     </row>
     <row r="465">
       <c r="A465" t="n">
-        <v>32.62838282496159</v>
+        <v>106.71233047984703</v>
       </c>
       <c r="B465" t="n">
         <v>117.60000000000001</v>
@@ -3790,7 +3790,7 @@
     </row>
     <row r="466">
       <c r="A466" t="n">
-        <v>32.7996480818818</v>
+        <v>104.51107969357139</v>
       </c>
       <c r="B466" t="n">
         <v>116.80000000000001</v>
@@ -3798,7 +3798,7 @@
     </row>
     <row r="467">
       <c r="A467" t="n">
-        <v>34.43805633007523</v>
+        <v>102.38798304395522</v>
       </c>
       <c r="B467" t="n">
         <v>116.0</v>
@@ -3806,7 +3806,7 @@
     </row>
     <row r="468">
       <c r="A468" t="n">
-        <v>36.026944605630746</v>
+        <v>100.33057042560716</v>
       </c>
       <c r="B468" t="n">
         <v>115.2</v>
@@ -3814,7 +3814,7 @@
     </row>
     <row r="469">
       <c r="A469" t="n">
-        <v>37.43167047538719</v>
+        <v>98.32898252838874</v>
       </c>
       <c r="B469" t="n">
         <v>114.4</v>
@@ -3822,7 +3822,7 @@
     </row>
     <row r="470">
       <c r="A470" t="n">
-        <v>38.941477207883054</v>
+        <v>95.80222315814319</v>
       </c>
       <c r="B470" t="n">
         <v>113.60000000000001</v>
@@ -3830,7 +3830,7 @@
     </row>
     <row r="471">
       <c r="A471" t="n">
-        <v>40.300186334588545</v>
+        <v>96.01498135740724</v>
       </c>
       <c r="B471" t="n">
         <v>112.80000000000001</v>
@@ -3838,7 +3838,7 @@
     </row>
     <row r="472">
       <c r="A472" t="n">
-        <v>41.73984316730326</v>
+        <v>96.2282181167916</v>
       </c>
       <c r="B472" t="n">
         <v>112.0</v>
@@ -3846,7 +3846,7 @@
     </row>
     <row r="473">
       <c r="A473" t="n">
-        <v>43.05593402892839</v>
+        <v>96.44194110709896</v>
       </c>
       <c r="B473" t="n">
         <v>111.2</v>
@@ -3854,7 +3854,7 @@
     </row>
     <row r="474">
       <c r="A474" t="n">
-        <v>44.360319593746</v>
+        <v>96.65615814902225</v>
       </c>
       <c r="B474" t="n">
         <v>110.4</v>
@@ -3862,7 +3862,7 @@
     </row>
     <row r="475">
       <c r="A475" t="n">
-        <v>45.710076383508266</v>
+        <v>96.87087721743376</v>
       </c>
       <c r="B475" t="n">
         <v>109.60000000000001</v>
@@ -3870,7 +3870,7 @@
     </row>
     <row r="476">
       <c r="A476" t="n">
-        <v>46.97570402889815</v>
+        <v>97.08610644583308</v>
       </c>
       <c r="B476" t="n">
         <v>108.80000000000001</v>
@@ -3878,7 +3878,7 @@
     </row>
     <row r="477">
       <c r="A477" t="n">
-        <v>48.230229872725744</v>
+        <v>97.30185413096086</v>
       </c>
       <c r="B477" t="n">
         <v>108.0</v>
@@ -3886,7 +3886,7 @@
     </row>
     <row r="478">
       <c r="A478" t="n">
-        <v>49.47364971512155</v>
+        <v>97.51812873758604</v>
       </c>
       <c r="B478" t="n">
         <v>107.2</v>
@@ -3894,7 +3894,7 @@
     </row>
     <row r="479">
       <c r="A479" t="n">
-        <v>50.705987051694365</v>
+        <v>97.73493890347379</v>
       </c>
       <c r="B479" t="n">
         <v>106.4</v>
@@ -3902,7 +3902,7 @@
     </row>
     <row r="480">
       <c r="A480" t="n">
-        <v>51.9272908504058</v>
+        <v>95.75286613067266</v>
       </c>
       <c r="B480" t="n">
         <v>105.60000000000001</v>
@@ -3910,7 +3910,7 @@
     </row>
     <row r="481">
       <c r="A481" t="n">
-        <v>53.13763343261175</v>
+        <v>95.70397017587811</v>
       </c>
       <c r="B481" t="n">
         <v>104.80000000000001</v>
@@ -3918,7 +3918,7 @@
     </row>
     <row r="482">
       <c r="A482" t="n">
-        <v>54.33710846287701</v>
+        <v>95.65553300237207</v>
       </c>
       <c r="B482" t="n">
         <v>104.0</v>
@@ -3926,7 +3926,7 @@
     </row>
     <row r="483">
       <c r="A483" t="n">
-        <v>55.52582905038372</v>
+        <v>95.60755235477978</v>
       </c>
       <c r="B483" t="n">
         <v>103.2</v>
@@ -3934,7 +3934,7 @@
     </row>
     <row r="484">
       <c r="A484" t="n">
-        <v>56.703925963221536</v>
+        <v>95.56002601305596</v>
       </c>
       <c r="B484" t="n">
         <v>102.4</v>
@@ -3942,7 +3942,7 @@
     </row>
     <row r="485">
       <c r="A485" t="n">
-        <v>57.87154595554972</v>
+        <v>95.51295179181659</v>
       </c>
       <c r="B485" t="n">
         <v>101.60000000000001</v>
@@ -3950,7 +3950,7 @@
     </row>
     <row r="486">
       <c r="A486" t="n">
-        <v>59.02885020653662</v>
+        <v>95.46632753968834</v>
       </c>
       <c r="B486" t="n">
         <v>100.80000000000001</v>
@@ -3958,7 +3958,7 @@
     </row>
     <row r="487">
       <c r="A487" t="n">
-        <v>60.17601286909388</v>
+        <v>95.42015113867177</v>
       </c>
       <c r="B487" t="n">
         <v>100.0</v>
@@ -3966,7 +3966,7 @@
     </row>
     <row r="488">
       <c r="A488" t="n">
-        <v>61.31321972571149</v>
+        <v>95.32913358113609</v>
       </c>
       <c r="B488" t="n">
         <v>99.2</v>
@@ -3974,7 +3974,7 @@
     </row>
     <row r="489">
       <c r="A489" t="n">
-        <v>62.440666948136794</v>
+        <v>95.28428834997379</v>
       </c>
       <c r="B489" t="n">
         <v>98.4</v>
@@ -3982,7 +3982,7 @@
     </row>
     <row r="490">
       <c r="A490" t="n">
-        <v>63.55855995722402</v>
+        <v>95.2398828194656</v>
       </c>
       <c r="B490" t="n">
         <v>97.60000000000001</v>
@@ -3990,7 +3990,7 @@
     </row>
     <row r="491">
       <c r="A491" t="n">
-        <v>64.66711237897528</v>
+        <v>95.19591502945514</v>
       </c>
       <c r="B491" t="n">
         <v>96.80000000000001</v>
@@ -3998,7 +3998,7 @@
     </row>
     <row r="492">
       <c r="A492" t="n">
-        <v>65.76654509259657</v>
+        <v>95.15238304964481</v>
       </c>
       <c r="B492" t="n">
         <v>96.0</v>
@@ -4006,7 +4006,7 @@
     </row>
     <row r="493">
       <c r="A493" t="n">
-        <v>66.85708536627993</v>
+        <v>95.10928497905718</v>
       </c>
       <c r="B493" t="n">
         <v>95.2</v>
@@ -4014,7 +4014,7 @@
     </row>
     <row r="494">
       <c r="A494" t="n">
-        <v>67.938966076389</v>
+        <v>95.06661894550706</v>
       </c>
       <c r="B494" t="n">
         <v>94.4</v>
@@ -4022,7 +4022,7 @@
     </row>
     <row r="495">
       <c r="A495" t="n">
-        <v>69.01242500574963</v>
+        <v>95.02438310508705</v>
       </c>
       <c r="B495" t="n">
         <v>93.60000000000001</v>
@@ -4030,7 +4030,7 @@
     </row>
     <row r="496">
       <c r="A496" t="n">
-        <v>70.07770421682795</v>
+        <v>95.37442050352064</v>
       </c>
       <c r="B496" t="n">
         <v>92.80000000000001</v>
@@ -4038,7 +4038,7 @@
     </row>
     <row r="497">
       <c r="A497" t="n">
-        <v>71.13504949570137</v>
+        <v>97.95229344454515</v>
       </c>
       <c r="B497" t="n">
         <v>92.0</v>
@@ -4046,7 +4046,7 @@
     </row>
     <row r="498">
       <c r="A498" t="n">
-        <v>72.18470986288438</v>
+        <v>98.1702013602333</v>
       </c>
       <c r="B498" t="n">
         <v>91.2</v>
@@ -4054,7 +4054,7 @@
     </row>
     <row r="499">
       <c r="A499" t="n">
-        <v>73.22693714725739</v>
+        <v>98.38867183904983</v>
       </c>
       <c r="B499" t="n">
         <v>90.4</v>
@@ -4062,7 +4062,7 @@
     </row>
     <row r="500">
       <c r="A500" t="n">
-        <v>74.26198561955667</v>
+        <v>98.60771426436833</v>
       </c>
       <c r="B500" t="n">
         <v>89.60000000000001</v>
@@ -4070,7 +4070,7 @@
     </row>
     <row r="501">
       <c r="A501" t="n">
-        <v>75.29011168210786</v>
+        <v>98.82733822043724</v>
       </c>
       <c r="B501" t="n">
         <v>88.80000000000001</v>
@@ -4078,7 +4078,7 @@
     </row>
     <row r="502">
       <c r="A502" t="n">
-        <v>76.31157361172882</v>
+        <v>99.04755349863223</v>
       </c>
       <c r="B502" t="n">
         <v>88.0</v>
@@ -4086,7 +4086,7 @@
     </row>
     <row r="503">
       <c r="A503" t="n">
-        <v>77.32663135297514</v>
+        <v>99.26837010396065</v>
       </c>
       <c r="B503" t="n">
         <v>87.2</v>
@@ -4094,7 +4094,7 @@
     </row>
     <row r="504">
       <c r="A504" t="n">
-        <v>78.33554635916568</v>
+        <v>99.48979826183006</v>
       </c>
       <c r="B504" t="n">
         <v>86.4</v>
@@ -4102,7 +4102,7 @@
     </row>
     <row r="505">
       <c r="A505" t="n">
-        <v>79.33858147888918</v>
+        <v>99.71184842509388</v>
       </c>
       <c r="B505" t="n">
         <v>85.60000000000001</v>
@@ -4110,7 +4110,7 @@
     </row>
     <row r="506">
       <c r="A506" t="n">
-        <v>80.33600088596677</v>
+        <v>99.93453128138896</v>
       </c>
       <c r="B506" t="n">
         <v>84.80000000000001</v>
@@ -4118,7 +4118,7 @@
     </row>
     <row r="507">
       <c r="A507" t="n">
-        <v>81.3280700511234</v>
+        <v>100.15785776077905</v>
       </c>
       <c r="B507" t="n">
         <v>84.0</v>
@@ -4126,7 +4126,7 @@
     </row>
     <row r="508">
       <c r="A508" t="n">
-        <v>82.31505575390577</v>
+        <v>100.3818390437205</v>
       </c>
       <c r="B508" t="n">
         <v>83.2</v>
@@ -4134,7 +4134,7 @@
     </row>
     <row r="509">
       <c r="A509" t="n">
-        <v>83.29722613367159</v>
+        <v>100.83181204422732</v>
       </c>
       <c r="B509" t="n">
         <v>82.4</v>
@@ -4142,7 +4142,7 @@
     </row>
     <row r="510">
       <c r="A510" t="n">
-        <v>84.27485077877634</v>
+        <v>101.05782745120797</v>
       </c>
       <c r="B510" t="n">
         <v>81.60000000000001</v>
@@ -4150,7 +4150,7 @@
     </row>
     <row r="511">
       <c r="A511" t="n">
-        <v>85.2482008533857</v>
+        <v>101.28454505903818</v>
       </c>
       <c r="B511" t="n">
         <v>80.80000000000001</v>
@@ -4158,7 +4158,7 @@
     </row>
     <row r="512">
       <c r="A512" t="n">
-        <v>86.21754926166216</v>
+        <v>101.51197743212145</v>
       </c>
       <c r="B512" t="n">
         <v>80.0</v>
@@ -4166,7 +4166,7 @@
     </row>
     <row r="513">
       <c r="A513" t="n">
-        <v>87.18317084940509</v>
+        <v>101.74013744082237</v>
       </c>
       <c r="B513" t="n">
         <v>79.2</v>
@@ -4174,7 +4174,7 @@
     </row>
     <row r="514">
       <c r="A514" t="n">
-        <v>88.14534264357121</v>
+        <v>101.96903827221843</v>
       </c>
       <c r="B514" t="n">
         <v>78.4</v>
@@ -4182,7 +4182,7 @@
     </row>
     <row r="515">
       <c r="A515" t="n">
-        <v>89.10434413047341</v>
+        <v>102.19869344134031</v>
       </c>
       <c r="B515" t="n">
         <v>77.60000000000001</v>
@@ -4190,7 +4190,7 @@
     </row>
     <row r="516">
       <c r="A516" t="n">
-        <v>90.06045757385243</v>
+        <v>102.42911680292957</v>
       </c>
       <c r="B516" t="n">
         <v>76.80000000000001</v>
@@ -4198,7 +4198,7 @@
     </row>
     <row r="517">
       <c r="A517" t="n">
-        <v>91.0139683744427</v>
+        <v>102.89232529543034</v>
       </c>
       <c r="B517" t="n">
         <v>76.0</v>
@@ -4206,7 +4206,7 @@
     </row>
     <row r="518">
       <c r="A518" t="n">
-        <v>91.96516547312154</v>
+        <v>103.12513994803368</v>
       </c>
       <c r="B518" t="n">
         <v>75.2</v>
@@ -4214,7 +4214,7 @@
     </row>
     <row r="519">
       <c r="A519" t="n">
-        <v>92.9143418002459</v>
+        <v>103.35878186411867</v>
       </c>
       <c r="B519" t="n">
         <v>74.4</v>
@@ -4222,7 +4222,7 @@
     </row>
     <row r="520">
       <c r="A520" t="n">
-        <v>93.861794774347</v>
+        <v>103.59326679360254</v>
       </c>
       <c r="B520" t="n">
         <v>73.60000000000001</v>
@@ -4230,7 +4230,7 @@
     </row>
     <row r="521">
       <c r="A521" t="n">
-        <v>94.80782685399669</v>
+        <v>103.82861090930226</v>
       </c>
       <c r="B521" t="n">
         <v>72.8</v>
@@ -4238,7 +4238,7 @@
     </row>
     <row r="522">
       <c r="A522" t="n">
-        <v>95.75274614737333</v>
+        <v>104.06483082325457</v>
       </c>
       <c r="B522" t="n">
         <v>72.0</v>
@@ -4246,7 +4246,7 @@
     </row>
     <row r="523">
       <c r="A523" t="n">
-        <v>96.6968670848762</v>
+        <v>104.30194360385207</v>
       </c>
       <c r="B523" t="n">
         <v>71.2</v>
@@ -4254,7 +4254,7 @@
     </row>
     <row r="524">
       <c r="A524" t="n">
-        <v>97.64051116106901</v>
+        <v>104.53996679384665</v>
       </c>
       <c r="B524" t="n">
         <v>70.4</v>
@@ -4262,7 +4262,7 @@
     </row>
     <row r="525">
       <c r="A525" t="n">
-        <v>98.58400775331125</v>
+        <v>105.01881705936427</v>
       </c>
       <c r="B525" t="n">
         <v>69.60000000000001</v>
@@ -4270,7 +4270,7 @@
     </row>
     <row r="526">
       <c r="A526" t="n">
-        <v>99.5276950256794</v>
+        <v>105.25968176747756</v>
       </c>
       <c r="B526" t="n">
         <v>68.8</v>
@@ -4278,7 +4278,7 @@
     </row>
     <row r="527">
       <c r="A527" t="n">
-        <v>100.4719209282336</v>
+        <v>105.50153219317394</v>
       </c>
       <c r="B527" t="n">
         <v>68.0</v>
@@ -4286,7 +4286,7 @@
     </row>
     <row r="528">
       <c r="A528" t="n">
-        <v>101.41704430338177</v>
+        <v>105.7443885554473</v>
       </c>
       <c r="B528" t="n">
         <v>67.2</v>
@@ -4294,7 +4294,7 @@
     </row>
     <row r="529">
       <c r="A529" t="n">
-        <v>102.36343611309883</v>
+        <v>105.98827167722806</v>
       </c>
       <c r="B529" t="n">
         <v>66.4</v>
@@ -4302,7 +4302,7 @@
     </row>
     <row r="530">
       <c r="A530" t="n">
-        <v>34.49012509348549</v>
+        <v>106.23320301123027</v>
       </c>
       <c r="B530" t="n">
         <v>65.60000000000001</v>
@@ -4310,7 +4310,7 @@
     </row>
     <row r="531">
       <c r="A531" t="n">
-        <v>34.810556257211886</v>
+        <v>106.47920466723531</v>
       </c>
       <c r="B531" t="n">
         <v>64.8</v>
@@ -4318,7 +4318,7 @@
     </row>
     <row r="532">
       <c r="A532" t="n">
-        <v>35.138156176523864</v>
+        <v>106.72629944091261</v>
       </c>
       <c r="B532" t="n">
         <v>64.0</v>
@@ -4326,7 +4326,7 @@
     </row>
     <row r="533">
       <c r="A533" t="n">
-        <v>35.47272299968898</v>
+        <v>107.22386313793334</v>
       </c>
       <c r="B533" t="n">
         <v>63.2</v>
@@ -4334,7 +4334,7 @@
     </row>
     <row r="534">
       <c r="A534" t="n">
-        <v>35.814071279169355</v>
+        <v>107.47438136513722</v>
       </c>
       <c r="B534" t="n">
         <v>62.400000000000006</v>
@@ -4342,7 +4342,7 @@
     </row>
     <row r="535">
       <c r="A535" t="n">
-        <v>36.16203097699048</v>
+        <v>107.72609138796582</v>
       </c>
       <c r="B535" t="n">
         <v>61.6</v>
@@ -4350,7 +4350,7 @@
     </row>
     <row r="536">
       <c r="A536" t="n">
-        <v>36.51644655935644</v>
+        <v>107.97901992559139</v>
       </c>
       <c r="B536" t="n">
         <v>60.800000000000004</v>
@@ -4358,7 +4358,7 @@
     </row>
     <row r="537">
       <c r="A537" t="n">
-        <v>36.877176173212604</v>
+        <v>108.23319459491069</v>
       </c>
       <c r="B537" t="n">
         <v>60.0</v>
@@ -4366,7 +4366,7 @@
     </row>
     <row r="538">
       <c r="A538" t="n">
-        <v>37.244090898193065</v>
+        <v>108.48864395367593</v>
       </c>
       <c r="B538" t="n">
         <v>59.2</v>
@@ -4374,7 +4374,7 @@
     </row>
     <row r="539">
       <c r="A539" t="n">
-        <v>37.61707406806403</v>
+        <v>108.74539754632309</v>
       </c>
       <c r="B539" t="n">
         <v>58.400000000000006</v>
@@ -4382,7 +4382,7 @@
     </row>
     <row r="540">
       <c r="A540" t="n">
-        <v>37.99602065638345</v>
+        <v>109.00348595270515</v>
       </c>
       <c r="B540" t="n">
         <v>57.6</v>
@@ -4390,7 +4390,7 @@
     </row>
     <row r="541">
       <c r="A541" t="n">
-        <v>38.380836721656976</v>
+        <v>109.5237950177663</v>
       </c>
       <c r="B541" t="n">
         <v>56.800000000000004</v>
@@ -4398,7 +4398,7 @@
     </row>
     <row r="542">
       <c r="A542" t="n">
-        <v>38.77143890777813</v>
+        <v>109.78608249724522</v>
       </c>
       <c r="B542" t="n">
         <v>56.0</v>
@@ -4406,7 +4406,7 @@
     </row>
     <row r="543">
       <c r="A543" t="n">
-        <v>39.16775399600857</v>
+        <v>110.04983855383648</v>
       </c>
       <c r="B543" t="n">
         <v>55.2</v>
@@ -4414,7 +4414,7 @@
     </row>
     <row r="544">
       <c r="A544" t="n">
-        <v>39.56971850518252</v>
+        <v>110.31509979444945</v>
       </c>
       <c r="B544" t="n">
         <v>54.400000000000006</v>
@@ -4422,7 +4422,7 @@
     </row>
     <row r="545">
       <c r="A545" t="n">
-        <v>39.97727833721706</v>
+        <v>110.58190422927004</v>
       </c>
       <c r="B545" t="n">
         <v>53.6</v>
@@ -4430,7 +4430,7 @@
     </row>
     <row r="546">
       <c r="A546" t="n">
-        <v>40.390388465375906</v>
+        <v>110.85029134861634</v>
       </c>
       <c r="B546" t="n">
         <v>52.800000000000004</v>
@@ -4438,7 +4438,7 @@
     </row>
     <row r="547">
       <c r="A547" t="n">
-        <v>40.80901266307882</v>
+        <v>109.26294083996083</v>
       </c>
       <c r="B547" t="n">
         <v>52.0</v>
@@ -4446,7 +4446,7 @@
     </row>
     <row r="548">
       <c r="A548" t="n">
-        <v>41.23312327136949</v>
+        <v>106.97451084428144</v>
       </c>
       <c r="B548" t="n">
         <v>51.2</v>
@@ -4454,7 +4454,7 @@
     </row>
     <row r="549">
       <c r="A549" t="n">
-        <v>42.19563379218823</v>
+        <v>104.77891842927522</v>
       </c>
       <c r="B549" t="n">
         <v>50.400000000000006</v>
@@ -4462,7 +4462,7 @@
     </row>
     <row r="550">
       <c r="A550" t="n">
-        <v>43.159466290983204</v>
+        <v>102.66032256374217</v>
       </c>
       <c r="B550" t="n">
         <v>49.6</v>
@@ -4470,7 +4470,7 @@
     </row>
     <row r="551">
       <c r="A551" t="n">
-        <v>44.124392212532996</v>
+        <v>100.60648656936621</v>
       </c>
       <c r="B551" t="n">
         <v>48.800000000000004</v>
@@ -4478,7 +4478,7 @@
     </row>
     <row r="552">
       <c r="A552" t="n">
-        <v>45.09019391421407</v>
+        <v>98.9905003081791</v>
       </c>
       <c r="B552" t="n">
         <v>48.0</v>
@@ -4486,7 +4486,7 @@
     </row>
     <row r="553">
       <c r="A553" t="n">
-        <v>46.056664804407035</v>
+        <v>97.18557028712473</v>
       </c>
       <c r="B553" t="n">
         <v>47.2</v>
@@ -4494,7 +4494,7 @@
     </row>
     <row r="554">
       <c r="A554" t="n">
-        <v>47.02360944460844</v>
+        <v>96.83094695584549</v>
       </c>
       <c r="B554" t="n">
         <v>46.400000000000006</v>
@@ -4502,7 +4502,7 @@
     </row>
     <row r="555">
       <c r="A555" t="n">
-        <v>47.99084361732821</v>
+        <v>98.71362546554178</v>
       </c>
       <c r="B555" t="n">
         <v>45.6</v>
@@ -4510,7 +4510,7 @@
     </row>
     <row r="556">
       <c r="A556" t="n">
-        <v>48.95819436197735</v>
+        <v>97.97741759378806</v>
       </c>
       <c r="B556" t="n">
         <v>44.800000000000004</v>
@@ -4518,7 +4518,7 @@
     </row>
     <row r="557">
       <c r="A557" t="n">
-        <v>49.925499981049654</v>
+        <v>98.62015778986489</v>
       </c>
       <c r="B557" t="n">
         <v>44.0</v>
@@ -4526,7 +4526,7 @@
     </row>
     <row r="558">
       <c r="A558" t="n">
-        <v>50.89261001897569</v>
+        <v>101.66114094177402</v>
       </c>
       <c r="B558" t="n">
         <v>43.2</v>
@@ -4534,7 +4534,7 @@
     </row>
     <row r="559">
       <c r="A559" t="n">
-        <v>51.85938521607744</v>
+        <v>101.90096142405974</v>
       </c>
       <c r="B559" t="n">
         <v>42.400000000000006</v>
@@ -4542,7 +4542,7 @@
     </row>
     <row r="560">
       <c r="A560" t="n">
-        <v>52.825697440078386</v>
+        <v>102.14178057441575</v>
       </c>
       <c r="B560" t="n">
         <v>41.6</v>
@@ -4550,7 +4550,7 @@
     </row>
     <row r="561">
       <c r="A561" t="n">
-        <v>53.79142959763354</v>
+        <v>102.3836187719213</v>
       </c>
       <c r="B561" t="n">
         <v>40.800000000000004</v>
@@ -4558,7 +4558,7 @@
     </row>
     <row r="562">
       <c r="A562" t="n">
-        <v>54.7564755283359</v>
+        <v>102.6264970144224</v>
       </c>
       <c r="B562" t="n">
         <v>40.0</v>
@@ -4566,7 +4566,7 @@
     </row>
     <row r="563">
       <c r="A563" t="n">
-        <v>55.72073988363047</v>
+        <v>102.87043694531036</v>
       </c>
       <c r="B563" t="n">
         <v>39.2</v>
@@ -4574,7 +4574,7 @@
     </row>
     <row r="564">
       <c r="A564" t="n">
-        <v>56.68413799303079</v>
+        <v>103.11546088180899</v>
       </c>
       <c r="B564" t="n">
         <v>38.400000000000006</v>
@@ -4582,7 +4582,7 @@
     </row>
     <row r="565">
       <c r="A565" t="n">
-        <v>57.6465957199876</v>
+        <v>103.3615918448736</v>
       </c>
       <c r="B565" t="n">
         <v>37.6</v>
@@ -4590,7 +4590,7 @@
     </row>
     <row r="566">
       <c r="A566" t="n">
-        <v>58.60804930970096</v>
+        <v>103.60885359081715</v>
       </c>
       <c r="B566" t="n">
         <v>36.800000000000004</v>
@@ -4598,7 +4598,7 @@
     </row>
     <row r="567">
       <c r="A567" t="n">
-        <v>59.568445231109365</v>
+        <v>103.85727064478476</v>
       </c>
       <c r="B567" t="n">
         <v>36.0</v>
@@ -4606,7 +4606,7 @@
     </row>
     <row r="568">
       <c r="A568" t="n">
-        <v>60.527740015220786</v>
+        <v>104.10686833621321</v>
       </c>
       <c r="B568" t="n">
         <v>35.2</v>
@@ -4614,7 +4614,7 @@
     </row>
     <row r="569">
       <c r="A569" t="n">
-        <v>61.485900091886805</v>
+        <v>104.35767283641826</v>
       </c>
       <c r="B569" t="n">
         <v>34.4</v>
@@ -4622,7 +4622,7 @@
     </row>
     <row r="570">
       <c r="A570" t="n">
-        <v>62.442901627049935</v>
+        <v>104.60971119846977</v>
       </c>
       <c r="B570" t="n">
         <v>33.6</v>
@@ -4630,7 +4630,7 @@
     </row>
     <row r="571">
       <c r="A571" t="n">
-        <v>63.398730362433184</v>
+        <v>104.86301139952627</v>
       </c>
       <c r="B571" t="n">
         <v>32.800000000000004</v>
@@ -4638,7 +4638,7 @@
     </row>
     <row r="572">
       <c r="A572" t="n">
-        <v>64.35338145957485</v>
+        <v>105.11760238581701</v>
       </c>
       <c r="B572" t="n">
         <v>32.0</v>
@@ -4646,7 +4646,7 @@
     </row>
     <row r="573">
       <c r="A573" t="n">
-        <v>65.30685935005818</v>
+        <v>105.37351412047639</v>
       </c>
       <c r="B573" t="n">
         <v>31.200000000000003</v>
@@ -4654,7 +4654,7 @@
     </row>
     <row r="574">
       <c r="A574" t="n">
-        <v>66.2591775937328</v>
+        <v>105.630777634455</v>
       </c>
       <c r="B574" t="n">
         <v>30.400000000000002</v>
@@ -4662,7 +4662,7 @@
     </row>
     <row r="575">
       <c r="A575" t="n">
-        <v>67.21035874668715</v>
+        <v>105.88942508075354</v>
       </c>
       <c r="B575" t="n">
         <v>29.6</v>
@@ -4670,7 +4670,7 @@
     </row>
     <row r="576">
       <c r="A576" t="n">
-        <v>68.1604342406946</v>
+        <v>106.14948979224584</v>
       </c>
       <c r="B576" t="n">
         <v>28.8</v>
@@ -4678,7 +4678,7 @@
     </row>
     <row r="577">
       <c r="A577" t="n">
-        <v>69.10944427584124</v>
+        <v>106.41100634338852</v>
       </c>
       <c r="B577" t="n">
         <v>28.0</v>
@@ -4686,7 +4686,7 @@
     </row>
     <row r="578">
       <c r="A578" t="n">
-        <v>70.0574377280324</v>
+        <v>106.67401061613884</v>
       </c>
       <c r="B578" t="n">
         <v>27.200000000000003</v>
@@ -4694,7 +4694,7 @@
     </row>
     <row r="579">
       <c r="A579" t="n">
-        <v>71.00447207308443</v>
+        <v>106.93853987043866</v>
       </c>
       <c r="B579" t="n">
         <v>26.400000000000002</v>
@@ -4702,7 +4702,7 @@
     </row>
     <row r="580">
       <c r="A580" t="n">
-        <v>71.9506133291332</v>
+        <v>107.20463281965527</v>
       </c>
       <c r="B580" t="n">
         <v>25.6</v>
@@ -4710,7 +4710,7 @@
     </row>
     <row r="581">
       <c r="A581" t="n">
-        <v>72.8959360191312</v>
+        <v>107.47232971141301</v>
       </c>
       <c r="B581" t="n">
         <v>24.8</v>
@@ -4718,7 +4718,7 @@
     </row>
     <row r="582">
       <c r="A582" t="n">
-        <v>73.84052315527074</v>
+        <v>107.74167241429274</v>
       </c>
       <c r="B582" t="n">
         <v>24.0</v>
@@ -4726,7 +4726,7 @@
     </row>
     <row r="583">
       <c r="A583" t="n">
-        <v>74.78446624725495</v>
+        <v>108.01270451092961</v>
       </c>
       <c r="B583" t="n">
         <v>23.200000000000003</v>
@@ -4734,7 +4734,7 @@
     </row>
     <row r="584">
       <c r="A584" t="n">
-        <v>75.72786533645098</v>
+        <v>108.28547139809359</v>
       </c>
       <c r="B584" t="n">
         <v>22.400000000000002</v>
@@ -4742,7 +4742,7 @@
     </row>
     <row r="585">
       <c r="A585" t="n">
-        <v>76.67082905809798</v>
+        <v>108.56002039440557</v>
       </c>
       <c r="B585" t="n">
         <v>21.6</v>
@@ -4750,7 +4750,7 @@
     </row>
     <row r="586">
       <c r="A586" t="n">
-        <v>77.61347473391777</v>
+        <v>108.83640085641173</v>
       </c>
       <c r="B586" t="n">
         <v>20.8</v>
@@ -4758,7 +4758,7 @@
     </row>
     <row r="587">
       <c r="A587" t="n">
-        <v>78.55592849768163</v>
+        <v>109.11466430382234</v>
       </c>
       <c r="B587" t="n">
         <v>20.0</v>
@@ -4766,7 +4766,7 @@
     </row>
     <row r="588">
       <c r="A588" t="n">
-        <v>79.49832545653936</v>
+        <v>109.39486455481637</v>
       </c>
       <c r="B588" t="n">
         <v>19.200000000000003</v>
@@ -4774,7 +4774,7 @@
     </row>
     <row r="589">
       <c r="A589" t="n">
-        <v>80.44080989121164</v>
+        <v>109.67705787241562</v>
       </c>
       <c r="B589" t="n">
         <v>18.400000000000002</v>
@@ -4782,7 +4782,7 @@
     </row>
     <row r="590">
       <c r="A590" t="n">
-        <v>81.3835354985016</v>
+        <v>109.96130312305831</v>
       </c>
       <c r="B590" t="n">
         <v>17.6</v>
@@ -4790,7 +4790,7 @@
     </row>
     <row r="591">
       <c r="A591" t="n">
-        <v>82.32666567999235</v>
+        <v>110.24766194863628</v>
       </c>
       <c r="B591" t="n">
         <v>16.8</v>
@@ -4798,7 +4798,7 @@
     </row>
     <row r="592">
       <c r="A592" t="n">
-        <v>83.27037388128605</v>
+        <v>110.53619895341814</v>
       </c>
       <c r="B592" t="n">
         <v>16.0</v>
@@ -4806,7 +4806,7 @@
     </row>
     <row r="593">
       <c r="A593" t="n">
-        <v>84.21484398671282</v>
+        <v>110.82698190746629</v>
       </c>
       <c r="B593" t="n">
         <v>15.200000000000001</v>
@@ -4814,7 +4814,7 @@
     </row>
     <row r="594">
       <c r="A594" t="n">
-        <v>85.16027077510535</v>
+        <v>111.12008196835808</v>
       </c>
       <c r="B594" t="n">
         <v>14.4</v>
@@ -4822,7 +4822,7 @@
     </row>
     <row r="595">
       <c r="A595" t="n">
-        <v>86.10686044302668</v>
+        <v>111.41557392326752</v>
       </c>
       <c r="B595" t="n">
         <v>13.600000000000001</v>
@@ -4830,7 +4830,7 @@
     </row>
     <row r="596">
       <c r="A596" t="n">
-        <v>87.0548312027613</v>
+        <v>111.71353645373756</v>
       </c>
       <c r="B596" t="n">
         <v>12.8</v>
@@ -4838,7 +4838,7 @@
     </row>
     <row r="597">
       <c r="A597" t="n">
-        <v>88.00441396347338</v>
+        <v>112.01405242579727</v>
       </c>
       <c r="B597" t="n">
         <v>12.0</v>
@@ -4846,7 +4846,7 @@
     </row>
     <row r="598">
       <c r="A598" t="n">
-        <v>88.95585310521881</v>
+        <v>112.31720920845487</v>
       </c>
       <c r="B598" t="n">
         <v>11.200000000000001</v>
@@ -4854,7 +4854,7 @@
     </row>
     <row r="599">
       <c r="A599" t="n">
-        <v>89.90940735702407</v>
+        <v>112.62309902402944</v>
       </c>
       <c r="B599" t="n">
         <v>10.4</v>
@@ -4862,7 +4862,7 @@
     </row>
     <row r="600">
       <c r="A600" t="n">
-        <v>90.8653507920477</v>
+        <v>112.9318193343027</v>
       </c>
       <c r="B600" t="n">
         <v>9.600000000000001</v>
@@ -4870,7 +4870,7 @@
     </row>
     <row r="601">
       <c r="A601" t="n">
-        <v>91.82397395499345</v>
+        <v>113.24347326706624</v>
       </c>
       <c r="B601" t="n">
         <v>8.8</v>
@@ -4878,7 +4878,7 @@
     </row>
     <row r="602">
       <c r="A602" t="n">
-        <v>92.78558513951077</v>
+        <v>113.55817008835447</v>
       </c>
       <c r="B602" t="n">
         <v>8.0</v>
@@ -4886,7 +4886,7 @@
     </row>
     <row r="603">
       <c r="A603" t="n">
-        <v>93.7505118364034</v>
+        <v>113.87602572648575</v>
       </c>
       <c r="B603" t="n">
         <v>7.2</v>
@@ -4894,7 +4894,7 @@
     </row>
     <row r="604">
       <c r="A604" t="n">
-        <v>94.71910237717827</v>
+        <v>114.19716335503068</v>
       </c>
       <c r="B604" t="n">
         <v>6.4</v>
@@ -4902,7 +4902,7 @@
     </row>
     <row r="605">
       <c r="A605" t="n">
-        <v>95.69172780195993</v>
+        <v>114.52171404301413</v>
       </c>
       <c r="B605" t="n">
         <v>5.6000000000000005</v>
@@ -4910,7 +4910,7 @@
     </row>
     <row r="606">
       <c r="A606" t="n">
-        <v>96.66878398626227</v>
+        <v>114.8498174820727</v>
       </c>
       <c r="B606" t="n">
         <v>4.800000000000001</v>
@@ -4918,7 +4918,7 @@
     </row>
     <row r="607">
       <c r="A607" t="n">
-        <v>97.65069406778451</v>
+        <v>115.18162280200067</v>
       </c>
       <c r="B607" t="n">
         <v>4.0</v>
@@ -4926,7 +4926,7 @@
     </row>
     <row r="608">
       <c r="A608" t="n">
-        <v>98.63791122261142</v>
+        <v>115.51728948817686</v>
       </c>
       <c r="B608" t="n">
         <v>3.2</v>
@@ -4934,7 +4934,7 @@
     </row>
     <row r="609">
       <c r="A609" t="n">
-        <v>99.63092185033781</v>
+        <v>115.85698841687002</v>
       </c>
       <c r="B609" t="n">
         <v>2.4000000000000004</v>
@@ -4942,7 +4942,7 @@
     </row>
     <row r="610">
       <c r="A610" t="n">
-        <v>100.63024924026422</v>
+        <v>116.20090302747428</v>
       </c>
       <c r="B610" t="n">
         <v>1.6</v>
@@ -4950,7 +4950,7 @@
     </row>
     <row r="611">
       <c r="A611" t="n">
-        <v>101.63645780660488</v>
+        <v>116.54923065448037</v>
       </c>
       <c r="B611" t="n">
         <v>0.8</v>
@@ -4958,7 +4958,7 @@
     </row>
     <row r="612">
       <c r="A612" t="n">
-        <v>102.65015800056955</v>
+        <v>116.90218404660794</v>
       </c>
       <c r="B612" t="n">
         <v>0.0</v>
@@ -4966,7 +4966,7 @@
     </row>
     <row r="613">
       <c r="A613" t="n">
-        <v>-47.32192444898172</v>
+        <v>-83.21533628618289</v>
       </c>
       <c r="B613" t="n">
         <v>0.0</v>
